--- a/KPI Dashboards - Data Mapping.xlsx
+++ b/KPI Dashboards - Data Mapping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23004" windowHeight="8580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23004" windowHeight="8580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dimensions" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="435">
   <si>
     <t>Source System</t>
   </si>
@@ -314,9 +314,6 @@
   </si>
   <si>
     <t>BB3.csv</t>
-  </si>
-  <si>
-    <t>fact.WorkshopStats</t>
   </si>
   <si>
     <t>dim.BranchCodes</t>
@@ -1295,6 +1292,51 @@
   </si>
   <si>
     <t>Date In</t>
+  </si>
+  <si>
+    <t>fact.WasteCost</t>
+  </si>
+  <si>
+    <t>BWC.csv</t>
+  </si>
+  <si>
+    <t>look up on dim.branch using [Cost Centre]</t>
+  </si>
+  <si>
+    <t>Expense</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Jrnl Ref</t>
+  </si>
+  <si>
+    <t>Doc Date</t>
+  </si>
+  <si>
+    <t>SL/PL Acc Code</t>
+  </si>
+  <si>
+    <t>Item number</t>
+  </si>
+  <si>
+    <t>Journal Reference</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>BWC.CSV</t>
+  </si>
+  <si>
+    <t>AutoLine</t>
+  </si>
+  <si>
+    <t>fact.UtlilizationStats</t>
+  </si>
+  <si>
+    <t>look up on dim.NominalCode using Nominal</t>
   </si>
 </sst>
 </file>
@@ -2036,8 +2078,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2133,7 +2176,7 @@
       <c r="C6" s="35"/>
       <c r="D6" s="36"/>
       <c r="E6" s="37" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38"/>
@@ -2201,7 +2244,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>7</v>
@@ -2211,7 +2254,7 @@
         <v>DIM_DATES</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H10" s="26"/>
     </row>
@@ -2224,7 +2267,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15" t="s">
@@ -2235,7 +2278,7 @@
         <v>DIM_DATES</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H11" s="26"/>
     </row>
@@ -2245,10 +2288,10 @@
         <v>dim.Date</v>
       </c>
       <c r="B12" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="C12" s="27" t="s">
         <v>289</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>290</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15" t="s">
@@ -2259,7 +2302,7 @@
         <v>DIM_DATES</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H12" s="26"/>
     </row>
@@ -2269,7 +2312,7 @@
         <v>dim.Date</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>29</v>
@@ -2283,7 +2326,7 @@
         <v>DIM_DATES</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H13" s="26"/>
     </row>
@@ -2293,10 +2336,10 @@
         <v>dim.Date</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15" t="s">
@@ -2307,7 +2350,7 @@
         <v>DIM_DATES</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H14" s="26"/>
     </row>
@@ -2317,7 +2360,7 @@
         <v>dim.Date</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>29</v>
@@ -2331,7 +2374,7 @@
         <v>DIM_DATES</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H15" s="26"/>
     </row>
@@ -2341,10 +2384,10 @@
         <v>dim.Date</v>
       </c>
       <c r="B16" s="27" t="s">
+        <v>290</v>
+      </c>
+      <c r="C16" s="27" t="s">
         <v>291</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>292</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="15" t="s">
@@ -2355,7 +2398,7 @@
         <v>DIM_DATES</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H16" s="26"/>
     </row>
@@ -2365,7 +2408,7 @@
         <v>dim.Date</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>29</v>
@@ -2379,7 +2422,7 @@
         <v>DIM_DATES</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H17" s="26"/>
     </row>
@@ -2389,7 +2432,7 @@
         <v>dim.Date</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>29</v>
@@ -2403,7 +2446,7 @@
         <v>DIM_DATES</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H18" s="26"/>
     </row>
@@ -2413,10 +2456,10 @@
         <v>dim.Date</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15" t="s">
@@ -2427,7 +2470,7 @@
         <v>DIM_DATES</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H19" s="26"/>
     </row>
@@ -2437,7 +2480,7 @@
         <v>dim.Date</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C20" s="27" t="s">
         <v>29</v>
@@ -2451,7 +2494,7 @@
         <v>DIM_DATES</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H20" s="26"/>
     </row>
@@ -2461,10 +2504,10 @@
         <v>dim.Date</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15" t="s">
@@ -2475,7 +2518,7 @@
         <v>DIM_DATES</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H21" s="26"/>
     </row>
@@ -2485,10 +2528,10 @@
         <v>dim.Date</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15" t="s">
@@ -2499,7 +2542,7 @@
         <v>DIM_DATES</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H22" s="26"/>
     </row>
@@ -2509,7 +2552,7 @@
         <v>dim.Date</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C23" s="27" t="s">
         <v>29</v>
@@ -2523,7 +2566,7 @@
         <v>DIM_DATES</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H23" s="26"/>
     </row>
@@ -2533,7 +2576,7 @@
         <v>dim.Date</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C24" s="27" t="s">
         <v>29</v>
@@ -2547,7 +2590,7 @@
         <v>DIM_DATES</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H24" s="26"/>
     </row>
@@ -2557,7 +2600,7 @@
         <v>dim.Date</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C25" s="27" t="s">
         <v>29</v>
@@ -2571,7 +2614,7 @@
         <v>DIM_DATES</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H25" s="26"/>
     </row>
@@ -2581,7 +2624,7 @@
         <v>dim.Date</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>22</v>
@@ -2595,7 +2638,7 @@
         <v>DIM_DATES</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H26" s="26"/>
     </row>
@@ -2605,10 +2648,10 @@
         <v>dim.Date</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="15" t="s">
@@ -2619,7 +2662,7 @@
         <v>DIM_DATES</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H27" s="26"/>
     </row>
@@ -2672,7 +2715,7 @@
     </row>
     <row r="32" spans="1:8" s="11" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="40" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B32" s="41"/>
       <c r="C32" s="41"/>
@@ -2936,7 +2979,7 @@
         <v>dim.Depot</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>25</v>
@@ -2952,7 +2995,7 @@
         <v>dim_Depot</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H46" s="22"/>
     </row>
@@ -3020,13 +3063,13 @@
         <v>1</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G49" s="19" t="s">
         <v>60</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -3149,7 +3192,7 @@
         <v>dim_Depot</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H54" s="22"/>
     </row>
@@ -3234,7 +3277,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="40" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B62" s="41"/>
       <c r="C62" s="41"/>
@@ -3293,7 +3336,7 @@
         <v>DIM_Part</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H64" s="19" t="s">
         <v>24</v>
@@ -3305,10 +3348,10 @@
         <v>dim.Part</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D65" s="19"/>
       <c r="E65" s="19" t="s">
@@ -3319,7 +3362,7 @@
         <v>DIM_Part</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H65" s="19" t="s">
         <v>24</v>
@@ -3331,10 +3374,10 @@
         <v>dim.Part</v>
       </c>
       <c r="B66" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="C66" s="19" t="s">
         <v>330</v>
-      </c>
-      <c r="C66" s="19" t="s">
-        <v>331</v>
       </c>
       <c r="D66" s="19"/>
       <c r="E66" s="19" t="s">
@@ -3345,7 +3388,7 @@
         <v>DIM_Part</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H66" s="19" t="s">
         <v>24</v>
@@ -3357,10 +3400,10 @@
         <v>dim.Part</v>
       </c>
       <c r="B67" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="C67" s="19" t="s">
         <v>332</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>333</v>
       </c>
       <c r="D67" s="19"/>
       <c r="E67" s="19" t="s">
@@ -3371,7 +3414,7 @@
         <v>DIM_Part</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="H67" s="19" t="s">
         <v>24</v>
@@ -3386,7 +3429,7 @@
         <v>16</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D68" s="19"/>
       <c r="E68" s="19" t="s">
@@ -3397,7 +3440,7 @@
         <v>DIM_Part</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H68" s="19" t="s">
         <v>24</v>
@@ -3409,10 +3452,10 @@
         <v>dim.Part</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D69" s="19"/>
       <c r="E69" s="19" t="s">
@@ -3423,7 +3466,7 @@
         <v>DIM_Part</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H69" s="19" t="s">
         <v>24</v>
@@ -3435,10 +3478,10 @@
         <v>dim.Part</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D70" s="19"/>
       <c r="E70" s="19" t="s">
@@ -3449,7 +3492,7 @@
         <v>DIM_Part</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H70" s="19" t="s">
         <v>24</v>
@@ -3461,10 +3504,10 @@
         <v>dim.Part</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D71" s="19"/>
       <c r="E71" s="19" t="s">
@@ -3475,7 +3518,7 @@
         <v>DIM_Part</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H71" s="19" t="s">
         <v>24</v>
@@ -3487,10 +3530,10 @@
         <v>dim.Part</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D72" s="19"/>
       <c r="E72" s="19" t="s">
@@ -3501,7 +3544,7 @@
         <v>DIM_Part</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H72" s="19" t="s">
         <v>24</v>
@@ -3513,10 +3556,10 @@
         <v>dim.Part</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D73" s="19"/>
       <c r="E73" s="19" t="s">
@@ -3527,7 +3570,7 @@
         <v>DIM_Part</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H73" s="19" t="s">
         <v>24</v>
@@ -3539,10 +3582,10 @@
         <v>dim.Part</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D74" s="19"/>
       <c r="E74" s="19" t="s">
@@ -3553,7 +3596,7 @@
         <v>DIM_Part</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H74" s="19" t="s">
         <v>24</v>
@@ -3565,10 +3608,10 @@
         <v>dim.Part</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D75" s="19"/>
       <c r="E75" s="19" t="s">
@@ -3579,7 +3622,7 @@
         <v>DIM_Part</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H75" s="19" t="s">
         <v>24</v>
@@ -3591,10 +3634,10 @@
         <v>dim.Part</v>
       </c>
       <c r="B76" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C76" s="19" t="s">
         <v>341</v>
-      </c>
-      <c r="C76" s="19" t="s">
-        <v>342</v>
       </c>
       <c r="D76" s="19"/>
       <c r="E76" s="19" t="s">
@@ -3605,7 +3648,7 @@
         <v>DIM_Part</v>
       </c>
       <c r="G76" s="19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H76" s="19" t="s">
         <v>24</v>
@@ -3632,7 +3675,7 @@
         <v>66</v>
       </c>
       <c r="G77" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H77" s="19" t="s">
         <v>24</v>
@@ -3659,7 +3702,7 @@
         <v>66</v>
       </c>
       <c r="G78" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H78" s="19" t="s">
         <v>24</v>
@@ -3850,7 +3893,7 @@
         <v>59</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C89" s="19" t="s">
         <v>22</v>
@@ -3875,7 +3918,7 @@
         <v>59</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C90" s="19" t="s">
         <v>29</v>
@@ -3894,7 +3937,7 @@
         <v>66</v>
       </c>
       <c r="H90" s="22" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -4031,7 +4074,7 @@
         <v>dim.NominalCodes</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C98" s="19" t="s">
         <v>29</v>
@@ -4043,7 +4086,7 @@
         <v>Sales and Codes.xlsx</v>
       </c>
       <c r="G98" s="19" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H98" s="19"/>
     </row>
@@ -4053,7 +4096,7 @@
         <v>dim.NominalCodes</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C99" s="19" t="s">
         <v>29</v>
@@ -4075,7 +4118,7 @@
         <v>dim.NominalCodes</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C100" s="19" t="s">
         <v>29</v>
@@ -4087,7 +4130,7 @@
         <v>Sales and Codes.xlsx</v>
       </c>
       <c r="G100" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H100" s="19"/>
     </row>
@@ -4097,7 +4140,7 @@
         <v>dim.NominalCodes</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C101" s="19" t="s">
         <v>29</v>
@@ -4109,7 +4152,7 @@
         <v>Sales and Codes.xlsx</v>
       </c>
       <c r="G101" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H101" s="19"/>
     </row>
@@ -4119,7 +4162,7 @@
         <v>dim.NominalCodes</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C102" s="19" t="s">
         <v>29</v>
@@ -4131,7 +4174,7 @@
         <v>Sales and Codes.xlsx</v>
       </c>
       <c r="G102" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H102" s="19"/>
     </row>
@@ -4158,7 +4201,7 @@
     <row r="105" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="106" spans="1:8" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B106" s="35"/>
       <c r="C106" s="35"/>
@@ -4317,7 +4360,7 @@
         <v>dim.BranchCodes</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C113" s="19" t="s">
         <v>29</v>
@@ -4351,7 +4394,7 @@
         <v>22</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E114" s="19" t="s">
         <v>64</v>
@@ -4373,13 +4416,13 @@
     <row r="116" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="117" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B117" s="35"/>
       <c r="C117" s="35"/>
       <c r="D117" s="36"/>
       <c r="E117" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F117" s="38"/>
       <c r="G117" s="38"/>
@@ -4504,7 +4547,7 @@
         <v>dim.ObselenceCategory</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C123" s="19" t="s">
         <v>29</v>
@@ -4525,7 +4568,7 @@
         <v>dim.ObselenceCategory</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C124" s="10" t="s">
         <v>29</v>
@@ -4534,13 +4577,13 @@
     <row r="125" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="126" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="34" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B126" s="35"/>
       <c r="C126" s="35"/>
       <c r="D126" s="36"/>
       <c r="E126" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F126" s="38"/>
       <c r="G126" s="38"/>
@@ -4665,7 +4708,7 @@
         <v>dim.CreditStatus</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C132" s="19" t="s">
         <v>29</v>
@@ -4686,7 +4729,7 @@
         <v>dim.CreditStatus</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C133" s="10" t="s">
         <v>29</v>
@@ -4699,13 +4742,13 @@
     <row r="134" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="135" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B135" s="35"/>
       <c r="C135" s="35"/>
       <c r="D135" s="36"/>
       <c r="E135" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F135" s="38"/>
       <c r="G135" s="38"/>
@@ -4830,7 +4873,7 @@
         <v>dim.QueryReason</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C141" s="19" t="s">
         <v>29</v>
@@ -4851,7 +4894,7 @@
         <v>dim.QueryReason</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C142" s="19" t="s">
         <v>29</v>
@@ -4869,13 +4912,13 @@
     <row r="144" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="145" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="34" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B145" s="35"/>
       <c r="C145" s="35"/>
       <c r="D145" s="36"/>
       <c r="E145" s="37" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F145" s="38"/>
       <c r="G145" s="38"/>
@@ -4909,7 +4952,7 @@
     </row>
     <row r="147" spans="1:8" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="40" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B147" s="41"/>
       <c r="C147" s="41"/>
@@ -5002,7 +5045,7 @@
         <v>dim.DepartmentType</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C151" s="19" t="s">
         <v>29</v>
@@ -5023,7 +5066,7 @@
         <v>dim.DepartmentType</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C152" s="19" t="s">
         <v>29</v>
@@ -5081,7 +5124,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B156" s="41"/>
       <c r="C156" s="41"/>
@@ -5172,7 +5215,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C160" s="19" t="s">
         <v>22</v>
@@ -5186,7 +5229,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G160" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H160" s="19"/>
     </row>
@@ -5196,7 +5239,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C161" s="19" t="s">
         <v>25</v>
@@ -5210,7 +5253,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G161" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H161" s="19"/>
     </row>
@@ -5220,7 +5263,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C162" s="19" t="s">
         <v>25</v>
@@ -5234,7 +5277,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G162" s="19" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H162" s="19"/>
     </row>
@@ -5244,7 +5287,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C163" s="19" t="s">
         <v>25</v>
@@ -5258,7 +5301,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G163" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H163" s="19"/>
     </row>
@@ -5268,7 +5311,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C164" s="19" t="s">
         <v>25</v>
@@ -5282,7 +5325,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G164" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H164" s="19"/>
     </row>
@@ -5292,7 +5335,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C165" s="19" t="s">
         <v>25</v>
@@ -5306,7 +5349,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G165" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H165" s="19"/>
     </row>
@@ -5316,7 +5359,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C166" s="19" t="s">
         <v>25</v>
@@ -5330,7 +5373,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G166" s="19" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H166" s="19"/>
     </row>
@@ -5364,7 +5407,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C168" s="19" t="s">
         <v>25</v>
@@ -5378,7 +5421,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G168" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H168" s="19"/>
     </row>
@@ -5388,7 +5431,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C169" s="19" t="s">
         <v>25</v>
@@ -5402,7 +5445,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G169" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H169" s="19"/>
     </row>
@@ -5412,7 +5455,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C170" s="19" t="s">
         <v>52</v>
@@ -5426,7 +5469,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G170" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H170" s="19"/>
     </row>
@@ -5436,7 +5479,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C171" s="19" t="s">
         <v>25</v>
@@ -5450,7 +5493,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G171" s="19" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H171" s="19"/>
     </row>
@@ -5460,7 +5503,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C172" s="19" t="s">
         <v>25</v>
@@ -5474,7 +5517,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G172" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H172" s="19"/>
     </row>
@@ -5484,7 +5527,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B173" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C173" s="19" t="s">
         <v>25</v>
@@ -5498,7 +5541,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G173" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H173" s="19"/>
     </row>
@@ -5508,7 +5551,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C174" s="19" t="s">
         <v>25</v>
@@ -5522,7 +5565,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G174" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H174" s="19"/>
     </row>
@@ -5532,7 +5575,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C175" s="19" t="s">
         <v>25</v>
@@ -5546,7 +5589,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H175" s="19"/>
     </row>
@@ -5556,7 +5599,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C176" s="19" t="s">
         <v>25</v>
@@ -5570,7 +5613,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G176" s="19" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H176" s="19"/>
     </row>
@@ -5580,7 +5623,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C177" s="19" t="s">
         <v>25</v>
@@ -5594,7 +5637,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G177" s="19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H177" s="19"/>
     </row>
@@ -5604,7 +5647,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C178" s="19" t="s">
         <v>25</v>
@@ -5618,7 +5661,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G178" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H178" s="19"/>
     </row>
@@ -5628,7 +5671,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C179" s="19" t="s">
         <v>25</v>
@@ -5642,7 +5685,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G179" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H179" s="19"/>
     </row>
@@ -5652,7 +5695,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C180" s="19" t="s">
         <v>25</v>
@@ -5666,7 +5709,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G180" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H180" s="19"/>
     </row>
@@ -5676,7 +5719,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B181" s="19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C181" s="19" t="s">
         <v>25</v>
@@ -5690,7 +5733,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G181" s="19" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H181" s="19"/>
     </row>
@@ -5759,10 +5802,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H267"/>
+  <dimension ref="A1:H290"/>
   <sheetViews>
-    <sheetView topLeftCell="A214" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5793,8 +5837,8 @@
       <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12">
-        <v>21</v>
+      <c r="A2" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>13</v>
@@ -5940,13 +5984,13 @@
         <v>fact.Budget</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
@@ -5954,7 +5998,7 @@
         <v>87</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -5977,7 +6021,7 @@
         <v>88</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>89</v>
+        <v>434</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -5989,7 +6033,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>30</v>
@@ -6132,7 +6176,7 @@
         <v>fact.Revenue</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>22</v>
@@ -6161,7 +6205,7 @@
         <v>22</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
@@ -6169,7 +6213,7 @@
         <v>87</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -6181,7 +6225,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
@@ -6213,13 +6257,13 @@
     <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="34" t="s">
-        <v>96</v>
+        <v>433</v>
       </c>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="36"/>
       <c r="E30" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F30" s="38"/>
       <c r="G30" s="38"/>
@@ -6253,7 +6297,7 @@
     </row>
     <row r="32" spans="1:8" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="40" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B32" s="41"/>
       <c r="C32" s="41"/>
@@ -6266,7 +6310,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="str">
         <f>$A$30</f>
-        <v>fact.WorkshopStats</v>
+        <v>fact.UtlilizationStats</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>21</v>
@@ -6285,7 +6329,7 @@
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="str">
         <f t="shared" ref="A34:A62" si="2">$A$30</f>
-        <v>fact.WorkshopStats</v>
+        <v>fact.UtlilizationStats</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>81</v>
@@ -6302,7 +6346,7 @@
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.WorkshopStats</v>
+        <v>fact.UtlilizationStats</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>82</v>
@@ -6319,7 +6363,7 @@
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.WorkshopStats</v>
+        <v>fact.UtlilizationStats</v>
       </c>
       <c r="B36" s="27" t="s">
         <v>5</v>
@@ -6328,49 +6372,49 @@
         <v>22</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.WorkshopStats</v>
+        <v>fact.UtlilizationStats</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H37" s="26"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.WorkshopStats</v>
+        <v>fact.UtlilizationStats</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>86</v>
@@ -6381,17 +6425,17 @@
         <v>2</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H38" s="26"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.WorkshopStats</v>
+        <v>fact.UtlilizationStats</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>86</v>
@@ -6402,17 +6446,17 @@
         <v>2</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H39" s="26"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.WorkshopStats</v>
+        <v>fact.UtlilizationStats</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>86</v>
@@ -6423,17 +6467,17 @@
         <v>2</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H40" s="26"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.WorkshopStats</v>
+        <v>fact.UtlilizationStats</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>86</v>
@@ -6444,17 +6488,17 @@
         <v>2</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H41" s="26"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.WorkshopStats</v>
+        <v>fact.UtlilizationStats</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>86</v>
@@ -6465,17 +6509,17 @@
         <v>2</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H42" s="26"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.WorkshopStats</v>
+        <v>fact.UtlilizationStats</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>86</v>
@@ -6486,17 +6530,17 @@
         <v>2</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H43" s="26"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.WorkshopStats</v>
+        <v>fact.UtlilizationStats</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>86</v>
@@ -6507,17 +6551,17 @@
         <v>2</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H44" s="26"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.WorkshopStats</v>
+        <v>fact.UtlilizationStats</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>86</v>
@@ -6528,17 +6572,17 @@
         <v>2</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H45" s="26"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.WorkshopStats</v>
+        <v>fact.UtlilizationStats</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>86</v>
@@ -6549,17 +6593,17 @@
         <v>2</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H46" s="26"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.WorkshopStats</v>
+        <v>fact.UtlilizationStats</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>86</v>
@@ -6570,17 +6614,17 @@
         <v>2</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H47" s="26"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.WorkshopStats</v>
+        <v>fact.UtlilizationStats</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>86</v>
@@ -6591,14 +6635,14 @@
         <v>2</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H48" s="26"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.WorkshopStats</v>
+        <v>fact.UtlilizationStats</v>
       </c>
       <c r="B49" s="27" t="s">
         <v>84</v>
@@ -6612,17 +6656,17 @@
         <v>2</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H49" s="26"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.WorkshopStats</v>
+        <v>fact.UtlilizationStats</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>86</v>
@@ -6633,17 +6677,17 @@
         <v>2</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H50" s="26"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.WorkshopStats</v>
+        <v>fact.UtlilizationStats</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>86</v>
@@ -6654,17 +6698,17 @@
         <v>2</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H51" s="26"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.WorkshopStats</v>
+        <v>fact.UtlilizationStats</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>86</v>
@@ -6675,17 +6719,17 @@
         <v>2</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H52" s="26"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.WorkshopStats</v>
+        <v>fact.UtlilizationStats</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>86</v>
@@ -6696,17 +6740,17 @@
         <v>2</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H53" s="26"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.WorkshopStats</v>
+        <v>fact.UtlilizationStats</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>86</v>
@@ -6717,17 +6761,17 @@
         <v>2</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H54" s="26"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.WorkshopStats</v>
+        <v>fact.UtlilizationStats</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>86</v>
@@ -6738,17 +6782,17 @@
         <v>3</v>
       </c>
       <c r="G55" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H55" s="26"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.WorkshopStats</v>
+        <v>fact.UtlilizationStats</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C56" s="15" t="s">
         <v>86</v>
@@ -6759,17 +6803,17 @@
         <v>3</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H56" s="15"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.WorkshopStats</v>
+        <v>fact.UtlilizationStats</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>86</v>
@@ -6780,17 +6824,17 @@
         <v>3</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H57" s="15"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.WorkshopStats</v>
+        <v>fact.UtlilizationStats</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>86</v>
@@ -6801,17 +6845,17 @@
         <v>3</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H58" s="15"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.WorkshopStats</v>
+        <v>fact.UtlilizationStats</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C59" s="15" t="s">
         <v>86</v>
@@ -6822,17 +6866,17 @@
         <v>3</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H59" s="15"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.WorkshopStats</v>
+        <v>fact.UtlilizationStats</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>86</v>
@@ -6843,17 +6887,17 @@
         <v>3</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H60" s="15"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.WorkshopStats</v>
+        <v>fact.UtlilizationStats</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>86</v>
@@ -6864,17 +6908,17 @@
         <v>3</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H61" s="15"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.WorkshopStats</v>
+        <v>fact.UtlilizationStats</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>86</v>
@@ -6885,20 +6929,20 @@
         <v>3</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H62" s="15"/>
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B64" s="35"/>
       <c r="C64" s="35"/>
       <c r="D64" s="36"/>
       <c r="E64" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F64" s="38"/>
       <c r="G64" s="38"/>
@@ -6932,7 +6976,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B66" s="41"/>
       <c r="C66" s="41"/>
@@ -7007,17 +7051,17 @@
         <v>22</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E70" s="15"/>
       <c r="F70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H70" s="26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -7029,7 +7073,7 @@
         <v>4</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D71" s="27"/>
       <c r="E71" s="15"/>
@@ -7040,7 +7084,7 @@
         <v>66</v>
       </c>
       <c r="H71" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -7049,7 +7093,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C72" s="15" t="s">
         <v>86</v>
@@ -7060,7 +7104,7 @@
         <v>8</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H72" s="26"/>
     </row>
@@ -7070,7 +7114,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>86</v>
@@ -7081,7 +7125,7 @@
         <v>8</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H73" s="26"/>
     </row>
@@ -7091,7 +7135,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C74" s="15" t="s">
         <v>86</v>
@@ -7102,7 +7146,7 @@
         <v>8</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H74" s="26"/>
     </row>
@@ -7112,7 +7156,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C75" s="15" t="s">
         <v>86</v>
@@ -7123,7 +7167,7 @@
         <v>8</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H75" s="26"/>
     </row>
@@ -7133,7 +7177,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B76" s="27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>86</v>
@@ -7144,7 +7188,7 @@
         <v>8</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H76" s="26"/>
     </row>
@@ -7154,7 +7198,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>86</v>
@@ -7165,7 +7209,7 @@
         <v>8</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H77" s="26"/>
     </row>
@@ -7175,7 +7219,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>86</v>
@@ -7186,7 +7230,7 @@
         <v>8</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H78" s="26"/>
     </row>
@@ -7196,7 +7240,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>86</v>
@@ -7207,7 +7251,7 @@
         <v>8</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H79" s="26"/>
     </row>
@@ -7217,7 +7261,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B80" s="27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>86</v>
@@ -7228,7 +7272,7 @@
         <v>8</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H80" s="26"/>
     </row>
@@ -7238,7 +7282,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C81" s="15" t="s">
         <v>86</v>
@@ -7249,7 +7293,7 @@
         <v>8</v>
       </c>
       <c r="G81" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H81" s="26"/>
     </row>
@@ -7259,7 +7303,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>86</v>
@@ -7270,7 +7314,7 @@
         <v>8</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H82" s="26"/>
     </row>
@@ -7291,7 +7335,7 @@
         <v>8</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H83" s="26"/>
     </row>
@@ -7301,7 +7345,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B84" s="27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>86</v>
@@ -7312,7 +7356,7 @@
         <v>8</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H84" s="26"/>
     </row>
@@ -7322,7 +7366,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>86</v>
@@ -7333,7 +7377,7 @@
         <v>8</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H85" s="26"/>
     </row>
@@ -7343,7 +7387,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C86" s="15" t="s">
         <v>86</v>
@@ -7354,7 +7398,7 @@
         <v>8</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H86" s="26"/>
     </row>
@@ -7364,7 +7408,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>86</v>
@@ -7375,7 +7419,7 @@
         <v>8</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H87" s="26"/>
     </row>
@@ -7385,7 +7429,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>86</v>
@@ -7396,7 +7440,7 @@
         <v>8</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H88" s="26"/>
     </row>
@@ -7406,7 +7450,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C89" s="15" t="s">
         <v>86</v>
@@ -7417,7 +7461,7 @@
         <v>8</v>
       </c>
       <c r="G89" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H89" s="26"/>
     </row>
@@ -7427,7 +7471,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C90" s="15" t="s">
         <v>86</v>
@@ -7438,7 +7482,7 @@
         <v>9</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H90" s="15"/>
     </row>
@@ -7448,7 +7492,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C91" s="15" t="s">
         <v>86</v>
@@ -7459,7 +7503,7 @@
         <v>9</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H91" s="15"/>
     </row>
@@ -7469,7 +7513,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C92" s="15" t="s">
         <v>86</v>
@@ -7480,7 +7524,7 @@
         <v>9</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H92" s="15"/>
     </row>
@@ -7490,7 +7534,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C93" s="15" t="s">
         <v>86</v>
@@ -7501,7 +7545,7 @@
         <v>9</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H93" s="15"/>
     </row>
@@ -7511,7 +7555,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C94" s="15" t="s">
         <v>86</v>
@@ -7522,7 +7566,7 @@
         <v>9</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H94" s="15"/>
     </row>
@@ -7532,7 +7576,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>86</v>
@@ -7543,7 +7587,7 @@
         <v>9</v>
       </c>
       <c r="G95" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H95" s="15"/>
     </row>
@@ -7553,7 +7597,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>86</v>
@@ -7564,7 +7608,7 @@
         <v>9</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H96" s="15"/>
     </row>
@@ -7581,13 +7625,13 @@
     <row r="98" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="99" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="51" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B99" s="52"/>
       <c r="C99" s="52"/>
       <c r="D99" s="53"/>
       <c r="E99" s="54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F99" s="55"/>
       <c r="G99" s="55"/>
@@ -7621,7 +7665,7 @@
     </row>
     <row r="101" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B101" s="49"/>
       <c r="C101" s="49"/>
@@ -7696,7 +7740,7 @@
         <v>22</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E105" s="15"/>
       <c r="F105" s="15" t="str">
@@ -7704,10 +7748,10 @@
         <v>DealerDevelopmentData.csv</v>
       </c>
       <c r="G105" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="H105" s="26" t="s">
         <v>104</v>
-      </c>
-      <c r="H105" s="26" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
@@ -7719,7 +7763,7 @@
         <v>4</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D106" s="27" t="s">
         <v>30</v>
@@ -7755,13 +7799,13 @@
     <row r="110" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="111" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B111" s="52"/>
       <c r="C111" s="52"/>
       <c r="D111" s="53"/>
       <c r="E111" s="54" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F111" s="55"/>
       <c r="G111" s="55"/>
@@ -7824,7 +7868,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="15" t="str">
-        <f t="shared" ref="A115:A125" si="6">$A$111</f>
+        <f t="shared" ref="A115:A127" si="6">$A$111</f>
         <v>fact.Obsolescence</v>
       </c>
       <c r="B115" s="15" t="s">
@@ -7868,7 +7912,7 @@
         <v>22</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E117" s="15"/>
       <c r="F117" s="15" t="str">
@@ -7879,7 +7923,7 @@
         <v>69</v>
       </c>
       <c r="H117" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
@@ -7894,7 +7938,7 @@
         <v>22</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E118" s="15"/>
       <c r="F118" s="15" t="str">
@@ -7902,10 +7946,10 @@
         <v>B14.csv</v>
       </c>
       <c r="G118" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H118" s="26" t="s">
         <v>111</v>
-      </c>
-      <c r="H118" s="26" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
@@ -7917,7 +7961,7 @@
         <v>4</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D119" s="27"/>
       <c r="E119" s="15"/>
@@ -7934,21 +7978,21 @@
         <v>fact.Obsolescence</v>
       </c>
       <c r="B120" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C120" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D120" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E120" s="15"/>
       <c r="F120" s="15"/>
       <c r="G120" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H120" s="26" t="s">
         <v>119</v>
-      </c>
-      <c r="H120" s="26" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
@@ -7957,7 +8001,7 @@
         <v>fact.Obsolescence</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C121" s="15" t="s">
         <v>86</v>
@@ -7969,7 +8013,7 @@
         <v>B14.csv</v>
       </c>
       <c r="G121" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H121" s="26"/>
     </row>
@@ -7979,7 +8023,7 @@
         <v>fact.Obsolescence</v>
       </c>
       <c r="B122" s="27" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C122" s="15" t="s">
         <v>86</v>
@@ -7991,7 +8035,7 @@
         <v>B14.csv</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H122" s="26"/>
     </row>
@@ -8001,7 +8045,7 @@
         <v>fact.Obsolescence</v>
       </c>
       <c r="B123" s="29" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C123" s="15" t="s">
         <v>86</v>
@@ -8009,11 +8053,11 @@
       <c r="D123" s="15"/>
       <c r="E123" s="15"/>
       <c r="F123" s="15" t="str">
-        <f t="shared" ref="F123:F125" si="8">$E$111</f>
+        <f t="shared" ref="F123:F127" si="8">$E$111</f>
         <v>B14.csv</v>
       </c>
       <c r="G123" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H123" s="26"/>
     </row>
@@ -8023,7 +8067,7 @@
         <v>fact.Obsolescence</v>
       </c>
       <c r="B124" s="29" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C124" s="15" t="s">
         <v>86</v>
@@ -8035,7 +8079,7 @@
         <v>B14.csv</v>
       </c>
       <c r="G124" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H124" s="26"/>
     </row>
@@ -8045,7 +8089,7 @@
         <v>fact.Obsolescence</v>
       </c>
       <c r="B125" s="27" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C125" s="15" t="s">
         <v>86</v>
@@ -8057,95 +8101,122 @@
         <v>B14.csv</v>
       </c>
       <c r="G125" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H125" s="26"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H126" s="11"/>
-    </row>
-    <row r="127" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="128" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="34" t="s">
-        <v>126</v>
-      </c>
-      <c r="B128" s="35"/>
-      <c r="C128" s="35"/>
-      <c r="D128" s="36"/>
-      <c r="E128" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="F128" s="38"/>
-      <c r="G128" s="38"/>
-      <c r="H128" s="39"/>
-    </row>
+      <c r="A126" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>fact.Obsolescence</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="C126" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G126" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H126" s="15" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="15" t="str">
+        <f t="shared" si="6"/>
+        <v>fact.Obsolescence</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="C127" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15" t="str">
+        <f t="shared" si="8"/>
+        <v>B14.csv</v>
+      </c>
+      <c r="G127" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H127" s="15" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="129" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="12" t="s">
+      <c r="A129" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B129" s="35"/>
+      <c r="C129" s="35"/>
+      <c r="D129" s="36"/>
+      <c r="E129" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F129" s="38"/>
+      <c r="G129" s="38"/>
+      <c r="H129" s="39"/>
+    </row>
+    <row r="130" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B129" s="16" t="s">
+      <c r="B130" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C129" s="14" t="s">
+      <c r="C130" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D129" s="16" t="s">
+      <c r="D130" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E129" s="16" t="s">
+      <c r="E130" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F129" s="13" t="s">
+      <c r="F130" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G129" s="16" t="s">
+      <c r="G130" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H129" s="23" t="s">
+      <c r="H130" s="23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="40"/>
-      <c r="B130" s="41"/>
-      <c r="C130" s="41"/>
-      <c r="D130" s="41"/>
-      <c r="E130" s="41"/>
-      <c r="F130" s="41"/>
-      <c r="G130" s="41"/>
-      <c r="H130" s="42"/>
-    </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="15" t="str">
-        <f>$A$128</f>
-        <v>fact.WarrantyOutstandingAmount</v>
-      </c>
-      <c r="B131" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C131" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D131" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E131" s="15"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="15"/>
-      <c r="H131" s="26"/>
+      <c r="A131" s="40"/>
+      <c r="B131" s="41"/>
+      <c r="C131" s="41"/>
+      <c r="D131" s="41"/>
+      <c r="E131" s="41"/>
+      <c r="F131" s="41"/>
+      <c r="G131" s="41"/>
+      <c r="H131" s="42"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="15" t="str">
-        <f t="shared" ref="A132:A142" si="9">$A$128</f>
+        <f>$A$129</f>
         <v>fact.WarrantyOutstandingAmount</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D132" s="15"/>
+        <v>22</v>
+      </c>
+      <c r="D132" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="E132" s="15"/>
       <c r="F132" s="15"/>
       <c r="G132" s="15"/>
@@ -8153,11 +8224,11 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="A133:A145" si="9">$A$129</f>
         <v>fact.WarrantyOutstandingAmount</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C133" s="15" t="s">
         <v>93</v>
@@ -8174,71 +8245,66 @@
         <v>fact.WarrantyOutstandingAmount</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>384</v>
+        <v>82</v>
       </c>
       <c r="C134" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="D134" s="15" t="s">
-        <v>385</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D134" s="15"/>
       <c r="E134" s="15"/>
-      <c r="F134" s="15" t="str">
-        <f>$E$128</f>
-        <v>BB0.csv</v>
-      </c>
-      <c r="G134" s="15" t="s">
-        <v>387</v>
-      </c>
+      <c r="F134" s="15"/>
+      <c r="G134" s="15"/>
       <c r="H134" s="26"/>
     </row>
-    <row r="135" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="15" t="str">
         <f t="shared" si="9"/>
         <v>fact.WarrantyOutstandingAmount</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>5</v>
+        <v>383</v>
       </c>
       <c r="C135" s="15" t="s">
-        <v>22</v>
+        <v>341</v>
       </c>
       <c r="D135" s="15" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E135" s="15"/>
       <c r="F135" s="15" t="str">
-        <f>$E$128</f>
+        <f>$E$129</f>
         <v>BB0.csv</v>
       </c>
       <c r="G135" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H135" s="33" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+      <c r="H135" s="26"/>
+    </row>
+    <row r="136" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A136" s="15" t="str">
         <f t="shared" si="9"/>
         <v>fact.WarrantyOutstandingAmount</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C136" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D136" s="15"/>
+        <v>22</v>
+      </c>
+      <c r="D136" s="15" t="s">
+        <v>385</v>
+      </c>
       <c r="E136" s="15"/>
       <c r="F136" s="15" t="str">
-        <f t="shared" ref="F136:F142" si="10">$E$128</f>
+        <f>$E$129</f>
         <v>BB0.csv</v>
       </c>
       <c r="G136" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="H136" s="15"/>
+      <c r="H136" s="33" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="15" t="str">
@@ -8246,23 +8312,21 @@
         <v>fact.WarrantyOutstandingAmount</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>381</v>
+        <v>4</v>
       </c>
       <c r="C137" s="15" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="D137" s="15"/>
       <c r="E137" s="15"/>
       <c r="F137" s="15" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="F137:F145" si="10">$E$129</f>
         <v>BB0.csv</v>
       </c>
       <c r="G137" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="H137" s="15" t="s">
-        <v>383</v>
-      </c>
+      <c r="H137" s="15"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="15" t="str">
@@ -8270,7 +8334,7 @@
         <v>fact.WarrantyOutstandingAmount</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C138" s="15" t="s">
         <v>86</v>
@@ -8284,7 +8348,9 @@
       <c r="G138" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="H138" s="15"/>
+      <c r="H138" s="15" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="15" t="str">
@@ -8292,10 +8358,10 @@
         <v>fact.WarrantyOutstandingAmount</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>123</v>
+        <v>381</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="D139" s="15"/>
       <c r="E139" s="15"/>
@@ -8304,7 +8370,7 @@
         <v>BB0.csv</v>
       </c>
       <c r="G139" s="15" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="H139" s="15"/>
     </row>
@@ -8314,7 +8380,7 @@
         <v>fact.WarrantyOutstandingAmount</v>
       </c>
       <c r="B140" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C140" s="15" t="s">
         <v>4</v>
@@ -8326,7 +8392,7 @@
         <v>BB0.csv</v>
       </c>
       <c r="G140" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H140" s="15"/>
     </row>
@@ -8336,10 +8402,10 @@
         <v>fact.WarrantyOutstandingAmount</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="C141" s="15" t="s">
-        <v>342</v>
+        <v>4</v>
       </c>
       <c r="D141" s="15"/>
       <c r="E141" s="15"/>
@@ -8348,7 +8414,7 @@
         <v>BB0.csv</v>
       </c>
       <c r="G141" s="15" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="H141" s="15"/>
     </row>
@@ -8358,10 +8424,10 @@
         <v>fact.WarrantyOutstandingAmount</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>391</v>
+        <v>171</v>
       </c>
       <c r="C142" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D142" s="15"/>
       <c r="E142" s="15"/>
@@ -8370,186 +8436,183 @@
         <v>BB0.csv</v>
       </c>
       <c r="G142" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="H142" s="15"/>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v>fact.WarrantyOutstandingAmount</v>
+      </c>
+      <c r="B143" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="C143" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="D143" s="15"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v>BB0.csv</v>
+      </c>
+      <c r="G143" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="H143" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="H142" s="15" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="144" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="B144" s="35"/>
-      <c r="C144" s="35"/>
-      <c r="D144" s="36"/>
-      <c r="E144" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="F144" s="38"/>
-      <c r="G144" s="38"/>
-      <c r="H144" s="39"/>
-    </row>
-    <row r="145" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="12" t="s">
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v>fact.WarrantyOutstandingAmount</v>
+      </c>
+      <c r="B144" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="C144" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="D144" s="15"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G144" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H144" s="15" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" s="15" t="str">
+        <f t="shared" si="9"/>
+        <v>fact.WarrantyOutstandingAmount</v>
+      </c>
+      <c r="B145" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="C145" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D145" s="15"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15" t="str">
+        <f t="shared" si="10"/>
+        <v>BB0.csv</v>
+      </c>
+      <c r="G145" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H145" s="15" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="147" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B147" s="35"/>
+      <c r="C147" s="35"/>
+      <c r="D147" s="36"/>
+      <c r="E147" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="F147" s="38"/>
+      <c r="G147" s="38"/>
+      <c r="H147" s="39"/>
+    </row>
+    <row r="148" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B145" s="16" t="s">
+      <c r="B148" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C145" s="14" t="s">
+      <c r="C148" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D145" s="16" t="s">
+      <c r="D148" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E145" s="16" t="s">
+      <c r="E148" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F145" s="13" t="s">
+      <c r="F148" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G145" s="16" t="s">
+      <c r="G148" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H145" s="23" t="s">
+      <c r="H148" s="23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="40"/>
-      <c r="B146" s="41"/>
-      <c r="C146" s="41"/>
-      <c r="D146" s="41"/>
-      <c r="E146" s="41"/>
-      <c r="F146" s="41"/>
-      <c r="G146" s="41"/>
-      <c r="H146" s="42"/>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A147" s="15" t="str">
-        <f t="shared" ref="A147:A159" si="11">$A$144</f>
-        <v>fact.CashSaleOutstandingAmount</v>
-      </c>
-      <c r="B147" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C147" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D147" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E147" s="15"/>
-      <c r="F147" s="15"/>
-      <c r="G147" s="15"/>
-      <c r="H147" s="26"/>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148" s="15" t="str">
-        <f t="shared" si="11"/>
-        <v>fact.CashSaleOutstandingAmount</v>
-      </c>
-      <c r="B148" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C148" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D148" s="15"/>
-      <c r="E148" s="15"/>
-      <c r="F148" s="15"/>
-      <c r="G148" s="15"/>
-      <c r="H148" s="26"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149" s="15" t="str">
-        <f t="shared" si="11"/>
-        <v>fact.CashSaleOutstandingAmount</v>
-      </c>
-      <c r="B149" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C149" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D149" s="15"/>
-      <c r="E149" s="15"/>
-      <c r="F149" s="15"/>
-      <c r="G149" s="15"/>
-      <c r="H149" s="26"/>
+    <row r="149" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="40"/>
+      <c r="B149" s="41"/>
+      <c r="C149" s="41"/>
+      <c r="D149" s="41"/>
+      <c r="E149" s="41"/>
+      <c r="F149" s="41"/>
+      <c r="G149" s="41"/>
+      <c r="H149" s="42"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="15" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="A150:A164" si="11">$A$147</f>
         <v>fact.CashSaleOutstandingAmount</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>384</v>
+        <v>21</v>
       </c>
       <c r="C150" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="D150" s="15" t="s">
-        <v>385</v>
+        <v>22</v>
+      </c>
+      <c r="D150" s="19" t="s">
+        <v>23</v>
       </c>
       <c r="E150" s="15"/>
-      <c r="F150" s="15" t="str">
-        <f>$E$144</f>
-        <v>BAS.csv</v>
-      </c>
-      <c r="G150" s="15" t="s">
-        <v>387</v>
-      </c>
+      <c r="F150" s="15"/>
+      <c r="G150" s="15"/>
       <c r="H150" s="26"/>
     </row>
-    <row r="151" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="15" t="str">
         <f t="shared" si="11"/>
         <v>fact.CashSaleOutstandingAmount</v>
       </c>
-      <c r="B151" s="27" t="s">
-        <v>5</v>
+      <c r="B151" s="15" t="s">
+        <v>81</v>
       </c>
       <c r="C151" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D151" s="15" t="s">
-        <v>102</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D151" s="15"/>
       <c r="E151" s="15"/>
-      <c r="F151" s="15" t="str">
-        <f>$E$144</f>
-        <v>BAS.csv</v>
-      </c>
-      <c r="G151" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H151" s="26" t="s">
-        <v>122</v>
-      </c>
+      <c r="F151" s="15"/>
+      <c r="G151" s="15"/>
+      <c r="H151" s="26"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="15" t="str">
         <f t="shared" si="11"/>
         <v>fact.CashSaleOutstandingAmount</v>
       </c>
-      <c r="B152" s="27" t="s">
-        <v>4</v>
+      <c r="B152" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="C152" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D152" s="27"/>
+        <v>93</v>
+      </c>
+      <c r="D152" s="15"/>
       <c r="E152" s="15"/>
-      <c r="F152" s="15" t="str">
-        <f t="shared" ref="F152:F157" si="12">$E$144</f>
-        <v>BAS.csv</v>
-      </c>
-      <c r="G152" s="15" t="s">
-        <v>66</v>
-      </c>
+      <c r="F152" s="15"/>
+      <c r="G152" s="15"/>
       <c r="H152" s="26"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
@@ -8558,65 +8621,71 @@
         <v>fact.CashSaleOutstandingAmount</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C153" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D153" s="15"/>
+        <v>341</v>
+      </c>
+      <c r="D153" s="15" t="s">
+        <v>384</v>
+      </c>
       <c r="E153" s="15"/>
       <c r="F153" s="15" t="str">
-        <f t="shared" si="12"/>
+        <f>$E$147</f>
         <v>BAS.csv</v>
       </c>
       <c r="G153" s="15" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="H153" s="26"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A154" s="15" t="str">
         <f t="shared" si="11"/>
         <v>fact.CashSaleOutstandingAmount</v>
       </c>
-      <c r="B154" s="15" t="s">
-        <v>382</v>
+      <c r="B154" s="27" t="s">
+        <v>5</v>
       </c>
       <c r="C154" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D154" s="15"/>
+        <v>22</v>
+      </c>
+      <c r="D154" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="E154" s="15"/>
       <c r="F154" s="15" t="str">
-        <f t="shared" si="12"/>
+        <f>$E$147</f>
         <v>BAS.csv</v>
       </c>
       <c r="G154" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="H154" s="15"/>
+        <v>66</v>
+      </c>
+      <c r="H154" s="26" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="15" t="str">
         <f t="shared" si="11"/>
         <v>fact.CashSaleOutstandingAmount</v>
       </c>
-      <c r="B155" s="15" t="s">
-        <v>172</v>
+      <c r="B155" s="27" t="s">
+        <v>4</v>
       </c>
       <c r="C155" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="D155" s="15"/>
+        <v>149</v>
+      </c>
+      <c r="D155" s="27"/>
       <c r="E155" s="15"/>
       <c r="F155" s="15" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="F155:F160" si="12">$E$147</f>
         <v>BAS.csv</v>
       </c>
       <c r="G155" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="H155" s="15"/>
+        <v>66</v>
+      </c>
+      <c r="H155" s="26"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="str">
@@ -8624,10 +8693,10 @@
         <v>fact.CashSaleOutstandingAmount</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C156" s="15" t="s">
-        <v>342</v>
+        <v>86</v>
       </c>
       <c r="D156" s="15"/>
       <c r="E156" s="15"/>
@@ -8636,20 +8705,20 @@
         <v>BAS.csv</v>
       </c>
       <c r="G156" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="H156" s="15"/>
+        <v>380</v>
+      </c>
+      <c r="H156" s="26"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="15" t="str">
         <f t="shared" si="11"/>
         <v>fact.CashSaleOutstandingAmount</v>
       </c>
-      <c r="B157" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C157" s="29" t="s">
-        <v>4</v>
+      <c r="B157" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="C157" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="D157" s="15"/>
       <c r="E157" s="15"/>
@@ -8658,31 +8727,31 @@
         <v>BAS.csv</v>
       </c>
       <c r="G157" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="H157" s="26"/>
+        <v>167</v>
+      </c>
+      <c r="H157" s="15"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="15" t="str">
         <f t="shared" si="11"/>
         <v>fact.CashSaleOutstandingAmount</v>
       </c>
-      <c r="B158" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="C158" s="29" t="s">
-        <v>4</v>
+      <c r="B158" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C158" s="15" t="s">
+        <v>341</v>
       </c>
       <c r="D158" s="15"/>
       <c r="E158" s="15"/>
       <c r="F158" s="15" t="str">
-        <f>$E$144</f>
+        <f t="shared" si="12"/>
         <v>BAS.csv</v>
       </c>
       <c r="G158" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="H158" s="26"/>
+        <v>171</v>
+      </c>
+      <c r="H158" s="15"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="15" t="str">
@@ -8690,223 +8759,223 @@
         <v>fact.CashSaleOutstandingAmount</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C159" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D159" s="15"/>
       <c r="E159" s="15"/>
       <c r="F159" s="15" t="str">
-        <f>$E$144</f>
+        <f t="shared" si="12"/>
         <v>BAS.csv</v>
       </c>
       <c r="G159" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="H159" s="15"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v>fact.CashSaleOutstandingAmount</v>
+      </c>
+      <c r="B160" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="C160" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D160" s="15"/>
+      <c r="E160" s="15"/>
+      <c r="F160" s="15" t="str">
+        <f t="shared" si="12"/>
+        <v>BAS.csv</v>
+      </c>
+      <c r="G160" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="H160" s="26"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v>fact.CashSaleOutstandingAmount</v>
+      </c>
+      <c r="B161" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C161" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D161" s="15"/>
+      <c r="E161" s="15"/>
+      <c r="F161" s="15" t="str">
+        <f>$E$147</f>
+        <v>BAS.csv</v>
+      </c>
+      <c r="G161" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H161" s="26"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v>fact.CashSaleOutstandingAmount</v>
+      </c>
+      <c r="B162" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="C162" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="D162" s="15"/>
+      <c r="E162" s="15"/>
+      <c r="F162" s="15" t="str">
+        <f>$E$147</f>
+        <v>BAS.csv</v>
+      </c>
+      <c r="G162" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="H162" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="H159" s="15" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="161" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="34" t="s">
-        <v>419</v>
-      </c>
-      <c r="B161" s="35"/>
-      <c r="C161" s="35"/>
-      <c r="D161" s="36"/>
-      <c r="E161" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="F161" s="38"/>
-      <c r="G161" s="38"/>
-      <c r="H161" s="39"/>
-    </row>
-    <row r="162" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B162" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C162" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D162" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E162" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F162" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G162" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H162" s="23" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A163" s="40" t="s">
-        <v>411</v>
-      </c>
-      <c r="B163" s="41"/>
-      <c r="C163" s="41"/>
-      <c r="D163" s="41"/>
-      <c r="E163" s="41"/>
-      <c r="F163" s="41"/>
-      <c r="G163" s="41"/>
-      <c r="H163" s="42"/>
+      <c r="A163" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v>fact.CashSaleOutstandingAmount</v>
+      </c>
+      <c r="B163" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="C163" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="D163" s="15"/>
+      <c r="E163" s="15"/>
+      <c r="F163" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G163" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H163" s="15" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="15" t="str">
-        <f>$A$161</f>
-        <v>fact.OutstandingCredit</v>
+        <f t="shared" si="11"/>
+        <v>fact.CashSaleOutstandingAmount</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>21</v>
+        <v>400</v>
       </c>
       <c r="C164" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D164" s="15" t="s">
-        <v>23</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="D164" s="15"/>
       <c r="E164" s="15"/>
-      <c r="F164" s="15"/>
-      <c r="G164" s="15"/>
-      <c r="H164" s="15"/>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A165" s="15" t="str">
-        <f t="shared" ref="A165:A179" si="13">$A$161</f>
-        <v>fact.OutstandingCredit</v>
-      </c>
-      <c r="B165" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C165" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D165" s="15"/>
-      <c r="E165" s="15"/>
-      <c r="F165" s="15"/>
-      <c r="G165" s="15"/>
-      <c r="H165" s="15"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A166" s="15" t="str">
-        <f t="shared" si="13"/>
-        <v>fact.OutstandingCredit</v>
-      </c>
-      <c r="B166" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C166" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D166" s="15"/>
-      <c r="E166" s="15"/>
-      <c r="F166" s="15"/>
-      <c r="G166" s="15"/>
-      <c r="H166" s="15"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A167" s="15" t="str">
-        <f t="shared" si="13"/>
-        <v>fact.OutstandingCredit</v>
-      </c>
-      <c r="B167" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C167" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D167" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E167" s="15"/>
-      <c r="F167" s="15" t="str">
-        <f>$E$161</f>
-        <v>BR4.csv</v>
-      </c>
-      <c r="G167" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H167" s="15" t="s">
-        <v>105</v>
+      <c r="F164" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="G164" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H164" s="15" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="166" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="34" t="s">
+        <v>418</v>
+      </c>
+      <c r="B166" s="35"/>
+      <c r="C166" s="35"/>
+      <c r="D166" s="36"/>
+      <c r="E166" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="F166" s="38"/>
+      <c r="G166" s="38"/>
+      <c r="H166" s="39"/>
+    </row>
+    <row r="167" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B167" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E167" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F167" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G167" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H167" s="23" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A168" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B168" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C168" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D168" s="15"/>
-      <c r="E168" s="15"/>
-      <c r="F168" s="15" t="str">
-        <f>$E$161</f>
-        <v>BR4.csv</v>
-      </c>
-      <c r="G168" s="15"/>
-      <c r="H168" s="15"/>
+      <c r="A168" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="B168" s="41"/>
+      <c r="C168" s="41"/>
+      <c r="D168" s="41"/>
+      <c r="E168" s="41"/>
+      <c r="F168" s="41"/>
+      <c r="G168" s="41"/>
+      <c r="H168" s="42"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="15" t="str">
-        <f t="shared" si="13"/>
+        <f>$A$166</f>
         <v>fact.OutstandingCredit</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C169" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D169" s="15" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="E169" s="15"/>
-      <c r="F169" s="15" t="str">
-        <f>$E$111</f>
-        <v>B14.csv</v>
-      </c>
-      <c r="G169" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="H169" s="15" t="s">
-        <v>112</v>
-      </c>
+      <c r="F169" s="15"/>
+      <c r="G169" s="15"/>
+      <c r="H169" s="15"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="15" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="A170:A186" si="13">$A$166</f>
         <v>fact.OutstandingCredit</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="C170" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D170" s="15" t="s">
-        <v>144</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D170" s="15"/>
       <c r="E170" s="15"/>
-      <c r="F170" s="15" t="str">
-        <f t="shared" ref="F170:F179" si="14">$E$161</f>
-        <v>BR4.csv</v>
-      </c>
-      <c r="G170" s="15" t="s">
-        <v>130</v>
-      </c>
+      <c r="F170" s="15"/>
+      <c r="G170" s="15"/>
       <c r="H170" s="15"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
@@ -8915,20 +8984,15 @@
         <v>fact.OutstandingCredit</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="C171" s="15" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="D171" s="15"/>
       <c r="E171" s="15"/>
-      <c r="F171" s="15" t="str">
-        <f t="shared" si="14"/>
-        <v>BR4.csv</v>
-      </c>
-      <c r="G171" s="15" t="s">
-        <v>140</v>
-      </c>
+      <c r="F171" s="15"/>
+      <c r="G171" s="15"/>
       <c r="H171" s="15"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
@@ -8937,42 +9001,43 @@
         <v>fact.OutstandingCredit</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>139</v>
+        <v>5</v>
       </c>
       <c r="C172" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D172" s="15"/>
+      <c r="D172" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="E172" s="15"/>
       <c r="F172" s="15" t="str">
-        <f t="shared" si="14"/>
+        <f>$E$166</f>
         <v>BR4.csv</v>
       </c>
       <c r="G172" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="H172" s="15"/>
+        <v>69</v>
+      </c>
+      <c r="H172" s="15" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A173" s="15" t="str">
-        <f t="shared" si="13"/>
-        <v>fact.OutstandingCredit</v>
+      <c r="A173" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>132</v>
+        <v>4</v>
       </c>
       <c r="C173" s="15" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="D173" s="15"/>
       <c r="E173" s="15"/>
       <c r="F173" s="15" t="str">
-        <f t="shared" si="14"/>
+        <f>$E$166</f>
         <v>BR4.csv</v>
       </c>
-      <c r="G173" s="15" t="s">
-        <v>132</v>
-      </c>
+      <c r="G173" s="15"/>
       <c r="H173" s="15"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
@@ -8981,21 +9046,25 @@
         <v>fact.OutstandingCredit</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="C174" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D174" s="15"/>
+        <v>22</v>
+      </c>
+      <c r="D174" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="E174" s="15"/>
       <c r="F174" s="15" t="str">
-        <f t="shared" si="14"/>
-        <v>BR4.csv</v>
+        <f>$E$111</f>
+        <v>B14.csv</v>
       </c>
       <c r="G174" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="H174" s="15"/>
+        <v>110</v>
+      </c>
+      <c r="H174" s="15" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="15" t="str">
@@ -9003,19 +9072,21 @@
         <v>fact.OutstandingCredit</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C175" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D175" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="D175" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="E175" s="15"/>
       <c r="F175" s="15" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="F175:F186" si="14">$E$166</f>
         <v>BR4.csv</v>
       </c>
       <c r="G175" s="15" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H175" s="15"/>
     </row>
@@ -9025,9 +9096,11 @@
         <v>fact.OutstandingCredit</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C176" s="15"/>
+        <v>130</v>
+      </c>
+      <c r="C176" s="15" t="s">
+        <v>29</v>
+      </c>
       <c r="D176" s="15"/>
       <c r="E176" s="15"/>
       <c r="F176" s="15" t="str">
@@ -9035,7 +9108,7 @@
         <v>BR4.csv</v>
       </c>
       <c r="G176" s="15" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="H176" s="15"/>
     </row>
@@ -9045,9 +9118,11 @@
         <v>fact.OutstandingCredit</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="C177" s="15"/>
+        <v>138</v>
+      </c>
+      <c r="C177" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="D177" s="15"/>
       <c r="E177" s="15"/>
       <c r="F177" s="15" t="str">
@@ -9055,7 +9130,7 @@
         <v>BR4.csv</v>
       </c>
       <c r="G177" s="15" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H177" s="15"/>
     </row>
@@ -9065,9 +9140,11 @@
         <v>fact.OutstandingCredit</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="C178" s="15"/>
+        <v>131</v>
+      </c>
+      <c r="C178" s="15" t="s">
+        <v>86</v>
+      </c>
       <c r="D178" s="15"/>
       <c r="E178" s="15"/>
       <c r="F178" s="15" t="str">
@@ -9075,7 +9152,7 @@
         <v>BR4.csv</v>
       </c>
       <c r="G178" s="15" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="H178" s="15"/>
     </row>
@@ -9085,9 +9162,11 @@
         <v>fact.OutstandingCredit</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="C179" s="15"/>
+        <v>132</v>
+      </c>
+      <c r="C179" s="15" t="s">
+        <v>86</v>
+      </c>
       <c r="D179" s="15"/>
       <c r="E179" s="15"/>
       <c r="F179" s="15" t="str">
@@ -9095,220 +9174,246 @@
         <v>BR4.csv</v>
       </c>
       <c r="G179" s="15" t="s">
-        <v>410</v>
+        <v>132</v>
       </c>
       <c r="H179" s="15"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A180" s="15"/>
-      <c r="B180" s="15"/>
-      <c r="C180" s="15"/>
+      <c r="A180" s="15" t="str">
+        <f t="shared" si="13"/>
+        <v>fact.OutstandingCredit</v>
+      </c>
+      <c r="B180" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C180" s="15" t="s">
+        <v>86</v>
+      </c>
       <c r="D180" s="15"/>
       <c r="E180" s="15"/>
-      <c r="F180" s="15"/>
-      <c r="G180" s="15"/>
+      <c r="F180" s="15" t="str">
+        <f t="shared" si="14"/>
+        <v>BR4.csv</v>
+      </c>
+      <c r="G180" s="15" t="s">
+        <v>133</v>
+      </c>
       <c r="H180" s="15"/>
     </row>
-    <row r="182" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="183" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="34" t="s">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181" s="15" t="str">
+        <f t="shared" si="13"/>
+        <v>fact.OutstandingCredit</v>
+      </c>
+      <c r="B181" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C181" s="15"/>
+      <c r="D181" s="15"/>
+      <c r="E181" s="15"/>
+      <c r="F181" s="15" t="str">
+        <f t="shared" si="14"/>
+        <v>BR4.csv</v>
+      </c>
+      <c r="G181" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="H181" s="15"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182" s="15" t="str">
+        <f t="shared" si="13"/>
+        <v>fact.OutstandingCredit</v>
+      </c>
+      <c r="B182" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C182" s="15"/>
+      <c r="D182" s="15"/>
+      <c r="E182" s="15"/>
+      <c r="F182" s="15" t="str">
+        <f t="shared" si="14"/>
+        <v>BR4.csv</v>
+      </c>
+      <c r="G182" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="H182" s="15"/>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183" s="15" t="str">
+        <f t="shared" si="13"/>
+        <v>fact.OutstandingCredit</v>
+      </c>
+      <c r="B183" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C183" s="15"/>
+      <c r="D183" s="15"/>
+      <c r="E183" s="15"/>
+      <c r="F183" s="15" t="str">
+        <f t="shared" si="14"/>
+        <v>BR4.csv</v>
+      </c>
+      <c r="G183" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="H183" s="15"/>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184" s="15" t="str">
+        <f t="shared" si="13"/>
+        <v>fact.OutstandingCredit</v>
+      </c>
+      <c r="B184" s="15" t="s">
         <v>409</v>
       </c>
-      <c r="B183" s="35"/>
-      <c r="C183" s="35"/>
-      <c r="D183" s="36"/>
-      <c r="E183" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="F183" s="38"/>
-      <c r="G183" s="38"/>
-      <c r="H183" s="39"/>
-    </row>
-    <row r="184" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A184" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B184" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C184" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D184" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E184" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F184" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G184" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H184" s="23" t="s">
-        <v>14</v>
-      </c>
+      <c r="C184" s="15"/>
+      <c r="D184" s="15"/>
+      <c r="E184" s="15"/>
+      <c r="F184" s="15" t="str">
+        <f t="shared" si="14"/>
+        <v>BR4.csv</v>
+      </c>
+      <c r="G184" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="H184" s="15"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A185" s="40" t="s">
-        <v>406</v>
-      </c>
-      <c r="B185" s="41"/>
-      <c r="C185" s="41"/>
-      <c r="D185" s="41"/>
-      <c r="E185" s="41"/>
-      <c r="F185" s="41"/>
-      <c r="G185" s="41"/>
-      <c r="H185" s="42"/>
+      <c r="A185" s="15" t="str">
+        <f t="shared" si="13"/>
+        <v>fact.OutstandingCredit</v>
+      </c>
+      <c r="B185" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="C185" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="D185" s="15"/>
+      <c r="E185" s="15"/>
+      <c r="F185" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G185" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H185" s="15" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="15" t="str">
-        <f>A$183</f>
-        <v>fact.PartsOutstandingPayment</v>
+        <f t="shared" si="13"/>
+        <v>fact.OutstandingCredit</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>21</v>
+        <v>400</v>
       </c>
       <c r="C186" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D186" s="15" t="s">
-        <v>23</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="D186" s="15"/>
       <c r="E186" s="15"/>
-      <c r="F186" s="15"/>
-      <c r="G186" s="15"/>
-      <c r="H186" s="15"/>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A187" s="15" t="str">
-        <f t="shared" ref="A187:A202" si="15">A$183</f>
-        <v>fact.PartsOutstandingPayment</v>
-      </c>
-      <c r="B187" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C187" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D187" s="15"/>
-      <c r="E187" s="15"/>
-      <c r="F187" s="15"/>
-      <c r="G187" s="15"/>
-      <c r="H187" s="15"/>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A188" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v>fact.PartsOutstandingPayment</v>
-      </c>
-      <c r="B188" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C188" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D188" s="15"/>
-      <c r="E188" s="15"/>
-      <c r="F188" s="15"/>
-      <c r="G188" s="15"/>
-      <c r="H188" s="15"/>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A189" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v>fact.PartsOutstandingPayment</v>
-      </c>
-      <c r="B189" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C189" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D189" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E189" s="15"/>
-      <c r="F189" s="15" t="str">
-        <f>$E$183</f>
-        <v>BB4.csv</v>
-      </c>
-      <c r="G189" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H189" s="15" t="s">
-        <v>105</v>
+      <c r="F186" s="15" t="str">
+        <f t="shared" si="14"/>
+        <v>BR4.csv</v>
+      </c>
+      <c r="G186" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H186" s="15" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="188" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A188" s="34" t="s">
+        <v>408</v>
+      </c>
+      <c r="B188" s="35"/>
+      <c r="C188" s="35"/>
+      <c r="D188" s="36"/>
+      <c r="E188" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="F188" s="38"/>
+      <c r="G188" s="38"/>
+      <c r="H188" s="39"/>
+    </row>
+    <row r="189" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B189" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C189" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D189" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E189" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F189" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G189" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H189" s="23" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A190" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v>fact.PartsOutstandingPayment</v>
-      </c>
-      <c r="B190" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C190" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D190" s="15"/>
-      <c r="E190" s="15"/>
-      <c r="F190" s="15" t="str">
-        <f t="shared" ref="F190:F202" si="16">$E$183</f>
-        <v>BB4.csv</v>
-      </c>
-      <c r="G190" s="15"/>
-      <c r="H190" s="15"/>
+      <c r="A190" s="40" t="s">
+        <v>405</v>
+      </c>
+      <c r="B190" s="41"/>
+      <c r="C190" s="41"/>
+      <c r="D190" s="41"/>
+      <c r="E190" s="41"/>
+      <c r="F190" s="41"/>
+      <c r="G190" s="41"/>
+      <c r="H190" s="42"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="15" t="str">
-        <f t="shared" si="15"/>
+        <f>A$188</f>
         <v>fact.PartsOutstandingPayment</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C191" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D191" s="15" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="E191" s="15"/>
-      <c r="F191" s="15" t="str">
-        <f t="shared" si="16"/>
-        <v>BB4.csv</v>
-      </c>
-      <c r="G191" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="H191" s="15" t="s">
-        <v>112</v>
-      </c>
+      <c r="F191" s="15"/>
+      <c r="G191" s="15"/>
+      <c r="H191" s="15"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="15" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="A192:A209" si="15">A$188</f>
         <v>fact.PartsOutstandingPayment</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="C192" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D192" s="15" t="s">
-        <v>144</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D192" s="15"/>
       <c r="E192" s="15"/>
-      <c r="F192" s="15" t="str">
-        <f t="shared" si="16"/>
-        <v>BB4.csv</v>
-      </c>
-      <c r="G192" s="15" t="s">
-        <v>130</v>
-      </c>
+      <c r="F192" s="15"/>
+      <c r="G192" s="15"/>
       <c r="H192" s="15"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
@@ -9317,20 +9422,15 @@
         <v>fact.PartsOutstandingPayment</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="C193" s="15" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="D193" s="15"/>
       <c r="E193" s="15"/>
-      <c r="F193" s="15" t="str">
-        <f t="shared" si="16"/>
-        <v>BB4.csv</v>
-      </c>
-      <c r="G193" s="15" t="s">
-        <v>140</v>
-      </c>
+      <c r="F193" s="15"/>
+      <c r="G193" s="15"/>
       <c r="H193" s="15"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
@@ -9339,21 +9439,25 @@
         <v>fact.PartsOutstandingPayment</v>
       </c>
       <c r="B194" s="15" t="s">
-        <v>151</v>
+        <v>5</v>
       </c>
       <c r="C194" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D194" s="15"/>
+        <v>22</v>
+      </c>
+      <c r="D194" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="E194" s="15"/>
       <c r="F194" s="15" t="str">
-        <f t="shared" si="16"/>
+        <f>$E$188</f>
         <v>BB4.csv</v>
       </c>
       <c r="G194" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="H194" s="15"/>
+        <v>69</v>
+      </c>
+      <c r="H194" s="15" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="15" t="str">
@@ -9361,20 +9465,18 @@
         <v>fact.PartsOutstandingPayment</v>
       </c>
       <c r="B195" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C195" s="15" t="s">
         <v>149</v>
-      </c>
-      <c r="C195" s="15" t="s">
-        <v>150</v>
       </c>
       <c r="D195" s="15"/>
       <c r="E195" s="15"/>
       <c r="F195" s="15" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="F195:F207" si="16">$E$188</f>
         <v>BB4.csv</v>
       </c>
-      <c r="G195" s="15" t="s">
-        <v>132</v>
-      </c>
+      <c r="G195" s="15"/>
       <c r="H195" s="15"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
@@ -9383,21 +9485,25 @@
         <v>fact.PartsOutstandingPayment</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="C196" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D196" s="15"/>
+      <c r="D196" s="15" t="s">
+        <v>109</v>
+      </c>
       <c r="E196" s="15"/>
       <c r="F196" s="15" t="str">
         <f t="shared" si="16"/>
         <v>BB4.csv</v>
       </c>
       <c r="G196" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="H196" s="15"/>
+        <v>110</v>
+      </c>
+      <c r="H196" s="15" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="15" t="str">
@@ -9405,19 +9511,21 @@
         <v>fact.PartsOutstandingPayment</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C197" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D197" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="D197" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="E197" s="15"/>
       <c r="F197" s="15" t="str">
         <f t="shared" si="16"/>
         <v>BB4.csv</v>
       </c>
       <c r="G197" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="H197" s="15"/>
     </row>
@@ -9427,10 +9535,10 @@
         <v>fact.PartsOutstandingPayment</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C198" s="15" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
@@ -9439,7 +9547,7 @@
         <v>BB4.csv</v>
       </c>
       <c r="G198" s="15" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H198" s="15"/>
     </row>
@@ -9449,10 +9557,10 @@
         <v>fact.PartsOutstandingPayment</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C199" s="15" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="D199" s="15"/>
       <c r="E199" s="15"/>
@@ -9461,7 +9569,7 @@
         <v>BB4.csv</v>
       </c>
       <c r="G199" s="15" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="H199" s="15"/>
     </row>
@@ -9471,9 +9579,11 @@
         <v>fact.PartsOutstandingPayment</v>
       </c>
       <c r="B200" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C200" s="15"/>
+        <v>148</v>
+      </c>
+      <c r="C200" s="15" t="s">
+        <v>149</v>
+      </c>
       <c r="D200" s="15"/>
       <c r="E200" s="15"/>
       <c r="F200" s="15" t="str">
@@ -9481,7 +9591,7 @@
         <v>BB4.csv</v>
       </c>
       <c r="G200" s="15" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H200" s="15"/>
     </row>
@@ -9491,9 +9601,11 @@
         <v>fact.PartsOutstandingPayment</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C201" s="15"/>
+        <v>138</v>
+      </c>
+      <c r="C201" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="D201" s="15"/>
       <c r="E201" s="15"/>
       <c r="F201" s="15" t="str">
@@ -9501,7 +9613,7 @@
         <v>BB4.csv</v>
       </c>
       <c r="G201" s="15" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="H201" s="15"/>
     </row>
@@ -9511,9 +9623,11 @@
         <v>fact.PartsOutstandingPayment</v>
       </c>
       <c r="B202" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="C202" s="15"/>
+        <v>131</v>
+      </c>
+      <c r="C202" s="15" t="s">
+        <v>86</v>
+      </c>
       <c r="D202" s="15"/>
       <c r="E202" s="15"/>
       <c r="F202" s="15" t="str">
@@ -9521,347 +9635,364 @@
         <v>BB4.csv</v>
       </c>
       <c r="G202" s="15" t="s">
-        <v>415</v>
+        <v>131</v>
       </c>
       <c r="H202" s="15"/>
     </row>
-    <row r="204" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="205" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A205" s="34" t="s">
-        <v>408</v>
-      </c>
-      <c r="B205" s="35"/>
-      <c r="C205" s="35"/>
-      <c r="D205" s="36"/>
-      <c r="E205" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="F205" s="38"/>
-      <c r="G205" s="38"/>
-      <c r="H205" s="39"/>
-    </row>
-    <row r="206" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B206" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C206" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D206" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E206" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F206" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G206" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H206" s="23" t="s">
-        <v>14</v>
-      </c>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A203" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v>fact.PartsOutstandingPayment</v>
+      </c>
+      <c r="B203" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C203" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D203" s="15"/>
+      <c r="E203" s="15"/>
+      <c r="F203" s="15" t="str">
+        <f t="shared" si="16"/>
+        <v>BB4.csv</v>
+      </c>
+      <c r="G203" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="H203" s="15"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A204" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v>fact.PartsOutstandingPayment</v>
+      </c>
+      <c r="B204" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C204" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D204" s="15"/>
+      <c r="E204" s="15"/>
+      <c r="F204" s="15" t="str">
+        <f t="shared" si="16"/>
+        <v>BB4.csv</v>
+      </c>
+      <c r="G204" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="H204" s="15"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v>fact.PartsOutstandingPayment</v>
+      </c>
+      <c r="B205" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C205" s="15"/>
+      <c r="D205" s="15"/>
+      <c r="E205" s="15"/>
+      <c r="F205" s="15" t="str">
+        <f t="shared" si="16"/>
+        <v>BB4.csv</v>
+      </c>
+      <c r="G205" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="H205" s="15"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A206" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v>fact.PartsOutstandingPayment</v>
+      </c>
+      <c r="B206" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C206" s="15"/>
+      <c r="D206" s="15"/>
+      <c r="E206" s="15"/>
+      <c r="F206" s="15" t="str">
+        <f t="shared" si="16"/>
+        <v>BB4.csv</v>
+      </c>
+      <c r="G206" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="H206" s="15"/>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A207" s="40" t="s">
-        <v>416</v>
-      </c>
-      <c r="B207" s="41"/>
-      <c r="C207" s="41"/>
-      <c r="D207" s="41"/>
-      <c r="E207" s="41"/>
-      <c r="F207" s="41"/>
-      <c r="G207" s="41"/>
-      <c r="H207" s="42"/>
+      <c r="A207" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v>fact.PartsOutstandingPayment</v>
+      </c>
+      <c r="B207" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="C207" s="15"/>
+      <c r="D207" s="15"/>
+      <c r="E207" s="15"/>
+      <c r="F207" s="15" t="str">
+        <f t="shared" si="16"/>
+        <v>BB4.csv</v>
+      </c>
+      <c r="G207" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="H207" s="15"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="15" t="str">
-        <f>$A$205</f>
-        <v>fact.SubletOutstandingPayment</v>
+        <f t="shared" si="15"/>
+        <v>fact.PartsOutstandingPayment</v>
       </c>
       <c r="B208" s="15" t="s">
-        <v>21</v>
+        <v>398</v>
       </c>
       <c r="C208" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D208" s="15" t="s">
-        <v>23</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="D208" s="15"/>
       <c r="E208" s="15"/>
-      <c r="F208" s="15"/>
-      <c r="G208" s="15"/>
-      <c r="H208" s="15"/>
+      <c r="F208" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G208" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H208" s="15" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="15" t="str">
-        <f t="shared" ref="A209:A221" si="17">$A$205</f>
-        <v>fact.SubletOutstandingPayment</v>
+        <f t="shared" si="15"/>
+        <v>fact.PartsOutstandingPayment</v>
       </c>
       <c r="B209" s="15" t="s">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="C209" s="15" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="D209" s="15"/>
       <c r="E209" s="15"/>
-      <c r="F209" s="15"/>
-      <c r="G209" s="15"/>
-      <c r="H209" s="15"/>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A210" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v>fact.SubletOutstandingPayment</v>
-      </c>
-      <c r="B210" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C210" s="15" t="s">
+      <c r="F209" s="15" t="str">
+        <f t="shared" ref="F209" si="17">$E$231</f>
+        <v>BBS.csv</v>
+      </c>
+      <c r="G209" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H209" s="15" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="211" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="B211" s="35"/>
+      <c r="C211" s="35"/>
+      <c r="D211" s="36"/>
+      <c r="E211" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="F211" s="38"/>
+      <c r="G211" s="38"/>
+      <c r="H211" s="39"/>
+    </row>
+    <row r="212" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B212" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C212" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D212" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E212" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F212" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G212" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H212" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A213" s="40" t="s">
+        <v>415</v>
+      </c>
+      <c r="B213" s="41"/>
+      <c r="C213" s="41"/>
+      <c r="D213" s="41"/>
+      <c r="E213" s="41"/>
+      <c r="F213" s="41"/>
+      <c r="G213" s="41"/>
+      <c r="H213" s="42"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A214" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="B214" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C214" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D214" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E214" s="15"/>
+      <c r="F214" s="15"/>
+      <c r="G214" s="15"/>
+      <c r="H214" s="15"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A215" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="B215" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C215" s="15" t="s">
         <v>93</v>
-      </c>
-      <c r="D210" s="15"/>
-      <c r="E210" s="15"/>
-      <c r="F210" s="15"/>
-      <c r="G210" s="15"/>
-      <c r="H210" s="15"/>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A211" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v>fact.SubletOutstandingPayment</v>
-      </c>
-      <c r="B211" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C211" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D211" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E211" s="15"/>
-      <c r="F211" s="15" t="str">
-        <f>$E$205</f>
-        <v>BB1.csv</v>
-      </c>
-      <c r="G211" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H211" s="15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A212" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v>fact.SubletOutstandingPayment</v>
-      </c>
-      <c r="B212" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="C212" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D212" s="15"/>
-      <c r="E212" s="15"/>
-      <c r="F212" s="15" t="str">
-        <f>$E$205</f>
-        <v>BB1.csv</v>
-      </c>
-      <c r="G212" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="H212" s="15"/>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A213" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v>fact.SubletOutstandingPayment</v>
-      </c>
-      <c r="B213" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C213" s="15"/>
-      <c r="D213" s="15"/>
-      <c r="E213" s="15"/>
-      <c r="F213" s="15" t="str">
-        <f t="shared" ref="F213:F221" si="18">$E$205</f>
-        <v>BB1.csv</v>
-      </c>
-      <c r="G213" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H213" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A214" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v>fact.SubletOutstandingPayment</v>
-      </c>
-      <c r="B214" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C214" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D214" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="E214" s="15"/>
-      <c r="F214" s="15" t="str">
-        <f t="shared" si="18"/>
-        <v>BB1.csv</v>
-      </c>
-      <c r="G214" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="H214" s="15"/>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A215" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v>fact.SubletOutstandingPayment</v>
-      </c>
-      <c r="B215" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="C215" s="15" t="s">
-        <v>4</v>
       </c>
       <c r="D215" s="15"/>
       <c r="E215" s="15"/>
-      <c r="F215" s="15" t="str">
-        <f t="shared" si="18"/>
-        <v>BB1.csv</v>
-      </c>
-      <c r="G215" s="15" t="s">
-        <v>149</v>
-      </c>
+      <c r="F215" s="15"/>
+      <c r="G215" s="15"/>
       <c r="H215" s="15"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A216" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v>fact.SubletOutstandingPayment</v>
+      <c r="A216" s="15" t="s">
+        <v>407</v>
       </c>
       <c r="B216" s="15" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="C216" s="15" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="D216" s="15"/>
       <c r="E216" s="15"/>
-      <c r="F216" s="15" t="str">
-        <f t="shared" si="18"/>
-        <v>BB1.csv</v>
-      </c>
-      <c r="G216" s="15" t="s">
-        <v>140</v>
-      </c>
+      <c r="F216" s="15"/>
+      <c r="G216" s="15"/>
       <c r="H216" s="15"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A217" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v>fact.SubletOutstandingPayment</v>
+      <c r="A217" s="15" t="s">
+        <v>407</v>
       </c>
       <c r="B217" s="15" t="s">
-        <v>152</v>
+        <v>5</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D217" s="15"/>
+        <v>22</v>
+      </c>
+      <c r="D217" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="E217" s="15"/>
       <c r="F217" s="15" t="str">
-        <f t="shared" si="18"/>
+        <f>$E$211</f>
         <v>BB1.csv</v>
       </c>
       <c r="G217" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="H217" s="15"/>
+        <v>69</v>
+      </c>
+      <c r="H217" s="15" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A218" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v>fact.SubletOutstandingPayment</v>
+      <c r="A218" s="15" t="s">
+        <v>407</v>
       </c>
       <c r="B218" s="15" t="s">
-        <v>84</v>
+        <v>406</v>
       </c>
       <c r="C218" s="15" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="D218" s="15"/>
       <c r="E218" s="15"/>
       <c r="F218" s="15" t="str">
-        <f t="shared" si="18"/>
+        <f>$E$211</f>
         <v>BB1.csv</v>
       </c>
       <c r="G218" s="15" t="s">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="H218" s="15"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A219" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v>fact.SubletOutstandingPayment</v>
+      <c r="A219" s="15" t="s">
+        <v>407</v>
       </c>
       <c r="B219" s="15" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="C219" s="15"/>
       <c r="D219" s="15"/>
       <c r="E219" s="15"/>
       <c r="F219" s="15" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="F219:F227" si="18">$E$211</f>
         <v>BB1.csv</v>
       </c>
       <c r="G219" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="H219" s="15"/>
+        <v>66</v>
+      </c>
+      <c r="H219" s="15" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A220" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v>fact.SubletOutstandingPayment</v>
+      <c r="A220" s="15" t="s">
+        <v>407</v>
       </c>
       <c r="B220" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="C220" s="15"/>
-      <c r="D220" s="15"/>
+        <v>129</v>
+      </c>
+      <c r="C220" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D220" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="E220" s="15"/>
       <c r="F220" s="15" t="str">
         <f t="shared" si="18"/>
         <v>BB1.csv</v>
       </c>
       <c r="G220" s="15" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H220" s="15"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A221" s="15" t="str">
-        <f t="shared" si="17"/>
-        <v>fact.SubletOutstandingPayment</v>
+      <c r="A221" s="15" t="s">
+        <v>407</v>
       </c>
       <c r="B221" s="15" t="s">
-        <v>417</v>
-      </c>
-      <c r="C221" s="15"/>
+        <v>148</v>
+      </c>
+      <c r="C221" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="D221" s="15"/>
       <c r="E221" s="15"/>
       <c r="F221" s="15" t="str">
@@ -9869,412 +10000,387 @@
         <v>BB1.csv</v>
       </c>
       <c r="G221" s="15" t="s">
-        <v>417</v>
+        <v>148</v>
       </c>
       <c r="H221" s="15"/>
     </row>
-    <row r="222" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="223" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A223" s="34" t="s">
-        <v>405</v>
-      </c>
-      <c r="B223" s="35"/>
-      <c r="C223" s="35"/>
-      <c r="D223" s="36"/>
-      <c r="E223" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="F223" s="38"/>
-      <c r="G223" s="38"/>
-      <c r="H223" s="39"/>
-    </row>
-    <row r="224" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A224" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B224" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C224" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D224" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E224" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F224" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G224" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H224" s="23" t="s">
-        <v>14</v>
-      </c>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A222" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="B222" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C222" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D222" s="15"/>
+      <c r="E222" s="15"/>
+      <c r="F222" s="15" t="str">
+        <f t="shared" si="18"/>
+        <v>BB1.csv</v>
+      </c>
+      <c r="G222" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="H222" s="15"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A223" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="B223" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C223" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D223" s="15"/>
+      <c r="E223" s="15"/>
+      <c r="F223" s="15" t="str">
+        <f t="shared" si="18"/>
+        <v>BB1.csv</v>
+      </c>
+      <c r="G223" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="H223" s="15"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A224" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="B224" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C224" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D224" s="15"/>
+      <c r="E224" s="15"/>
+      <c r="F224" s="15" t="str">
+        <f t="shared" si="18"/>
+        <v>BB1.csv</v>
+      </c>
+      <c r="G224" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H224" s="15"/>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A225" s="40" t="s">
-        <v>413</v>
-      </c>
-      <c r="B225" s="41"/>
-      <c r="C225" s="41"/>
-      <c r="D225" s="41"/>
-      <c r="E225" s="41"/>
-      <c r="F225" s="41"/>
-      <c r="G225" s="41"/>
-      <c r="H225" s="42"/>
+      <c r="A225" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="B225" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C225" s="15"/>
+      <c r="D225" s="15"/>
+      <c r="E225" s="15"/>
+      <c r="F225" s="15" t="str">
+        <f t="shared" si="18"/>
+        <v>BB1.csv</v>
+      </c>
+      <c r="G225" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="H225" s="15"/>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A226" s="15" t="str">
-        <f>$A$223</f>
-        <v>fact.OutstandingQuery</v>
+      <c r="A226" s="15" t="s">
+        <v>407</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C226" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D226" s="15" t="s">
-        <v>23</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C226" s="15"/>
+      <c r="D226" s="15"/>
       <c r="E226" s="15"/>
-      <c r="F226" s="15"/>
-      <c r="G226" s="15"/>
+      <c r="F226" s="15" t="str">
+        <f t="shared" si="18"/>
+        <v>BB1.csv</v>
+      </c>
+      <c r="G226" s="15" t="s">
+        <v>135</v>
+      </c>
       <c r="H226" s="15"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A227" s="15" t="str">
-        <f t="shared" ref="A227:A241" si="19">$A$223</f>
-        <v>fact.OutstandingQuery</v>
+      <c r="A227" s="15" t="s">
+        <v>407</v>
       </c>
       <c r="B227" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C227" s="15" t="s">
-        <v>93</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="C227" s="15"/>
       <c r="D227" s="15"/>
       <c r="E227" s="15"/>
-      <c r="F227" s="15"/>
-      <c r="G227" s="15"/>
+      <c r="F227" s="15" t="str">
+        <f t="shared" si="18"/>
+        <v>BB1.csv</v>
+      </c>
+      <c r="G227" s="15" t="s">
+        <v>416</v>
+      </c>
       <c r="H227" s="15"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A228" s="15" t="str">
-        <f t="shared" si="19"/>
-        <v>fact.OutstandingQuery</v>
+      <c r="A228" s="15" t="s">
+        <v>407</v>
       </c>
       <c r="B228" s="15" t="s">
-        <v>82</v>
+        <v>398</v>
       </c>
       <c r="C228" s="15" t="s">
-        <v>93</v>
+        <v>399</v>
       </c>
       <c r="D228" s="15"/>
       <c r="E228" s="15"/>
-      <c r="F228" s="15" t="str">
-        <f t="shared" ref="F228:F230" si="20">$E$223</f>
-        <v>BBS.csv</v>
-      </c>
-      <c r="G228" s="15"/>
-      <c r="H228" s="15"/>
+      <c r="F228" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G228" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H228" s="15" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A229" s="15" t="str">
-        <f t="shared" si="19"/>
-        <v>fact.OutstandingQuery</v>
+      <c r="A229" s="15" t="s">
+        <v>407</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>159</v>
+        <v>400</v>
       </c>
       <c r="C229" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D229" s="15" t="s">
-        <v>160</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="D229" s="15"/>
       <c r="E229" s="15"/>
       <c r="F229" s="15" t="str">
+        <f t="shared" ref="F229" si="19">$E$231</f>
+        <v>BBS.csv</v>
+      </c>
+      <c r="G229" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H229" s="15" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="231" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A231" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="B231" s="35"/>
+      <c r="C231" s="35"/>
+      <c r="D231" s="36"/>
+      <c r="E231" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="F231" s="38"/>
+      <c r="G231" s="38"/>
+      <c r="H231" s="39"/>
+    </row>
+    <row r="232" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A232" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B232" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C232" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D232" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E232" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F232" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G232" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H232" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A233" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="B233" s="41"/>
+      <c r="C233" s="41"/>
+      <c r="D233" s="41"/>
+      <c r="E233" s="41"/>
+      <c r="F233" s="41"/>
+      <c r="G233" s="41"/>
+      <c r="H233" s="42"/>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A234" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="B234" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C234" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D234" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E234" s="15"/>
+      <c r="F234" s="15"/>
+      <c r="G234" s="15"/>
+      <c r="H234" s="15"/>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A235" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="B235" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C235" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D235" s="15"/>
+      <c r="E235" s="15"/>
+      <c r="F235" s="15"/>
+      <c r="G235" s="15"/>
+      <c r="H235" s="15"/>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A236" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="B236" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C236" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D236" s="15"/>
+      <c r="E236" s="15"/>
+      <c r="F236" s="15" t="str">
+        <f t="shared" ref="F236:F238" si="20">$E$231</f>
+        <v>BBS.csv</v>
+      </c>
+      <c r="G236" s="15"/>
+      <c r="H236" s="15"/>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A237" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="B237" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C237" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D237" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="E237" s="15"/>
+      <c r="F237" s="15" t="str">
         <f t="shared" si="20"/>
         <v>BBS.csv</v>
       </c>
-      <c r="G229" s="15" t="s">
+      <c r="G237" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="H237" s="15"/>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A238" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="B238" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C238" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D238" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="H229" s="15"/>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A230" s="15" t="str">
-        <f t="shared" si="19"/>
-        <v>fact.OutstandingQuery</v>
-      </c>
-      <c r="B230" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="C230" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D230" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="E230" s="15"/>
-      <c r="F230" s="15" t="str">
+      <c r="E238" s="15"/>
+      <c r="F238" s="15" t="str">
         <f t="shared" si="20"/>
         <v>BBS.csv</v>
       </c>
-      <c r="G230" s="15" t="s">
+      <c r="G238" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="H238" s="15"/>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A239" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="B239" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C239" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D239" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="E239" s="15"/>
+      <c r="F239" s="15" t="str">
+        <f>$E$231</f>
+        <v>BBS.csv</v>
+      </c>
+      <c r="G239" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="H239" s="15" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A240" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="B240" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="C240" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D240" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="H230" s="15"/>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A231" s="15" t="str">
-        <f t="shared" si="19"/>
-        <v>fact.OutstandingQuery</v>
-      </c>
-      <c r="B231" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C231" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D231" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="E231" s="15"/>
-      <c r="F231" s="15" t="str">
-        <f>$E$223</f>
-        <v>BBS.csv</v>
-      </c>
-      <c r="G231" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="H231" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A232" s="15" t="str">
-        <f t="shared" si="19"/>
-        <v>fact.OutstandingQuery</v>
-      </c>
-      <c r="B232" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="C232" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D232" s="15" t="s">
-        <v>162</v>
-      </c>
-      <c r="E232" s="15"/>
-      <c r="F232" s="15" t="str">
-        <f t="shared" ref="F232:F241" si="21">$E$223</f>
-        <v>BBS.csv</v>
-      </c>
-      <c r="G232" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="H232" s="15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A233" s="15" t="str">
-        <f t="shared" si="19"/>
-        <v>fact.OutstandingQuery</v>
-      </c>
-      <c r="B233" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C233" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D233" s="15"/>
-      <c r="E233" s="15"/>
-      <c r="F233" s="15" t="str">
-        <f t="shared" si="21"/>
-        <v>BBS.csv</v>
-      </c>
-      <c r="G233" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H233" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A234" s="15" t="str">
-        <f t="shared" si="19"/>
-        <v>fact.OutstandingQuery</v>
-      </c>
-      <c r="B234" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C234" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D234" s="15"/>
-      <c r="E234" s="15"/>
-      <c r="F234" s="15" t="str">
-        <f t="shared" si="21"/>
-        <v>BBS.csv</v>
-      </c>
-      <c r="G234" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="H234" s="15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A235" s="15" t="str">
-        <f t="shared" si="19"/>
-        <v>fact.OutstandingQuery</v>
-      </c>
-      <c r="B235" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="C235" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D235" s="15"/>
-      <c r="E235" s="15"/>
-      <c r="F235" s="15" t="str">
-        <f t="shared" si="21"/>
-        <v>BBS.csv</v>
-      </c>
-      <c r="G235" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="H235" s="15"/>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A236" s="15" t="str">
-        <f t="shared" si="19"/>
-        <v>fact.OutstandingQuery</v>
-      </c>
-      <c r="B236" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="C236" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D236" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="E236" s="15"/>
-      <c r="F236" s="15" t="str">
-        <f t="shared" si="21"/>
-        <v>BBS.csv</v>
-      </c>
-      <c r="G236" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="H236" s="15" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A237" s="15" t="str">
-        <f t="shared" si="19"/>
-        <v>fact.OutstandingQuery</v>
-      </c>
-      <c r="B237" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="C237" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="E237" s="15"/>
-      <c r="F237" s="15" t="str">
-        <f t="shared" si="21"/>
-        <v>BBS.csv</v>
-      </c>
-      <c r="G237" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="H237" s="15"/>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A238" s="15" t="str">
-        <f t="shared" si="19"/>
-        <v>fact.OutstandingQuery</v>
-      </c>
-      <c r="B238" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="C238" s="15"/>
-      <c r="D238" s="15"/>
-      <c r="E238" s="15"/>
-      <c r="F238" s="15" t="str">
-        <f t="shared" si="21"/>
-        <v>BBS.csv</v>
-      </c>
-      <c r="G238" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="H238" s="15"/>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A239" s="15" t="str">
-        <f t="shared" si="19"/>
-        <v>fact.OutstandingQuery</v>
-      </c>
-      <c r="B239" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="C239" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="D239" s="15"/>
-      <c r="E239" s="15"/>
-      <c r="F239" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G239" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H239" s="15" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A240" s="15" t="str">
-        <f t="shared" si="19"/>
-        <v>fact.OutstandingQuery</v>
-      </c>
-      <c r="B240" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="C240" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D240" s="15"/>
       <c r="E240" s="15"/>
       <c r="F240" s="15" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="F240:F249" si="21">$E$231</f>
         <v>BBS.csv</v>
       </c>
       <c r="G240" s="15" t="s">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="H240" s="15" t="s">
-        <v>403</v>
+        <v>163</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A241" s="15" t="str">
-        <f t="shared" si="19"/>
-        <v>fact.OutstandingQuery</v>
+      <c r="A241" s="15" t="s">
+        <v>404</v>
       </c>
       <c r="B241" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="C241" s="15"/>
+        <v>4</v>
+      </c>
+      <c r="C241" s="15" t="s">
+        <v>149</v>
+      </c>
       <c r="D241" s="15"/>
       <c r="E241" s="15"/>
       <c r="F241" s="15" t="str">
@@ -10282,264 +10388,253 @@
         <v>BBS.csv</v>
       </c>
       <c r="G241" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="H241" s="15"/>
-    </row>
-    <row r="242" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="243" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A243" s="34" t="s">
-        <v>181</v>
-      </c>
-      <c r="B243" s="35"/>
-      <c r="C243" s="35"/>
-      <c r="D243" s="36"/>
-      <c r="E243" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="F243" s="38"/>
-      <c r="G243" s="38"/>
-      <c r="H243" s="39"/>
-    </row>
-    <row r="244" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A244" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B244" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C244" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D244" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E244" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F244" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G244" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H244" s="23" t="s">
-        <v>14</v>
+        <v>66</v>
+      </c>
+      <c r="H241" s="15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A242" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="B242" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C242" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D242" s="15"/>
+      <c r="E242" s="15"/>
+      <c r="F242" s="15" t="str">
+        <f t="shared" si="21"/>
+        <v>BBS.csv</v>
+      </c>
+      <c r="G242" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="H242" s="15" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A243" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="B243" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C243" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D243" s="15"/>
+      <c r="E243" s="15"/>
+      <c r="F243" s="15" t="str">
+        <f t="shared" si="21"/>
+        <v>BBS.csv</v>
+      </c>
+      <c r="G243" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="H243" s="15"/>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A244" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="B244" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C244" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D244" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="E244" s="15"/>
+      <c r="F244" s="15" t="str">
+        <f t="shared" si="21"/>
+        <v>BBS.csv</v>
+      </c>
+      <c r="G244" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="H244" s="15" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A245" s="40"/>
-      <c r="B245" s="41"/>
-      <c r="C245" s="41"/>
-      <c r="D245" s="41"/>
-      <c r="E245" s="41"/>
-      <c r="F245" s="41"/>
-      <c r="G245" s="41"/>
-      <c r="H245" s="42"/>
+      <c r="A245" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="B245" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="C245" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="E245" s="15"/>
+      <c r="F245" s="15" t="str">
+        <f t="shared" si="21"/>
+        <v>BBS.csv</v>
+      </c>
+      <c r="G245" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="H245" s="15"/>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A246" s="15" t="str">
-        <f t="shared" ref="A246:A267" si="22">$A$243</f>
-        <v>fact.WorkInProgress</v>
+      <c r="A246" s="15" t="s">
+        <v>404</v>
       </c>
       <c r="B246" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C246" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D246" s="15" t="s">
-        <v>23</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="C246" s="15"/>
+      <c r="D246" s="15"/>
       <c r="E246" s="15"/>
-      <c r="F246" s="15"/>
-      <c r="G246" s="15"/>
+      <c r="F246" s="15" t="str">
+        <f t="shared" si="21"/>
+        <v>BBS.csv</v>
+      </c>
+      <c r="G246" s="15" t="s">
+        <v>172</v>
+      </c>
       <c r="H246" s="15"/>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A247" s="15" t="str">
-        <f t="shared" si="22"/>
-        <v>fact.WorkInProgress</v>
+      <c r="A247" s="15" t="s">
+        <v>404</v>
       </c>
       <c r="B247" s="15" t="s">
-        <v>81</v>
+        <v>398</v>
       </c>
       <c r="C247" s="15" t="s">
-        <v>93</v>
+        <v>399</v>
       </c>
       <c r="D247" s="15"/>
       <c r="E247" s="15"/>
-      <c r="F247" s="15"/>
-      <c r="G247" s="15"/>
-      <c r="H247" s="15"/>
+      <c r="F247" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G247" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H247" s="15" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A248" s="15" t="str">
-        <f t="shared" si="22"/>
-        <v>fact.WorkInProgress</v>
+      <c r="A248" s="15" t="s">
+        <v>404</v>
       </c>
       <c r="B248" s="15" t="s">
-        <v>82</v>
+        <v>400</v>
       </c>
       <c r="C248" s="15" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="D248" s="15"/>
       <c r="E248" s="15"/>
       <c r="F248" s="15" t="str">
-        <f t="shared" ref="F248:F267" si="23">$E$243</f>
-        <v>BWS.csv and BWN.csv</v>
-      </c>
-      <c r="G248" s="15"/>
-      <c r="H248" s="15"/>
+        <f t="shared" si="21"/>
+        <v>BBS.csv</v>
+      </c>
+      <c r="G248" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H248" s="15" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A249" s="15" t="str">
-        <f t="shared" si="22"/>
-        <v>fact.WorkInProgress</v>
+      <c r="A249" s="15" t="s">
+        <v>404</v>
       </c>
       <c r="B249" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C249" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D249" s="15" t="s">
-        <v>185</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="C249" s="15"/>
+      <c r="D249" s="15"/>
       <c r="E249" s="15"/>
       <c r="F249" s="15" t="str">
-        <f t="shared" si="23"/>
-        <v>BWS.csv and BWN.csv</v>
+        <f t="shared" si="21"/>
+        <v>BBS.csv</v>
       </c>
       <c r="G249" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H249" s="15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A250" s="15" t="str">
-        <f t="shared" si="22"/>
-        <v>fact.WorkInProgress</v>
-      </c>
-      <c r="B250" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="C250" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D250" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="E250" s="15"/>
-      <c r="F250" s="15" t="str">
-        <f t="shared" si="23"/>
-        <v>BWS.csv and BWN.csv</v>
-      </c>
-      <c r="G250" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="H250" s="15"/>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A251" s="15" t="str">
-        <f t="shared" si="22"/>
-        <v>fact.WorkInProgress</v>
-      </c>
-      <c r="B251" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="C251" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D251" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="E251" s="15"/>
-      <c r="F251" s="15" t="str">
-        <f t="shared" si="23"/>
-        <v>BWS.csv and BWN.csv</v>
-      </c>
-      <c r="G251" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="H251" s="15" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A252" s="15" t="str">
-        <f t="shared" si="22"/>
-        <v>fact.WorkInProgress</v>
-      </c>
-      <c r="B252" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="C252" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D252" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="E252" s="15"/>
-      <c r="F252" s="15" t="str">
-        <f t="shared" si="23"/>
-        <v>BWS.csv and BWN.csv</v>
-      </c>
-      <c r="G252" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="H252" s="15"/>
+        <v>411</v>
+      </c>
+      <c r="H249" s="15"/>
+    </row>
+    <row r="250" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="251" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A251" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="B251" s="35"/>
+      <c r="C251" s="35"/>
+      <c r="D251" s="36"/>
+      <c r="E251" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="F251" s="38"/>
+      <c r="G251" s="38"/>
+      <c r="H251" s="39"/>
+    </row>
+    <row r="252" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A252" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B252" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C252" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D252" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E252" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F252" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G252" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H252" s="23" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A253" s="15" t="str">
-        <f t="shared" si="22"/>
-        <v>fact.WorkInProgress</v>
-      </c>
-      <c r="B253" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C253" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D253" s="15"/>
-      <c r="E253" s="15"/>
-      <c r="F253" s="15" t="str">
-        <f t="shared" si="23"/>
-        <v>BWS.csv and BWN.csv</v>
-      </c>
-      <c r="G253" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H253" s="15" t="s">
-        <v>155</v>
-      </c>
+      <c r="A253" s="40"/>
+      <c r="B253" s="41"/>
+      <c r="C253" s="41"/>
+      <c r="D253" s="41"/>
+      <c r="E253" s="41"/>
+      <c r="F253" s="41"/>
+      <c r="G253" s="41"/>
+      <c r="H253" s="42"/>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="15" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="A254:A275" si="22">$A$251</f>
         <v>fact.WorkInProgress</v>
       </c>
       <c r="B254" s="15" t="s">
-        <v>190</v>
+        <v>21</v>
       </c>
       <c r="C254" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="D254" s="15"/>
+        <v>22</v>
+      </c>
+      <c r="D254" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="E254" s="15"/>
-      <c r="F254" s="15" t="str">
-        <f t="shared" si="23"/>
-        <v>BWS.csv and BWN.csv</v>
-      </c>
-      <c r="G254" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="H254" s="15" t="s">
-        <v>166</v>
-      </c>
+      <c r="F254" s="15"/>
+      <c r="G254" s="15"/>
+      <c r="H254" s="15"/>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="15" t="str">
@@ -10547,20 +10642,15 @@
         <v>fact.WorkInProgress</v>
       </c>
       <c r="B255" s="15" t="s">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="C255" s="15" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="D255" s="15"/>
       <c r="E255" s="15"/>
-      <c r="F255" s="15" t="str">
-        <f t="shared" si="23"/>
-        <v>BWS.csv and BWN.csv</v>
-      </c>
-      <c r="G255" s="15" t="s">
-        <v>191</v>
-      </c>
+      <c r="F255" s="15"/>
+      <c r="G255" s="15"/>
       <c r="H255" s="15"/>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
@@ -10569,20 +10659,18 @@
         <v>fact.WorkInProgress</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>192</v>
+        <v>82</v>
       </c>
       <c r="C256" s="15" t="s">
-        <v>29</v>
+        <v>93</v>
       </c>
       <c r="D256" s="15"/>
       <c r="E256" s="15"/>
       <c r="F256" s="15" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="F256:F275" si="23">$E$251</f>
         <v>BWS.csv and BWN.csv</v>
       </c>
-      <c r="G256" s="15" t="s">
-        <v>192</v>
-      </c>
+      <c r="G256" s="15"/>
       <c r="H256" s="15"/>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
@@ -10591,13 +10679,13 @@
         <v>fact.WorkInProgress</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>153</v>
+        <v>5</v>
       </c>
       <c r="C257" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D257" s="15" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="E257" s="15"/>
       <c r="F257" s="15" t="str">
@@ -10605,10 +10693,10 @@
         <v>BWS.csv and BWN.csv</v>
       </c>
       <c r="G257" s="15" t="s">
-        <v>193</v>
+        <v>69</v>
       </c>
       <c r="H257" s="15" t="s">
-        <v>227</v>
+        <v>104</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
@@ -10617,19 +10705,21 @@
         <v>fact.WorkInProgress</v>
       </c>
       <c r="B258" s="15" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="C258" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D258" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="D258" s="15" t="s">
+        <v>159</v>
+      </c>
       <c r="E258" s="15"/>
       <c r="F258" s="15" t="str">
         <f t="shared" si="23"/>
         <v>BWS.csv and BWN.csv</v>
       </c>
       <c r="G258" s="15" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="H258" s="15"/>
     </row>
@@ -10639,21 +10729,25 @@
         <v>fact.WorkInProgress</v>
       </c>
       <c r="B259" s="15" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C259" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D259" s="15"/>
+        <v>22</v>
+      </c>
+      <c r="D259" s="15" t="s">
+        <v>394</v>
+      </c>
       <c r="E259" s="15"/>
       <c r="F259" s="15" t="str">
         <f t="shared" si="23"/>
         <v>BWS.csv and BWN.csv</v>
       </c>
       <c r="G259" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="H259" s="15"/>
+        <v>185</v>
+      </c>
+      <c r="H259" s="15" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="15" t="str">
@@ -10661,19 +10755,21 @@
         <v>fact.WorkInProgress</v>
       </c>
       <c r="B260" s="15" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="C260" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D260" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="D260" s="15" t="s">
+        <v>187</v>
+      </c>
       <c r="E260" s="15"/>
       <c r="F260" s="15" t="str">
         <f t="shared" si="23"/>
         <v>BWS.csv and BWN.csv</v>
       </c>
       <c r="G260" s="15" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="H260" s="15"/>
     </row>
@@ -10683,10 +10779,10 @@
         <v>fact.WorkInProgress</v>
       </c>
       <c r="B261" s="15" t="s">
-        <v>398</v>
+        <v>4</v>
       </c>
       <c r="C261" s="15" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="D261" s="15"/>
       <c r="E261" s="15"/>
@@ -10695,9 +10791,11 @@
         <v>BWS.csv and BWN.csv</v>
       </c>
       <c r="G261" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="H261" s="15"/>
+        <v>66</v>
+      </c>
+      <c r="H261" s="15" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="15" t="str">
@@ -10705,10 +10803,10 @@
         <v>fact.WorkInProgress</v>
       </c>
       <c r="B262" s="15" t="s">
-        <v>232</v>
+        <v>189</v>
       </c>
       <c r="C262" s="15" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
       <c r="D262" s="15"/>
       <c r="E262" s="15"/>
@@ -10717,9 +10815,11 @@
         <v>BWS.csv and BWN.csv</v>
       </c>
       <c r="G262" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="H262" s="15"/>
+        <v>419</v>
+      </c>
+      <c r="H262" s="15" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="15" t="str">
@@ -10727,10 +10827,10 @@
         <v>fact.WorkInProgress</v>
       </c>
       <c r="B263" s="15" t="s">
-        <v>233</v>
+        <v>190</v>
       </c>
       <c r="C263" s="15" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="D263" s="15"/>
       <c r="E263" s="15"/>
@@ -10739,7 +10839,7 @@
         <v>BWS.csv and BWN.csv</v>
       </c>
       <c r="G263" s="15" t="s">
-        <v>233</v>
+        <v>190</v>
       </c>
       <c r="H263" s="15"/>
     </row>
@@ -10749,10 +10849,10 @@
         <v>fact.WorkInProgress</v>
       </c>
       <c r="B264" s="15" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="C264" s="15" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="D264" s="15"/>
       <c r="E264" s="15"/>
@@ -10761,7 +10861,7 @@
         <v>BWS.csv and BWN.csv</v>
       </c>
       <c r="G264" s="15" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="H264" s="15"/>
     </row>
@@ -10771,21 +10871,25 @@
         <v>fact.WorkInProgress</v>
       </c>
       <c r="B265" s="15" t="s">
-        <v>235</v>
+        <v>152</v>
       </c>
       <c r="C265" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D265" s="15"/>
+        <v>22</v>
+      </c>
+      <c r="D265" s="15" t="s">
+        <v>161</v>
+      </c>
       <c r="E265" s="15"/>
       <c r="F265" s="15" t="str">
         <f t="shared" si="23"/>
         <v>BWS.csv and BWN.csv</v>
       </c>
       <c r="G265" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="H265" s="15"/>
+        <v>192</v>
+      </c>
+      <c r="H265" s="15" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="15" t="str">
@@ -10793,22 +10897,21 @@
         <v>fact.WorkInProgress</v>
       </c>
       <c r="B266" s="15" t="s">
-        <v>399</v>
+        <v>227</v>
       </c>
       <c r="C266" s="15" t="s">
-        <v>400</v>
+        <v>86</v>
       </c>
       <c r="D266" s="15"/>
       <c r="E266" s="15"/>
-      <c r="F266" s="15" t="s">
-        <v>24</v>
+      <c r="F266" s="15" t="str">
+        <f t="shared" si="23"/>
+        <v>BWS.csv and BWN.csv</v>
       </c>
       <c r="G266" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H266" s="15" t="s">
-        <v>402</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="H266" s="15"/>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="15" t="str">
@@ -10816,10 +10919,10 @@
         <v>fact.WorkInProgress</v>
       </c>
       <c r="B267" s="15" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C267" s="15" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="D267" s="15"/>
       <c r="E267" s="15"/>
@@ -10828,31 +10931,497 @@
         <v>BWS.csv and BWN.csv</v>
       </c>
       <c r="G267" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="H267" s="15"/>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A268" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v>fact.WorkInProgress</v>
+      </c>
+      <c r="B268" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C268" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D268" s="15"/>
+      <c r="E268" s="15"/>
+      <c r="F268" s="15" t="str">
+        <f t="shared" si="23"/>
+        <v>BWS.csv and BWN.csv</v>
+      </c>
+      <c r="G268" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="H268" s="15"/>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A269" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v>fact.WorkInProgress</v>
+      </c>
+      <c r="B269" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="C269" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D269" s="15"/>
+      <c r="E269" s="15"/>
+      <c r="F269" s="15" t="str">
+        <f t="shared" si="23"/>
+        <v>BWS.csv and BWN.csv</v>
+      </c>
+      <c r="G269" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="H269" s="15"/>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A270" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v>fact.WorkInProgress</v>
+      </c>
+      <c r="B270" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C270" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D270" s="15"/>
+      <c r="E270" s="15"/>
+      <c r="F270" s="15" t="str">
+        <f t="shared" si="23"/>
+        <v>BWS.csv and BWN.csv</v>
+      </c>
+      <c r="G270" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="H270" s="15"/>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A271" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v>fact.WorkInProgress</v>
+      </c>
+      <c r="B271" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C271" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D271" s="15"/>
+      <c r="E271" s="15"/>
+      <c r="F271" s="15" t="str">
+        <f t="shared" si="23"/>
+        <v>BWS.csv and BWN.csv</v>
+      </c>
+      <c r="G271" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="H271" s="15"/>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A272" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v>fact.WorkInProgress</v>
+      </c>
+      <c r="B272" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="C272" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D272" s="15"/>
+      <c r="E272" s="15"/>
+      <c r="F272" s="15" t="str">
+        <f t="shared" si="23"/>
+        <v>BWS.csv and BWN.csv</v>
+      </c>
+      <c r="G272" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="H272" s="15"/>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A273" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v>fact.WorkInProgress</v>
+      </c>
+      <c r="B273" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C273" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D273" s="15"/>
+      <c r="E273" s="15"/>
+      <c r="F273" s="15" t="str">
+        <f t="shared" si="23"/>
+        <v>BWS.csv and BWN.csv</v>
+      </c>
+      <c r="G273" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="H273" s="15"/>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A274" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v>fact.WorkInProgress</v>
+      </c>
+      <c r="B274" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="C274" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="D274" s="15"/>
+      <c r="E274" s="15"/>
+      <c r="F274" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G274" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="H267" s="15" t="s">
-        <v>403</v>
-      </c>
+      <c r="H274" s="15" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A275" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v>fact.WorkInProgress</v>
+      </c>
+      <c r="B275" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="C275" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D275" s="15"/>
+      <c r="E275" s="15"/>
+      <c r="F275" s="15" t="str">
+        <f t="shared" si="23"/>
+        <v>BWS.csv and BWN.csv</v>
+      </c>
+      <c r="G275" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H275" s="15" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="277" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A277" s="34" t="s">
+        <v>420</v>
+      </c>
+      <c r="B277" s="35"/>
+      <c r="C277" s="35"/>
+      <c r="D277" s="36"/>
+      <c r="E277" s="37" t="s">
+        <v>421</v>
+      </c>
+      <c r="F277" s="38"/>
+      <c r="G277" s="38"/>
+      <c r="H277" s="39"/>
+    </row>
+    <row r="278" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A278" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B278" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C278" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D278" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E278" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F278" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G278" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H278" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A279" s="40"/>
+      <c r="B279" s="41"/>
+      <c r="C279" s="41"/>
+      <c r="D279" s="41"/>
+      <c r="E279" s="41"/>
+      <c r="F279" s="41"/>
+      <c r="G279" s="41"/>
+      <c r="H279" s="42"/>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A280" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="B280" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C280" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D280" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E280" s="15"/>
+      <c r="F280" s="15"/>
+      <c r="G280" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="H280" s="15"/>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A281" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="B281" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C281" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D281" s="15"/>
+      <c r="E281" s="15"/>
+      <c r="F281" s="15"/>
+      <c r="G281" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="H281" s="15"/>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A282" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="B282" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C282" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D282" s="15"/>
+      <c r="E282" s="15"/>
+      <c r="F282" s="15"/>
+      <c r="G282" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="H282" s="15"/>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A283" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="B283" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="C283" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D283" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E283" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="F283" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="G283" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="H283" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A284" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="B284" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C284" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D284" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E284" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="F284" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="G284" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="H284" s="15" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A285" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="B285" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C285" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D285" s="15"/>
+      <c r="E285" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="F285" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="G285" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H285" s="15"/>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A286" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="B286" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C286" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D286" s="15"/>
+      <c r="E286" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="F286" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="G286" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="H286" s="15"/>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A287" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="B287" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="C287" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="D287" s="15"/>
+      <c r="E287" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="F287" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="G287" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="H287" s="15"/>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A288" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="B288" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="C288" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="D288" s="15"/>
+      <c r="E288" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="F288" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="G288" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="H288" s="15"/>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A289" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="B289" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="C289" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="D289" s="15"/>
+      <c r="E289" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="F289" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="G289" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="H289" s="15"/>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A290" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="B290" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="C290" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="D290" s="15"/>
+      <c r="E290" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="F290" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="G290" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="H290" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="A205:D205"/>
-    <mergeCell ref="E205:H205"/>
-    <mergeCell ref="A245:H245"/>
-    <mergeCell ref="A207:H207"/>
-    <mergeCell ref="A223:D223"/>
-    <mergeCell ref="E223:H223"/>
-    <mergeCell ref="A225:H225"/>
-    <mergeCell ref="A243:D243"/>
-    <mergeCell ref="E243:H243"/>
+  <mergeCells count="44">
+    <mergeCell ref="A253:H253"/>
+    <mergeCell ref="A213:H213"/>
+    <mergeCell ref="A231:D231"/>
+    <mergeCell ref="E231:H231"/>
+    <mergeCell ref="A233:H233"/>
+    <mergeCell ref="A251:D251"/>
+    <mergeCell ref="E251:H251"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="E17:H17"/>
-    <mergeCell ref="A183:D183"/>
-    <mergeCell ref="E183:H183"/>
-    <mergeCell ref="A185:H185"/>
+    <mergeCell ref="A188:D188"/>
+    <mergeCell ref="E188:H188"/>
+    <mergeCell ref="A190:H190"/>
     <mergeCell ref="A19:H19"/>
     <mergeCell ref="A101:H101"/>
-    <mergeCell ref="A146:H146"/>
+    <mergeCell ref="A149:H149"/>
     <mergeCell ref="A111:D111"/>
     <mergeCell ref="E111:H111"/>
     <mergeCell ref="A66:H66"/>
@@ -10866,17 +11435,22 @@
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="E6:H6"/>
+    <mergeCell ref="A277:D277"/>
+    <mergeCell ref="E277:H277"/>
+    <mergeCell ref="A279:H279"/>
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="E64:H64"/>
-    <mergeCell ref="A161:D161"/>
-    <mergeCell ref="E161:H161"/>
-    <mergeCell ref="A163:H163"/>
+    <mergeCell ref="A166:D166"/>
+    <mergeCell ref="E166:H166"/>
+    <mergeCell ref="A168:H168"/>
     <mergeCell ref="A113:H113"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="E128:H128"/>
-    <mergeCell ref="A130:H130"/>
-    <mergeCell ref="A144:D144"/>
-    <mergeCell ref="E144:H144"/>
+    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="E129:H129"/>
+    <mergeCell ref="A131:H131"/>
+    <mergeCell ref="A147:D147"/>
+    <mergeCell ref="E147:H147"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="E211:H211"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/KPI Dashboards - Data Mapping.xlsx
+++ b/KPI Dashboards - Data Mapping.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23004" windowHeight="8580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23004" windowHeight="8580"/>
   </bookViews>
   <sheets>
     <sheet name="Dimensions" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="421">
   <si>
     <t>Source System</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>BB3.csv</t>
+  </si>
+  <si>
+    <t>fact.WorkshopStats</t>
   </si>
   <si>
     <t>dim.BranchCodes</t>
@@ -1292,51 +1295,6 @@
   </si>
   <si>
     <t>Date In</t>
-  </si>
-  <si>
-    <t>fact.WasteCost</t>
-  </si>
-  <si>
-    <t>BWC.csv</t>
-  </si>
-  <si>
-    <t>look up on dim.branch using [Cost Centre]</t>
-  </si>
-  <si>
-    <t>Expense</t>
-  </si>
-  <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>Jrnl Ref</t>
-  </si>
-  <si>
-    <t>Doc Date</t>
-  </si>
-  <si>
-    <t>SL/PL Acc Code</t>
-  </si>
-  <si>
-    <t>Item number</t>
-  </si>
-  <si>
-    <t>Journal Reference</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>BWC.CSV</t>
-  </si>
-  <si>
-    <t>AutoLine</t>
-  </si>
-  <si>
-    <t>fact.UtlilizationStats</t>
-  </si>
-  <si>
-    <t>look up on dim.NominalCode using Nominal</t>
   </si>
 </sst>
 </file>
@@ -2078,9 +2036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I182"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D139" sqref="D139"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2176,7 +2133,7 @@
       <c r="C6" s="35"/>
       <c r="D6" s="36"/>
       <c r="E6" s="37" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F6" s="38"/>
       <c r="G6" s="38"/>
@@ -2244,7 +2201,7 @@
         <v>22</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>7</v>
@@ -2254,7 +2211,7 @@
         <v>DIM_DATES</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H10" s="26"/>
     </row>
@@ -2267,7 +2224,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15" t="s">
@@ -2278,7 +2235,7 @@
         <v>DIM_DATES</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H11" s="26"/>
     </row>
@@ -2288,10 +2245,10 @@
         <v>dim.Date</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15" t="s">
@@ -2302,7 +2259,7 @@
         <v>DIM_DATES</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H12" s="26"/>
     </row>
@@ -2312,7 +2269,7 @@
         <v>dim.Date</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>29</v>
@@ -2326,7 +2283,7 @@
         <v>DIM_DATES</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H13" s="26"/>
     </row>
@@ -2336,10 +2293,10 @@
         <v>dim.Date</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15" t="s">
@@ -2350,7 +2307,7 @@
         <v>DIM_DATES</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H14" s="26"/>
     </row>
@@ -2360,7 +2317,7 @@
         <v>dim.Date</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C15" s="27" t="s">
         <v>29</v>
@@ -2374,7 +2331,7 @@
         <v>DIM_DATES</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H15" s="26"/>
     </row>
@@ -2384,10 +2341,10 @@
         <v>dim.Date</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="15" t="s">
@@ -2398,7 +2355,7 @@
         <v>DIM_DATES</v>
       </c>
       <c r="G16" s="27" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H16" s="26"/>
     </row>
@@ -2408,7 +2365,7 @@
         <v>dim.Date</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C17" s="27" t="s">
         <v>29</v>
@@ -2422,7 +2379,7 @@
         <v>DIM_DATES</v>
       </c>
       <c r="G17" s="27" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H17" s="26"/>
     </row>
@@ -2432,7 +2389,7 @@
         <v>dim.Date</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C18" s="27" t="s">
         <v>29</v>
@@ -2446,7 +2403,7 @@
         <v>DIM_DATES</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H18" s="26"/>
     </row>
@@ -2456,10 +2413,10 @@
         <v>dim.Date</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15" t="s">
@@ -2470,7 +2427,7 @@
         <v>DIM_DATES</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H19" s="26"/>
     </row>
@@ -2480,7 +2437,7 @@
         <v>dim.Date</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C20" s="27" t="s">
         <v>29</v>
@@ -2494,7 +2451,7 @@
         <v>DIM_DATES</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H20" s="26"/>
     </row>
@@ -2504,10 +2461,10 @@
         <v>dim.Date</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="15" t="s">
@@ -2518,7 +2475,7 @@
         <v>DIM_DATES</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H21" s="26"/>
     </row>
@@ -2528,10 +2485,10 @@
         <v>dim.Date</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15" t="s">
@@ -2542,7 +2499,7 @@
         <v>DIM_DATES</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H22" s="26"/>
     </row>
@@ -2552,7 +2509,7 @@
         <v>dim.Date</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C23" s="27" t="s">
         <v>29</v>
@@ -2566,7 +2523,7 @@
         <v>DIM_DATES</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H23" s="26"/>
     </row>
@@ -2576,7 +2533,7 @@
         <v>dim.Date</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C24" s="27" t="s">
         <v>29</v>
@@ -2590,7 +2547,7 @@
         <v>DIM_DATES</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H24" s="26"/>
     </row>
@@ -2600,7 +2557,7 @@
         <v>dim.Date</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C25" s="27" t="s">
         <v>29</v>
@@ -2614,7 +2571,7 @@
         <v>DIM_DATES</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H25" s="26"/>
     </row>
@@ -2624,7 +2581,7 @@
         <v>dim.Date</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>22</v>
@@ -2638,7 +2595,7 @@
         <v>DIM_DATES</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H26" s="26"/>
     </row>
@@ -2648,10 +2605,10 @@
         <v>dim.Date</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D27" s="15"/>
       <c r="E27" s="15" t="s">
@@ -2662,7 +2619,7 @@
         <v>DIM_DATES</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H27" s="26"/>
     </row>
@@ -2715,7 +2672,7 @@
     </row>
     <row r="32" spans="1:8" s="11" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="40" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B32" s="41"/>
       <c r="C32" s="41"/>
@@ -2979,7 +2936,7 @@
         <v>dim.Depot</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C46" s="19" t="s">
         <v>25</v>
@@ -2995,7 +2952,7 @@
         <v>dim_Depot</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="H46" s="22"/>
     </row>
@@ -3063,13 +3020,13 @@
         <v>1</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G49" s="19" t="s">
         <v>60</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -3192,7 +3149,7 @@
         <v>dim_Depot</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H54" s="22"/>
     </row>
@@ -3277,7 +3234,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="40" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B62" s="41"/>
       <c r="C62" s="41"/>
@@ -3336,7 +3293,7 @@
         <v>DIM_Part</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H64" s="19" t="s">
         <v>24</v>
@@ -3348,10 +3305,10 @@
         <v>dim.Part</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D65" s="19"/>
       <c r="E65" s="19" t="s">
@@ -3362,7 +3319,7 @@
         <v>DIM_Part</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H65" s="19" t="s">
         <v>24</v>
@@ -3374,10 +3331,10 @@
         <v>dim.Part</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D66" s="19"/>
       <c r="E66" s="19" t="s">
@@ -3388,7 +3345,7 @@
         <v>DIM_Part</v>
       </c>
       <c r="G66" s="19" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H66" s="19" t="s">
         <v>24</v>
@@ -3400,10 +3357,10 @@
         <v>dim.Part</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D67" s="19"/>
       <c r="E67" s="19" t="s">
@@ -3414,7 +3371,7 @@
         <v>DIM_Part</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H67" s="19" t="s">
         <v>24</v>
@@ -3429,7 +3386,7 @@
         <v>16</v>
       </c>
       <c r="C68" s="19" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D68" s="19"/>
       <c r="E68" s="19" t="s">
@@ -3440,7 +3397,7 @@
         <v>DIM_Part</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H68" s="19" t="s">
         <v>24</v>
@@ -3452,10 +3409,10 @@
         <v>dim.Part</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C69" s="19" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D69" s="19"/>
       <c r="E69" s="19" t="s">
@@ -3466,7 +3423,7 @@
         <v>DIM_Part</v>
       </c>
       <c r="G69" s="19" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H69" s="19" t="s">
         <v>24</v>
@@ -3478,10 +3435,10 @@
         <v>dim.Part</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C70" s="19" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D70" s="19"/>
       <c r="E70" s="19" t="s">
@@ -3492,7 +3449,7 @@
         <v>DIM_Part</v>
       </c>
       <c r="G70" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H70" s="19" t="s">
         <v>24</v>
@@ -3504,10 +3461,10 @@
         <v>dim.Part</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C71" s="19" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D71" s="19"/>
       <c r="E71" s="19" t="s">
@@ -3518,7 +3475,7 @@
         <v>DIM_Part</v>
       </c>
       <c r="G71" s="19" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H71" s="19" t="s">
         <v>24</v>
@@ -3530,10 +3487,10 @@
         <v>dim.Part</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C72" s="19" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D72" s="19"/>
       <c r="E72" s="19" t="s">
@@ -3544,7 +3501,7 @@
         <v>DIM_Part</v>
       </c>
       <c r="G72" s="19" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H72" s="19" t="s">
         <v>24</v>
@@ -3556,10 +3513,10 @@
         <v>dim.Part</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C73" s="19" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D73" s="19"/>
       <c r="E73" s="19" t="s">
@@ -3570,7 +3527,7 @@
         <v>DIM_Part</v>
       </c>
       <c r="G73" s="19" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H73" s="19" t="s">
         <v>24</v>
@@ -3582,10 +3539,10 @@
         <v>dim.Part</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C74" s="19" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D74" s="19"/>
       <c r="E74" s="19" t="s">
@@ -3596,7 +3553,7 @@
         <v>DIM_Part</v>
       </c>
       <c r="G74" s="19" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H74" s="19" t="s">
         <v>24</v>
@@ -3608,10 +3565,10 @@
         <v>dim.Part</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C75" s="19" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D75" s="19"/>
       <c r="E75" s="19" t="s">
@@ -3622,7 +3579,7 @@
         <v>DIM_Part</v>
       </c>
       <c r="G75" s="19" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H75" s="19" t="s">
         <v>24</v>
@@ -3634,10 +3591,10 @@
         <v>dim.Part</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C76" s="19" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D76" s="19"/>
       <c r="E76" s="19" t="s">
@@ -3648,7 +3605,7 @@
         <v>DIM_Part</v>
       </c>
       <c r="G76" s="19" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H76" s="19" t="s">
         <v>24</v>
@@ -3675,7 +3632,7 @@
         <v>66</v>
       </c>
       <c r="G77" s="19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H77" s="19" t="s">
         <v>24</v>
@@ -3702,7 +3659,7 @@
         <v>66</v>
       </c>
       <c r="G78" s="19" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H78" s="19" t="s">
         <v>24</v>
@@ -3893,7 +3850,7 @@
         <v>59</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C89" s="19" t="s">
         <v>22</v>
@@ -3918,7 +3875,7 @@
         <v>59</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C90" s="19" t="s">
         <v>29</v>
@@ -3937,7 +3894,7 @@
         <v>66</v>
       </c>
       <c r="H90" s="22" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -4074,7 +4031,7 @@
         <v>dim.NominalCodes</v>
       </c>
       <c r="B98" s="19" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C98" s="19" t="s">
         <v>29</v>
@@ -4086,7 +4043,7 @@
         <v>Sales and Codes.xlsx</v>
       </c>
       <c r="G98" s="19" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H98" s="19"/>
     </row>
@@ -4096,7 +4053,7 @@
         <v>dim.NominalCodes</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C99" s="19" t="s">
         <v>29</v>
@@ -4118,7 +4075,7 @@
         <v>dim.NominalCodes</v>
       </c>
       <c r="B100" s="19" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C100" s="19" t="s">
         <v>29</v>
@@ -4130,7 +4087,7 @@
         <v>Sales and Codes.xlsx</v>
       </c>
       <c r="G100" s="19" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H100" s="19"/>
     </row>
@@ -4140,7 +4097,7 @@
         <v>dim.NominalCodes</v>
       </c>
       <c r="B101" s="19" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C101" s="19" t="s">
         <v>29</v>
@@ -4152,7 +4109,7 @@
         <v>Sales and Codes.xlsx</v>
       </c>
       <c r="G101" s="19" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H101" s="19"/>
     </row>
@@ -4162,7 +4119,7 @@
         <v>dim.NominalCodes</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C102" s="19" t="s">
         <v>29</v>
@@ -4174,7 +4131,7 @@
         <v>Sales and Codes.xlsx</v>
       </c>
       <c r="G102" s="19" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H102" s="19"/>
     </row>
@@ -4201,7 +4158,7 @@
     <row r="105" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="106" spans="1:8" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A106" s="34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B106" s="35"/>
       <c r="C106" s="35"/>
@@ -4360,7 +4317,7 @@
         <v>dim.BranchCodes</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C113" s="19" t="s">
         <v>29</v>
@@ -4394,7 +4351,7 @@
         <v>22</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E114" s="19" t="s">
         <v>64</v>
@@ -4416,13 +4373,13 @@
     <row r="116" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="117" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A117" s="34" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B117" s="35"/>
       <c r="C117" s="35"/>
       <c r="D117" s="36"/>
       <c r="E117" s="37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F117" s="38"/>
       <c r="G117" s="38"/>
@@ -4547,7 +4504,7 @@
         <v>dim.ObselenceCategory</v>
       </c>
       <c r="B123" s="19" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C123" s="19" t="s">
         <v>29</v>
@@ -4568,7 +4525,7 @@
         <v>dim.ObselenceCategory</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C124" s="10" t="s">
         <v>29</v>
@@ -4577,13 +4534,13 @@
     <row r="125" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="126" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A126" s="34" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B126" s="35"/>
       <c r="C126" s="35"/>
       <c r="D126" s="36"/>
       <c r="E126" s="37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F126" s="38"/>
       <c r="G126" s="38"/>
@@ -4708,7 +4665,7 @@
         <v>dim.CreditStatus</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C132" s="19" t="s">
         <v>29</v>
@@ -4729,7 +4686,7 @@
         <v>dim.CreditStatus</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C133" s="10" t="s">
         <v>29</v>
@@ -4742,13 +4699,13 @@
     <row r="134" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="135" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A135" s="34" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B135" s="35"/>
       <c r="C135" s="35"/>
       <c r="D135" s="36"/>
       <c r="E135" s="37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F135" s="38"/>
       <c r="G135" s="38"/>
@@ -4873,7 +4830,7 @@
         <v>dim.QueryReason</v>
       </c>
       <c r="B141" s="19" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C141" s="19" t="s">
         <v>29</v>
@@ -4894,7 +4851,7 @@
         <v>dim.QueryReason</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C142" s="19" t="s">
         <v>29</v>
@@ -4912,13 +4869,13 @@
     <row r="144" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="145" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="34" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B145" s="35"/>
       <c r="C145" s="35"/>
       <c r="D145" s="36"/>
       <c r="E145" s="37" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F145" s="38"/>
       <c r="G145" s="38"/>
@@ -4952,7 +4909,7 @@
     </row>
     <row r="147" spans="1:8" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="40" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B147" s="41"/>
       <c r="C147" s="41"/>
@@ -5045,7 +5002,7 @@
         <v>dim.DepartmentType</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C151" s="19" t="s">
         <v>29</v>
@@ -5066,7 +5023,7 @@
         <v>dim.DepartmentType</v>
       </c>
       <c r="B152" s="19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C152" s="19" t="s">
         <v>29</v>
@@ -5124,7 +5081,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="40" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B156" s="41"/>
       <c r="C156" s="41"/>
@@ -5215,7 +5172,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B160" s="19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C160" s="19" t="s">
         <v>22</v>
@@ -5229,7 +5186,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G160" s="19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H160" s="19"/>
     </row>
@@ -5239,7 +5196,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B161" s="19" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C161" s="19" t="s">
         <v>25</v>
@@ -5253,7 +5210,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G161" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H161" s="19"/>
     </row>
@@ -5263,7 +5220,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B162" s="19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C162" s="19" t="s">
         <v>25</v>
@@ -5277,7 +5234,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G162" s="19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H162" s="19"/>
     </row>
@@ -5287,7 +5244,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B163" s="19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C163" s="19" t="s">
         <v>25</v>
@@ -5301,7 +5258,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G163" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H163" s="19"/>
     </row>
@@ -5311,7 +5268,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B164" s="19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C164" s="19" t="s">
         <v>25</v>
@@ -5325,7 +5282,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G164" s="19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H164" s="19"/>
     </row>
@@ -5335,7 +5292,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B165" s="19" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C165" s="19" t="s">
         <v>25</v>
@@ -5349,7 +5306,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G165" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H165" s="19"/>
     </row>
@@ -5359,7 +5316,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B166" s="19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C166" s="19" t="s">
         <v>25</v>
@@ -5373,7 +5330,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G166" s="19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H166" s="19"/>
     </row>
@@ -5407,7 +5364,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C168" s="19" t="s">
         <v>25</v>
@@ -5421,7 +5378,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G168" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H168" s="19"/>
     </row>
@@ -5431,7 +5388,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C169" s="19" t="s">
         <v>25</v>
@@ -5445,7 +5402,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G169" s="19" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H169" s="19"/>
     </row>
@@ -5455,7 +5412,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C170" s="19" t="s">
         <v>52</v>
@@ -5469,7 +5426,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G170" s="19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="H170" s="19"/>
     </row>
@@ -5479,7 +5436,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B171" s="19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C171" s="19" t="s">
         <v>25</v>
@@ -5493,7 +5450,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G171" s="19" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H171" s="19"/>
     </row>
@@ -5503,7 +5460,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B172" s="19" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C172" s="19" t="s">
         <v>25</v>
@@ -5517,7 +5474,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G172" s="19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H172" s="19"/>
     </row>
@@ -5527,7 +5484,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B173" s="19" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C173" s="19" t="s">
         <v>25</v>
@@ -5541,7 +5498,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G173" s="19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H173" s="19"/>
     </row>
@@ -5551,7 +5508,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B174" s="19" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C174" s="19" t="s">
         <v>25</v>
@@ -5565,7 +5522,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G174" s="19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H174" s="19"/>
     </row>
@@ -5575,7 +5532,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C175" s="19" t="s">
         <v>25</v>
@@ -5589,7 +5546,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H175" s="19"/>
     </row>
@@ -5599,7 +5556,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C176" s="19" t="s">
         <v>25</v>
@@ -5613,7 +5570,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G176" s="19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H176" s="19"/>
     </row>
@@ -5623,7 +5580,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C177" s="19" t="s">
         <v>25</v>
@@ -5637,7 +5594,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G177" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H177" s="19"/>
     </row>
@@ -5647,7 +5604,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C178" s="19" t="s">
         <v>25</v>
@@ -5661,7 +5618,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G178" s="19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H178" s="19"/>
     </row>
@@ -5671,7 +5628,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C179" s="19" t="s">
         <v>25</v>
@@ -5685,7 +5642,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G179" s="19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H179" s="19"/>
     </row>
@@ -5695,7 +5652,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C180" s="19" t="s">
         <v>25</v>
@@ -5709,7 +5666,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G180" s="19" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H180" s="19"/>
     </row>
@@ -5719,7 +5676,7 @@
         <v>dim.Company</v>
       </c>
       <c r="B181" s="19" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C181" s="19" t="s">
         <v>25</v>
@@ -5733,7 +5690,7 @@
         <v>DIM_Company</v>
       </c>
       <c r="G181" s="19" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H181" s="19"/>
     </row>
@@ -5802,11 +5759,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H290"/>
+  <dimension ref="A1:H267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A214" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5837,8 +5793,8 @@
       <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>12</v>
+      <c r="A2" s="12">
+        <v>21</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>13</v>
@@ -5984,13 +5940,13 @@
         <v>fact.Budget</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
@@ -5998,7 +5954,7 @@
         <v>87</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -6021,7 +5977,7 @@
         <v>88</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>434</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -6033,7 +5989,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>30</v>
@@ -6176,7 +6132,7 @@
         <v>fact.Revenue</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>22</v>
@@ -6205,7 +6161,7 @@
         <v>22</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
@@ -6213,7 +6169,7 @@
         <v>87</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -6225,7 +6181,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
@@ -6257,13 +6213,13 @@
     <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="34" t="s">
-        <v>433</v>
+        <v>96</v>
       </c>
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="36"/>
       <c r="E30" s="37" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F30" s="38"/>
       <c r="G30" s="38"/>
@@ -6297,7 +6253,7 @@
     </row>
     <row r="32" spans="1:8" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="40" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B32" s="41"/>
       <c r="C32" s="41"/>
@@ -6310,7 +6266,7 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="str">
         <f>$A$30</f>
-        <v>fact.UtlilizationStats</v>
+        <v>fact.WorkshopStats</v>
       </c>
       <c r="B33" s="15" t="s">
         <v>21</v>
@@ -6329,7 +6285,7 @@
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="str">
         <f t="shared" ref="A34:A62" si="2">$A$30</f>
-        <v>fact.UtlilizationStats</v>
+        <v>fact.WorkshopStats</v>
       </c>
       <c r="B34" s="15" t="s">
         <v>81</v>
@@ -6346,7 +6302,7 @@
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.UtlilizationStats</v>
+        <v>fact.WorkshopStats</v>
       </c>
       <c r="B35" s="15" t="s">
         <v>82</v>
@@ -6363,7 +6319,7 @@
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.UtlilizationStats</v>
+        <v>fact.WorkshopStats</v>
       </c>
       <c r="B36" s="27" t="s">
         <v>5</v>
@@ -6372,49 +6328,49 @@
         <v>22</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.UtlilizationStats</v>
+        <v>fact.WorkshopStats</v>
       </c>
       <c r="B37" s="15" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E37" s="15"/>
       <c r="F37" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G37" s="11" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H37" s="26"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.UtlilizationStats</v>
+        <v>fact.WorkshopStats</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>86</v>
@@ -6425,17 +6381,17 @@
         <v>2</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H38" s="26"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.UtlilizationStats</v>
+        <v>fact.WorkshopStats</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>86</v>
@@ -6446,17 +6402,17 @@
         <v>2</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H39" s="26"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.UtlilizationStats</v>
+        <v>fact.WorkshopStats</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>86</v>
@@ -6467,17 +6423,17 @@
         <v>2</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H40" s="26"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.UtlilizationStats</v>
+        <v>fact.WorkshopStats</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>86</v>
@@ -6488,17 +6444,17 @@
         <v>2</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H41" s="26"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.UtlilizationStats</v>
+        <v>fact.WorkshopStats</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>86</v>
@@ -6509,17 +6465,17 @@
         <v>2</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H42" s="26"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.UtlilizationStats</v>
+        <v>fact.WorkshopStats</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>86</v>
@@ -6530,17 +6486,17 @@
         <v>2</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H43" s="26"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.UtlilizationStats</v>
+        <v>fact.WorkshopStats</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>86</v>
@@ -6551,17 +6507,17 @@
         <v>2</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H44" s="26"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.UtlilizationStats</v>
+        <v>fact.WorkshopStats</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>86</v>
@@ -6572,17 +6528,17 @@
         <v>2</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H45" s="26"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.UtlilizationStats</v>
+        <v>fact.WorkshopStats</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>86</v>
@@ -6593,17 +6549,17 @@
         <v>2</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H46" s="26"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.UtlilizationStats</v>
+        <v>fact.WorkshopStats</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>86</v>
@@ -6614,17 +6570,17 @@
         <v>2</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H47" s="26"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.UtlilizationStats</v>
+        <v>fact.WorkshopStats</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>86</v>
@@ -6635,14 +6591,14 @@
         <v>2</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H48" s="26"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.UtlilizationStats</v>
+        <v>fact.WorkshopStats</v>
       </c>
       <c r="B49" s="27" t="s">
         <v>84</v>
@@ -6656,17 +6612,17 @@
         <v>2</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H49" s="26"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.UtlilizationStats</v>
+        <v>fact.WorkshopStats</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>86</v>
@@ -6677,17 +6633,17 @@
         <v>2</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H50" s="26"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.UtlilizationStats</v>
+        <v>fact.WorkshopStats</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>86</v>
@@ -6698,17 +6654,17 @@
         <v>2</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H51" s="26"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.UtlilizationStats</v>
+        <v>fact.WorkshopStats</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>86</v>
@@ -6719,17 +6675,17 @@
         <v>2</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H52" s="26"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.UtlilizationStats</v>
+        <v>fact.WorkshopStats</v>
       </c>
       <c r="B53" s="27" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C53" s="15" t="s">
         <v>86</v>
@@ -6740,17 +6696,17 @@
         <v>2</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H53" s="26"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.UtlilizationStats</v>
+        <v>fact.WorkshopStats</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C54" s="15" t="s">
         <v>86</v>
@@ -6761,17 +6717,17 @@
         <v>2</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H54" s="26"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.UtlilizationStats</v>
+        <v>fact.WorkshopStats</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>86</v>
@@ -6782,17 +6738,17 @@
         <v>3</v>
       </c>
       <c r="G55" s="27" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H55" s="26"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.UtlilizationStats</v>
+        <v>fact.WorkshopStats</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C56" s="15" t="s">
         <v>86</v>
@@ -6803,17 +6759,17 @@
         <v>3</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H56" s="15"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.UtlilizationStats</v>
+        <v>fact.WorkshopStats</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C57" s="15" t="s">
         <v>86</v>
@@ -6824,17 +6780,17 @@
         <v>3</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H57" s="15"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.UtlilizationStats</v>
+        <v>fact.WorkshopStats</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C58" s="15" t="s">
         <v>86</v>
@@ -6845,17 +6801,17 @@
         <v>3</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H58" s="15"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.UtlilizationStats</v>
+        <v>fact.WorkshopStats</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C59" s="15" t="s">
         <v>86</v>
@@ -6866,17 +6822,17 @@
         <v>3</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H59" s="15"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.UtlilizationStats</v>
+        <v>fact.WorkshopStats</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C60" s="15" t="s">
         <v>86</v>
@@ -6887,17 +6843,17 @@
         <v>3</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H60" s="15"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.UtlilizationStats</v>
+        <v>fact.WorkshopStats</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C61" s="15" t="s">
         <v>86</v>
@@ -6908,17 +6864,17 @@
         <v>3</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H61" s="15"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>fact.UtlilizationStats</v>
+        <v>fact.WorkshopStats</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C62" s="15" t="s">
         <v>86</v>
@@ -6929,20 +6885,20 @@
         <v>3</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H62" s="15"/>
     </row>
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="34" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B64" s="35"/>
       <c r="C64" s="35"/>
       <c r="D64" s="36"/>
       <c r="E64" s="37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F64" s="38"/>
       <c r="G64" s="38"/>
@@ -6976,7 +6932,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B66" s="41"/>
       <c r="C66" s="41"/>
@@ -7051,17 +7007,17 @@
         <v>22</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E70" s="15"/>
       <c r="F70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H70" s="26" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -7073,7 +7029,7 @@
         <v>4</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D71" s="27"/>
       <c r="E71" s="15"/>
@@ -7084,7 +7040,7 @@
         <v>66</v>
       </c>
       <c r="H71" s="26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -7093,7 +7049,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C72" s="15" t="s">
         <v>86</v>
@@ -7104,7 +7060,7 @@
         <v>8</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H72" s="26"/>
     </row>
@@ -7114,7 +7070,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C73" s="15" t="s">
         <v>86</v>
@@ -7125,7 +7081,7 @@
         <v>8</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H73" s="26"/>
     </row>
@@ -7135,7 +7091,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B74" s="27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C74" s="15" t="s">
         <v>86</v>
@@ -7146,7 +7102,7 @@
         <v>8</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H74" s="26"/>
     </row>
@@ -7156,7 +7112,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B75" s="27" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C75" s="15" t="s">
         <v>86</v>
@@ -7167,7 +7123,7 @@
         <v>8</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H75" s="26"/>
     </row>
@@ -7177,7 +7133,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B76" s="27" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C76" s="15" t="s">
         <v>86</v>
@@ -7188,7 +7144,7 @@
         <v>8</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H76" s="26"/>
     </row>
@@ -7198,7 +7154,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C77" s="15" t="s">
         <v>86</v>
@@ -7209,7 +7165,7 @@
         <v>8</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H77" s="26"/>
     </row>
@@ -7219,7 +7175,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C78" s="15" t="s">
         <v>86</v>
@@ -7230,7 +7186,7 @@
         <v>8</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H78" s="26"/>
     </row>
@@ -7240,7 +7196,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C79" s="15" t="s">
         <v>86</v>
@@ -7251,7 +7207,7 @@
         <v>8</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H79" s="26"/>
     </row>
@@ -7261,7 +7217,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B80" s="27" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C80" s="15" t="s">
         <v>86</v>
@@ -7272,7 +7228,7 @@
         <v>8</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H80" s="26"/>
     </row>
@@ -7282,7 +7238,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C81" s="15" t="s">
         <v>86</v>
@@ -7293,7 +7249,7 @@
         <v>8</v>
       </c>
       <c r="G81" s="29" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H81" s="26"/>
     </row>
@@ -7303,7 +7259,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C82" s="15" t="s">
         <v>86</v>
@@ -7314,7 +7270,7 @@
         <v>8</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="H82" s="26"/>
     </row>
@@ -7335,7 +7291,7 @@
         <v>8</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H83" s="26"/>
     </row>
@@ -7345,7 +7301,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B84" s="27" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C84" s="15" t="s">
         <v>86</v>
@@ -7356,7 +7312,7 @@
         <v>8</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H84" s="26"/>
     </row>
@@ -7366,7 +7322,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C85" s="15" t="s">
         <v>86</v>
@@ -7377,7 +7333,7 @@
         <v>8</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H85" s="26"/>
     </row>
@@ -7387,7 +7343,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C86" s="15" t="s">
         <v>86</v>
@@ -7398,7 +7354,7 @@
         <v>8</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H86" s="26"/>
     </row>
@@ -7408,7 +7364,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B87" s="27" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C87" s="15" t="s">
         <v>86</v>
@@ -7419,7 +7375,7 @@
         <v>8</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H87" s="26"/>
     </row>
@@ -7429,7 +7385,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C88" s="15" t="s">
         <v>86</v>
@@ -7440,7 +7396,7 @@
         <v>8</v>
       </c>
       <c r="G88" s="15" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H88" s="26"/>
     </row>
@@ -7450,7 +7406,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B89" s="27" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C89" s="15" t="s">
         <v>86</v>
@@ -7461,7 +7417,7 @@
         <v>8</v>
       </c>
       <c r="G89" s="27" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H89" s="26"/>
     </row>
@@ -7471,7 +7427,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C90" s="15" t="s">
         <v>86</v>
@@ -7482,7 +7438,7 @@
         <v>9</v>
       </c>
       <c r="G90" s="15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H90" s="15"/>
     </row>
@@ -7492,7 +7448,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C91" s="15" t="s">
         <v>86</v>
@@ -7503,7 +7459,7 @@
         <v>9</v>
       </c>
       <c r="G91" s="15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H91" s="15"/>
     </row>
@@ -7513,7 +7469,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C92" s="15" t="s">
         <v>86</v>
@@ -7524,7 +7480,7 @@
         <v>9</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H92" s="15"/>
     </row>
@@ -7534,7 +7490,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C93" s="15" t="s">
         <v>86</v>
@@ -7545,7 +7501,7 @@
         <v>9</v>
       </c>
       <c r="G93" s="15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H93" s="15"/>
     </row>
@@ -7555,7 +7511,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C94" s="15" t="s">
         <v>86</v>
@@ -7566,7 +7522,7 @@
         <v>9</v>
       </c>
       <c r="G94" s="15" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H94" s="15"/>
     </row>
@@ -7576,7 +7532,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C95" s="15" t="s">
         <v>86</v>
@@ -7587,7 +7543,7 @@
         <v>9</v>
       </c>
       <c r="G95" s="15" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H95" s="15"/>
     </row>
@@ -7597,7 +7553,7 @@
         <v>fact.BodyshopStats</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>86</v>
@@ -7608,7 +7564,7 @@
         <v>9</v>
       </c>
       <c r="G96" s="15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H96" s="15"/>
     </row>
@@ -7625,13 +7581,13 @@
     <row r="98" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="99" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="51" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B99" s="52"/>
       <c r="C99" s="52"/>
       <c r="D99" s="53"/>
       <c r="E99" s="54" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F99" s="55"/>
       <c r="G99" s="55"/>
@@ -7665,7 +7621,7 @@
     </row>
     <row r="101" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="48" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101" s="49"/>
       <c r="C101" s="49"/>
@@ -7740,7 +7696,7 @@
         <v>22</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E105" s="15"/>
       <c r="F105" s="15" t="str">
@@ -7748,10 +7704,10 @@
         <v>DealerDevelopmentData.csv</v>
       </c>
       <c r="G105" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H105" s="26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
@@ -7763,7 +7719,7 @@
         <v>4</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D106" s="27" t="s">
         <v>30</v>
@@ -7799,13 +7755,13 @@
     <row r="110" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="111" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A111" s="51" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B111" s="52"/>
       <c r="C111" s="52"/>
       <c r="D111" s="53"/>
       <c r="E111" s="54" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F111" s="55"/>
       <c r="G111" s="55"/>
@@ -7868,7 +7824,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="15" t="str">
-        <f t="shared" ref="A115:A127" si="6">$A$111</f>
+        <f t="shared" ref="A115:A125" si="6">$A$111</f>
         <v>fact.Obsolescence</v>
       </c>
       <c r="B115" s="15" t="s">
@@ -7912,7 +7868,7 @@
         <v>22</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E117" s="15"/>
       <c r="F117" s="15" t="str">
@@ -7923,7 +7879,7 @@
         <v>69</v>
       </c>
       <c r="H117" s="26" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
@@ -7938,7 +7894,7 @@
         <v>22</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E118" s="15"/>
       <c r="F118" s="15" t="str">
@@ -7946,10 +7902,10 @@
         <v>B14.csv</v>
       </c>
       <c r="G118" s="15" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H118" s="26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
@@ -7961,7 +7917,7 @@
         <v>4</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D119" s="27"/>
       <c r="E119" s="15"/>
@@ -7978,21 +7934,21 @@
         <v>fact.Obsolescence</v>
       </c>
       <c r="B120" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C120" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D120" s="27" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E120" s="15"/>
       <c r="F120" s="15"/>
       <c r="G120" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H120" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
@@ -8001,7 +7957,7 @@
         <v>fact.Obsolescence</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C121" s="15" t="s">
         <v>86</v>
@@ -8013,7 +7969,7 @@
         <v>B14.csv</v>
       </c>
       <c r="G121" s="15" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H121" s="26"/>
     </row>
@@ -8023,7 +7979,7 @@
         <v>fact.Obsolescence</v>
       </c>
       <c r="B122" s="27" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C122" s="15" t="s">
         <v>86</v>
@@ -8035,7 +7991,7 @@
         <v>B14.csv</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H122" s="26"/>
     </row>
@@ -8045,7 +8001,7 @@
         <v>fact.Obsolescence</v>
       </c>
       <c r="B123" s="29" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C123" s="15" t="s">
         <v>86</v>
@@ -8053,11 +8009,11 @@
       <c r="D123" s="15"/>
       <c r="E123" s="15"/>
       <c r="F123" s="15" t="str">
-        <f t="shared" ref="F123:F127" si="8">$E$111</f>
+        <f t="shared" ref="F123:F125" si="8">$E$111</f>
         <v>B14.csv</v>
       </c>
       <c r="G123" s="15" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="H123" s="26"/>
     </row>
@@ -8067,7 +8023,7 @@
         <v>fact.Obsolescence</v>
       </c>
       <c r="B124" s="29" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C124" s="15" t="s">
         <v>86</v>
@@ -8079,7 +8035,7 @@
         <v>B14.csv</v>
       </c>
       <c r="G124" s="15" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H124" s="26"/>
     </row>
@@ -8089,7 +8045,7 @@
         <v>fact.Obsolescence</v>
       </c>
       <c r="B125" s="27" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C125" s="15" t="s">
         <v>86</v>
@@ -8101,122 +8057,95 @@
         <v>B14.csv</v>
       </c>
       <c r="G125" s="15" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H125" s="26"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v>fact.Obsolescence</v>
-      </c>
-      <c r="B126" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C126" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="D126" s="15"/>
-      <c r="E126" s="15"/>
-      <c r="F126" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G126" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H126" s="15" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v>fact.Obsolescence</v>
-      </c>
-      <c r="B127" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C127" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D127" s="15"/>
-      <c r="E127" s="15"/>
-      <c r="F127" s="15" t="str">
-        <f t="shared" si="8"/>
-        <v>B14.csv</v>
-      </c>
-      <c r="G127" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H127" s="15" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+      <c r="H126" s="11"/>
+    </row>
+    <row r="127" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="128" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B128" s="35"/>
+      <c r="C128" s="35"/>
+      <c r="D128" s="36"/>
+      <c r="E128" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="F128" s="38"/>
+      <c r="G128" s="38"/>
+      <c r="H128" s="39"/>
+    </row>
     <row r="129" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="B129" s="35"/>
-      <c r="C129" s="35"/>
-      <c r="D129" s="36"/>
-      <c r="E129" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="F129" s="38"/>
-      <c r="G129" s="38"/>
-      <c r="H129" s="39"/>
-    </row>
-    <row r="130" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="12" t="s">
+      <c r="A129" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B130" s="16" t="s">
+      <c r="B129" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C130" s="14" t="s">
+      <c r="C129" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D130" s="16" t="s">
+      <c r="D129" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E130" s="16" t="s">
+      <c r="E129" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F130" s="13" t="s">
+      <c r="F129" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G130" s="16" t="s">
+      <c r="G129" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H130" s="23" t="s">
+      <c r="H129" s="23" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" s="40"/>
+      <c r="B130" s="41"/>
+      <c r="C130" s="41"/>
+      <c r="D130" s="41"/>
+      <c r="E130" s="41"/>
+      <c r="F130" s="41"/>
+      <c r="G130" s="41"/>
+      <c r="H130" s="42"/>
+    </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="40"/>
-      <c r="B131" s="41"/>
-      <c r="C131" s="41"/>
-      <c r="D131" s="41"/>
-      <c r="E131" s="41"/>
-      <c r="F131" s="41"/>
-      <c r="G131" s="41"/>
-      <c r="H131" s="42"/>
+      <c r="A131" s="15" t="str">
+        <f>$A$128</f>
+        <v>fact.WarrantyOutstandingAmount</v>
+      </c>
+      <c r="B131" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C131" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D131" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="26"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="15" t="str">
-        <f>$A$129</f>
+        <f t="shared" ref="A132:A142" si="9">$A$128</f>
         <v>fact.WarrantyOutstandingAmount</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D132" s="19" t="s">
-        <v>23</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="D132" s="15"/>
       <c r="E132" s="15"/>
       <c r="F132" s="15"/>
       <c r="G132" s="15"/>
@@ -8224,11 +8153,11 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="15" t="str">
-        <f t="shared" ref="A133:A145" si="9">$A$129</f>
+        <f t="shared" si="9"/>
         <v>fact.WarrantyOutstandingAmount</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C133" s="15" t="s">
         <v>93</v>
@@ -8245,66 +8174,71 @@
         <v>fact.WarrantyOutstandingAmount</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="C134" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D134" s="15"/>
+        <v>342</v>
+      </c>
+      <c r="D134" s="15" t="s">
+        <v>385</v>
+      </c>
       <c r="E134" s="15"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="15"/>
+      <c r="F134" s="15" t="str">
+        <f>$E$128</f>
+        <v>BB0.csv</v>
+      </c>
+      <c r="G134" s="15" t="s">
+        <v>387</v>
+      </c>
       <c r="H134" s="26"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A135" s="15" t="str">
         <f t="shared" si="9"/>
         <v>fact.WarrantyOutstandingAmount</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>383</v>
+        <v>5</v>
       </c>
       <c r="C135" s="15" t="s">
-        <v>341</v>
+        <v>22</v>
       </c>
       <c r="D135" s="15" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E135" s="15"/>
       <c r="F135" s="15" t="str">
-        <f>$E$129</f>
+        <f>$E$128</f>
         <v>BB0.csv</v>
       </c>
       <c r="G135" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="H135" s="26"/>
-    </row>
-    <row r="136" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="H135" s="33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="15" t="str">
         <f t="shared" si="9"/>
         <v>fact.WarrantyOutstandingAmount</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C136" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D136" s="15" t="s">
-        <v>385</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="D136" s="15"/>
       <c r="E136" s="15"/>
       <c r="F136" s="15" t="str">
-        <f>$E$129</f>
+        <f t="shared" ref="F136:F142" si="10">$E$128</f>
         <v>BB0.csv</v>
       </c>
       <c r="G136" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="H136" s="33" t="s">
-        <v>121</v>
-      </c>
+      <c r="H136" s="15"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="15" t="str">
@@ -8312,21 +8246,23 @@
         <v>fact.WarrantyOutstandingAmount</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>4</v>
+        <v>381</v>
       </c>
       <c r="C137" s="15" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="D137" s="15"/>
       <c r="E137" s="15"/>
       <c r="F137" s="15" t="str">
-        <f t="shared" ref="F137:F145" si="10">$E$129</f>
+        <f t="shared" si="10"/>
         <v>BB0.csv</v>
       </c>
       <c r="G137" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="H137" s="15"/>
+      <c r="H137" s="15" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="15" t="str">
@@ -8334,7 +8270,7 @@
         <v>fact.WarrantyOutstandingAmount</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C138" s="15" t="s">
         <v>86</v>
@@ -8348,9 +8284,7 @@
       <c r="G138" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="H138" s="15" t="s">
-        <v>382</v>
-      </c>
+      <c r="H138" s="15"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="15" t="str">
@@ -8358,10 +8292,10 @@
         <v>fact.WarrantyOutstandingAmount</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>381</v>
+        <v>123</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="D139" s="15"/>
       <c r="E139" s="15"/>
@@ -8370,7 +8304,7 @@
         <v>BB0.csv</v>
       </c>
       <c r="G139" s="15" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="H139" s="15"/>
     </row>
@@ -8380,7 +8314,7 @@
         <v>fact.WarrantyOutstandingAmount</v>
       </c>
       <c r="B140" s="15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C140" s="15" t="s">
         <v>4</v>
@@ -8392,7 +8326,7 @@
         <v>BB0.csv</v>
       </c>
       <c r="G140" s="15" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H140" s="15"/>
     </row>
@@ -8402,10 +8336,10 @@
         <v>fact.WarrantyOutstandingAmount</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="C141" s="15" t="s">
-        <v>4</v>
+        <v>342</v>
       </c>
       <c r="D141" s="15"/>
       <c r="E141" s="15"/>
@@ -8414,7 +8348,7 @@
         <v>BB0.csv</v>
       </c>
       <c r="G141" s="15" t="s">
-        <v>123</v>
+        <v>172</v>
       </c>
       <c r="H141" s="15"/>
     </row>
@@ -8424,10 +8358,10 @@
         <v>fact.WarrantyOutstandingAmount</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>171</v>
+        <v>391</v>
       </c>
       <c r="C142" s="15" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D142" s="15"/>
       <c r="E142" s="15"/>
@@ -8436,183 +8370,186 @@
         <v>BB0.csv</v>
       </c>
       <c r="G142" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="H142" s="15"/>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A143" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v>fact.WarrantyOutstandingAmount</v>
-      </c>
-      <c r="B143" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="C143" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="D143" s="15"/>
-      <c r="E143" s="15"/>
-      <c r="F143" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v>BB0.csv</v>
-      </c>
-      <c r="G143" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="H143" s="15" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A144" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v>fact.WarrantyOutstandingAmount</v>
-      </c>
-      <c r="B144" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C144" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="D144" s="15"/>
-      <c r="E144" s="15"/>
-      <c r="F144" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G144" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H144" s="15" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="15" t="str">
-        <f t="shared" si="9"/>
-        <v>fact.WarrantyOutstandingAmount</v>
-      </c>
-      <c r="B145" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C145" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D145" s="15"/>
-      <c r="E145" s="15"/>
-      <c r="F145" s="15" t="str">
-        <f t="shared" si="10"/>
-        <v>BB0.csv</v>
-      </c>
-      <c r="G145" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H145" s="15" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="147" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="34" t="s">
-        <v>124</v>
-      </c>
-      <c r="B147" s="35"/>
-      <c r="C147" s="35"/>
-      <c r="D147" s="36"/>
-      <c r="E147" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="F147" s="38"/>
-      <c r="G147" s="38"/>
-      <c r="H147" s="39"/>
-    </row>
-    <row r="148" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="12" t="s">
+      <c r="H142" s="15" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="144" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B144" s="35"/>
+      <c r="C144" s="35"/>
+      <c r="D144" s="36"/>
+      <c r="E144" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="F144" s="38"/>
+      <c r="G144" s="38"/>
+      <c r="H144" s="39"/>
+    </row>
+    <row r="145" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B148" s="16" t="s">
+      <c r="B145" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C148" s="14" t="s">
+      <c r="C145" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D148" s="16" t="s">
+      <c r="D145" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E148" s="16" t="s">
+      <c r="E145" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F148" s="13" t="s">
+      <c r="F145" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G148" s="16" t="s">
+      <c r="G145" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="H148" s="23" t="s">
+      <c r="H145" s="23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="40"/>
-      <c r="B149" s="41"/>
-      <c r="C149" s="41"/>
-      <c r="D149" s="41"/>
-      <c r="E149" s="41"/>
-      <c r="F149" s="41"/>
-      <c r="G149" s="41"/>
-      <c r="H149" s="42"/>
+    <row r="146" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="40"/>
+      <c r="B146" s="41"/>
+      <c r="C146" s="41"/>
+      <c r="D146" s="41"/>
+      <c r="E146" s="41"/>
+      <c r="F146" s="41"/>
+      <c r="G146" s="41"/>
+      <c r="H146" s="42"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" s="15" t="str">
+        <f t="shared" ref="A147:A159" si="11">$A$144</f>
+        <v>fact.CashSaleOutstandingAmount</v>
+      </c>
+      <c r="B147" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C147" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D147" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E147" s="15"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="15"/>
+      <c r="H147" s="26"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v>fact.CashSaleOutstandingAmount</v>
+      </c>
+      <c r="B148" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C148" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D148" s="15"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="15"/>
+      <c r="H148" s="26"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" s="15" t="str">
+        <f t="shared" si="11"/>
+        <v>fact.CashSaleOutstandingAmount</v>
+      </c>
+      <c r="B149" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C149" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D149" s="15"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="15"/>
+      <c r="H149" s="26"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="15" t="str">
-        <f t="shared" ref="A150:A164" si="11">$A$147</f>
+        <f t="shared" si="11"/>
         <v>fact.CashSaleOutstandingAmount</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>21</v>
+        <v>384</v>
       </c>
       <c r="C150" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D150" s="19" t="s">
-        <v>23</v>
+        <v>342</v>
+      </c>
+      <c r="D150" s="15" t="s">
+        <v>385</v>
       </c>
       <c r="E150" s="15"/>
-      <c r="F150" s="15"/>
-      <c r="G150" s="15"/>
+      <c r="F150" s="15" t="str">
+        <f>$E$144</f>
+        <v>BAS.csv</v>
+      </c>
+      <c r="G150" s="15" t="s">
+        <v>387</v>
+      </c>
       <c r="H150" s="26"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A151" s="15" t="str">
         <f t="shared" si="11"/>
         <v>fact.CashSaleOutstandingAmount</v>
       </c>
-      <c r="B151" s="15" t="s">
-        <v>81</v>
+      <c r="B151" s="27" t="s">
+        <v>5</v>
       </c>
       <c r="C151" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D151" s="15"/>
+        <v>22</v>
+      </c>
+      <c r="D151" s="15" t="s">
+        <v>102</v>
+      </c>
       <c r="E151" s="15"/>
-      <c r="F151" s="15"/>
-      <c r="G151" s="15"/>
-      <c r="H151" s="26"/>
+      <c r="F151" s="15" t="str">
+        <f>$E$144</f>
+        <v>BAS.csv</v>
+      </c>
+      <c r="G151" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H151" s="26" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="15" t="str">
         <f t="shared" si="11"/>
         <v>fact.CashSaleOutstandingAmount</v>
       </c>
-      <c r="B152" s="15" t="s">
-        <v>82</v>
+      <c r="B152" s="27" t="s">
+        <v>4</v>
       </c>
       <c r="C152" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D152" s="15"/>
+        <v>150</v>
+      </c>
+      <c r="D152" s="27"/>
       <c r="E152" s="15"/>
-      <c r="F152" s="15"/>
-      <c r="G152" s="15"/>
+      <c r="F152" s="15" t="str">
+        <f t="shared" ref="F152:F157" si="12">$E$144</f>
+        <v>BAS.csv</v>
+      </c>
+      <c r="G152" s="15" t="s">
+        <v>66</v>
+      </c>
       <c r="H152" s="26"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
@@ -8621,71 +8558,65 @@
         <v>fact.CashSaleOutstandingAmount</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C153" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="D153" s="15" t="s">
-        <v>384</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D153" s="15"/>
       <c r="E153" s="15"/>
       <c r="F153" s="15" t="str">
-        <f>$E$147</f>
+        <f t="shared" si="12"/>
         <v>BAS.csv</v>
       </c>
       <c r="G153" s="15" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="H153" s="26"/>
     </row>
-    <row r="154" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="15" t="str">
         <f t="shared" si="11"/>
         <v>fact.CashSaleOutstandingAmount</v>
       </c>
-      <c r="B154" s="27" t="s">
-        <v>5</v>
+      <c r="B154" s="15" t="s">
+        <v>382</v>
       </c>
       <c r="C154" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D154" s="15" t="s">
-        <v>101</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D154" s="15"/>
       <c r="E154" s="15"/>
       <c r="F154" s="15" t="str">
-        <f>$E$147</f>
+        <f t="shared" si="12"/>
         <v>BAS.csv</v>
       </c>
       <c r="G154" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H154" s="26" t="s">
-        <v>121</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="H154" s="15"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="15" t="str">
         <f t="shared" si="11"/>
         <v>fact.CashSaleOutstandingAmount</v>
       </c>
-      <c r="B155" s="27" t="s">
-        <v>4</v>
+      <c r="B155" s="15" t="s">
+        <v>172</v>
       </c>
       <c r="C155" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D155" s="27"/>
+        <v>342</v>
+      </c>
+      <c r="D155" s="15"/>
       <c r="E155" s="15"/>
       <c r="F155" s="15" t="str">
-        <f t="shared" ref="F155:F160" si="12">$E$147</f>
+        <f t="shared" si="12"/>
         <v>BAS.csv</v>
       </c>
       <c r="G155" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H155" s="26"/>
+        <v>172</v>
+      </c>
+      <c r="H155" s="15"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="15" t="str">
@@ -8693,10 +8624,10 @@
         <v>fact.CashSaleOutstandingAmount</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="C156" s="15" t="s">
-        <v>86</v>
+        <v>342</v>
       </c>
       <c r="D156" s="15"/>
       <c r="E156" s="15"/>
@@ -8705,20 +8636,20 @@
         <v>BAS.csv</v>
       </c>
       <c r="G156" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="H156" s="26"/>
+        <v>390</v>
+      </c>
+      <c r="H156" s="15"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="15" t="str">
         <f t="shared" si="11"/>
         <v>fact.CashSaleOutstandingAmount</v>
       </c>
-      <c r="B157" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="C157" s="15" t="s">
-        <v>86</v>
+      <c r="B157" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C157" s="29" t="s">
+        <v>4</v>
       </c>
       <c r="D157" s="15"/>
       <c r="E157" s="15"/>
@@ -8727,31 +8658,31 @@
         <v>BAS.csv</v>
       </c>
       <c r="G157" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="H157" s="15"/>
+        <v>123</v>
+      </c>
+      <c r="H157" s="26"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="15" t="str">
         <f t="shared" si="11"/>
         <v>fact.CashSaleOutstandingAmount</v>
       </c>
-      <c r="B158" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C158" s="15" t="s">
-        <v>341</v>
+      <c r="B158" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C158" s="29" t="s">
+        <v>4</v>
       </c>
       <c r="D158" s="15"/>
       <c r="E158" s="15"/>
       <c r="F158" s="15" t="str">
-        <f t="shared" si="12"/>
+        <f>$E$144</f>
         <v>BAS.csv</v>
       </c>
       <c r="G158" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="H158" s="15"/>
+        <v>124</v>
+      </c>
+      <c r="H158" s="26"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="15" t="str">
@@ -8759,223 +8690,223 @@
         <v>fact.CashSaleOutstandingAmount</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C159" s="15" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D159" s="15"/>
       <c r="E159" s="15"/>
       <c r="F159" s="15" t="str">
-        <f t="shared" si="12"/>
+        <f>$E$144</f>
         <v>BAS.csv</v>
       </c>
       <c r="G159" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="H159" s="15"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A160" s="15" t="str">
-        <f t="shared" si="11"/>
-        <v>fact.CashSaleOutstandingAmount</v>
-      </c>
-      <c r="B160" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="C160" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D160" s="15"/>
-      <c r="E160" s="15"/>
-      <c r="F160" s="15" t="str">
-        <f t="shared" si="12"/>
-        <v>BAS.csv</v>
-      </c>
-      <c r="G160" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="H160" s="26"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A161" s="15" t="str">
-        <f t="shared" si="11"/>
-        <v>fact.CashSaleOutstandingAmount</v>
-      </c>
-      <c r="B161" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="C161" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D161" s="15"/>
-      <c r="E161" s="15"/>
-      <c r="F161" s="15" t="str">
-        <f>$E$147</f>
-        <v>BAS.csv</v>
-      </c>
-      <c r="G161" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="H161" s="26"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A162" s="15" t="str">
-        <f t="shared" si="11"/>
-        <v>fact.CashSaleOutstandingAmount</v>
-      </c>
-      <c r="B162" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="C162" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="D162" s="15"/>
-      <c r="E162" s="15"/>
-      <c r="F162" s="15" t="str">
-        <f>$E$147</f>
-        <v>BAS.csv</v>
-      </c>
-      <c r="G162" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="H162" s="15" t="s">
         <v>392</v>
       </c>
+      <c r="H159" s="15" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="161" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="34" t="s">
+        <v>419</v>
+      </c>
+      <c r="B161" s="35"/>
+      <c r="C161" s="35"/>
+      <c r="D161" s="36"/>
+      <c r="E161" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="F161" s="38"/>
+      <c r="G161" s="38"/>
+      <c r="H161" s="39"/>
+    </row>
+    <row r="162" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B162" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E162" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F162" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G162" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H162" s="23" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A163" s="15" t="str">
-        <f t="shared" si="11"/>
-        <v>fact.CashSaleOutstandingAmount</v>
-      </c>
-      <c r="B163" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C163" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="D163" s="15"/>
-      <c r="E163" s="15"/>
-      <c r="F163" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G163" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H163" s="15" t="s">
-        <v>401</v>
-      </c>
+      <c r="A163" s="40" t="s">
+        <v>411</v>
+      </c>
+      <c r="B163" s="41"/>
+      <c r="C163" s="41"/>
+      <c r="D163" s="41"/>
+      <c r="E163" s="41"/>
+      <c r="F163" s="41"/>
+      <c r="G163" s="41"/>
+      <c r="H163" s="42"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="15" t="str">
-        <f t="shared" si="11"/>
-        <v>fact.CashSaleOutstandingAmount</v>
+        <f>$A$161</f>
+        <v>fact.OutstandingCredit</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>400</v>
+        <v>21</v>
       </c>
       <c r="C164" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D164" s="15"/>
+        <v>22</v>
+      </c>
+      <c r="D164" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="E164" s="15"/>
-      <c r="F164" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="G164" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H164" s="15" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="166" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="34" t="s">
-        <v>418</v>
-      </c>
-      <c r="B166" s="35"/>
-      <c r="C166" s="35"/>
-      <c r="D166" s="36"/>
-      <c r="E166" s="37" t="s">
+      <c r="F164" s="15"/>
+      <c r="G164" s="15"/>
+      <c r="H164" s="15"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165" s="15" t="str">
+        <f t="shared" ref="A165:A179" si="13">$A$161</f>
+        <v>fact.OutstandingCredit</v>
+      </c>
+      <c r="B165" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C165" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D165" s="15"/>
+      <c r="E165" s="15"/>
+      <c r="F165" s="15"/>
+      <c r="G165" s="15"/>
+      <c r="H165" s="15"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166" s="15" t="str">
+        <f t="shared" si="13"/>
+        <v>fact.OutstandingCredit</v>
+      </c>
+      <c r="B166" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C166" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D166" s="15"/>
+      <c r="E166" s="15"/>
+      <c r="F166" s="15"/>
+      <c r="G166" s="15"/>
+      <c r="H166" s="15"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" s="15" t="str">
+        <f t="shared" si="13"/>
+        <v>fact.OutstandingCredit</v>
+      </c>
+      <c r="B167" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D167" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E167" s="15"/>
+      <c r="F167" s="15" t="str">
+        <f>$E$161</f>
+        <v>BR4.csv</v>
+      </c>
+      <c r="G167" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H167" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="F166" s="38"/>
-      <c r="G166" s="38"/>
-      <c r="H166" s="39"/>
-    </row>
-    <row r="167" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B167" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C167" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D167" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E167" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F167" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G167" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H167" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A168" s="40" t="s">
-        <v>410</v>
-      </c>
-      <c r="B168" s="41"/>
-      <c r="C168" s="41"/>
-      <c r="D168" s="41"/>
-      <c r="E168" s="41"/>
-      <c r="F168" s="41"/>
-      <c r="G168" s="41"/>
-      <c r="H168" s="42"/>
+      <c r="B168" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C168" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D168" s="15"/>
+      <c r="E168" s="15"/>
+      <c r="F168" s="15" t="str">
+        <f>$E$161</f>
+        <v>BR4.csv</v>
+      </c>
+      <c r="G168" s="15"/>
+      <c r="H168" s="15"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="15" t="str">
-        <f>$A$166</f>
+        <f t="shared" si="13"/>
         <v>fact.OutstandingCredit</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C169" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D169" s="15" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="E169" s="15"/>
-      <c r="F169" s="15"/>
-      <c r="G169" s="15"/>
-      <c r="H169" s="15"/>
+      <c r="F169" s="15" t="str">
+        <f>$E$111</f>
+        <v>B14.csv</v>
+      </c>
+      <c r="G169" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H169" s="15" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="15" t="str">
-        <f t="shared" ref="A170:A186" si="13">$A$166</f>
+        <f t="shared" si="13"/>
         <v>fact.OutstandingCredit</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="C170" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D170" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="D170" s="15" t="s">
+        <v>144</v>
+      </c>
       <c r="E170" s="15"/>
-      <c r="F170" s="15"/>
-      <c r="G170" s="15"/>
+      <c r="F170" s="15" t="str">
+        <f t="shared" ref="F170:F179" si="14">$E$161</f>
+        <v>BR4.csv</v>
+      </c>
+      <c r="G170" s="15" t="s">
+        <v>130</v>
+      </c>
       <c r="H170" s="15"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
@@ -8984,15 +8915,20 @@
         <v>fact.OutstandingCredit</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="C171" s="15" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="D171" s="15"/>
       <c r="E171" s="15"/>
-      <c r="F171" s="15"/>
-      <c r="G171" s="15"/>
+      <c r="F171" s="15" t="str">
+        <f t="shared" si="14"/>
+        <v>BR4.csv</v>
+      </c>
+      <c r="G171" s="15" t="s">
+        <v>140</v>
+      </c>
       <c r="H171" s="15"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
@@ -9001,43 +8937,42 @@
         <v>fact.OutstandingCredit</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>5</v>
+        <v>139</v>
       </c>
       <c r="C172" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D172" s="15" t="s">
-        <v>101</v>
-      </c>
+      <c r="D172" s="15"/>
       <c r="E172" s="15"/>
       <c r="F172" s="15" t="str">
-        <f>$E$166</f>
+        <f t="shared" si="14"/>
         <v>BR4.csv</v>
       </c>
       <c r="G172" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H172" s="15" t="s">
-        <v>104</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="H172" s="15"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A173" s="15" t="s">
-        <v>127</v>
+      <c r="A173" s="15" t="str">
+        <f t="shared" si="13"/>
+        <v>fact.OutstandingCredit</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="C173" s="15" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="D173" s="15"/>
       <c r="E173" s="15"/>
       <c r="F173" s="15" t="str">
-        <f>$E$166</f>
+        <f t="shared" si="14"/>
         <v>BR4.csv</v>
       </c>
-      <c r="G173" s="15"/>
+      <c r="G173" s="15" t="s">
+        <v>132</v>
+      </c>
       <c r="H173" s="15"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
@@ -9046,25 +8981,21 @@
         <v>fact.OutstandingCredit</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="C174" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D174" s="15" t="s">
-        <v>109</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D174" s="15"/>
       <c r="E174" s="15"/>
       <c r="F174" s="15" t="str">
-        <f>$E$111</f>
-        <v>B14.csv</v>
+        <f t="shared" si="14"/>
+        <v>BR4.csv</v>
       </c>
       <c r="G174" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="H174" s="15" t="s">
-        <v>111</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="H174" s="15"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="15" t="str">
@@ -9072,21 +9003,19 @@
         <v>fact.OutstandingCredit</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C175" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D175" s="15" t="s">
-        <v>143</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D175" s="15"/>
       <c r="E175" s="15"/>
       <c r="F175" s="15" t="str">
-        <f t="shared" ref="F175:F186" si="14">$E$166</f>
+        <f t="shared" si="14"/>
         <v>BR4.csv</v>
       </c>
       <c r="G175" s="15" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="H175" s="15"/>
     </row>
@@ -9096,11 +9025,9 @@
         <v>fact.OutstandingCredit</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C176" s="15" t="s">
-        <v>29</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C176" s="15"/>
       <c r="D176" s="15"/>
       <c r="E176" s="15"/>
       <c r="F176" s="15" t="str">
@@ -9108,7 +9035,7 @@
         <v>BR4.csv</v>
       </c>
       <c r="G176" s="15" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H176" s="15"/>
     </row>
@@ -9118,11 +9045,9 @@
         <v>fact.OutstandingCredit</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C177" s="15" t="s">
-        <v>22</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C177" s="15"/>
       <c r="D177" s="15"/>
       <c r="E177" s="15"/>
       <c r="F177" s="15" t="str">
@@ -9130,7 +9055,7 @@
         <v>BR4.csv</v>
       </c>
       <c r="G177" s="15" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H177" s="15"/>
     </row>
@@ -9140,11 +9065,9 @@
         <v>fact.OutstandingCredit</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C178" s="15" t="s">
-        <v>86</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C178" s="15"/>
       <c r="D178" s="15"/>
       <c r="E178" s="15"/>
       <c r="F178" s="15" t="str">
@@ -9152,7 +9075,7 @@
         <v>BR4.csv</v>
       </c>
       <c r="G178" s="15" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="H178" s="15"/>
     </row>
@@ -9162,11 +9085,9 @@
         <v>fact.OutstandingCredit</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C179" s="15" t="s">
-        <v>86</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="C179" s="15"/>
       <c r="D179" s="15"/>
       <c r="E179" s="15"/>
       <c r="F179" s="15" t="str">
@@ -9174,246 +9095,220 @@
         <v>BR4.csv</v>
       </c>
       <c r="G179" s="15" t="s">
-        <v>132</v>
+        <v>410</v>
       </c>
       <c r="H179" s="15"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A180" s="15" t="str">
-        <f t="shared" si="13"/>
-        <v>fact.OutstandingCredit</v>
-      </c>
-      <c r="B180" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C180" s="15" t="s">
-        <v>86</v>
-      </c>
+      <c r="A180" s="15"/>
+      <c r="B180" s="15"/>
+      <c r="C180" s="15"/>
       <c r="D180" s="15"/>
       <c r="E180" s="15"/>
-      <c r="F180" s="15" t="str">
-        <f t="shared" si="14"/>
-        <v>BR4.csv</v>
-      </c>
-      <c r="G180" s="15" t="s">
-        <v>133</v>
-      </c>
+      <c r="F180" s="15"/>
+      <c r="G180" s="15"/>
       <c r="H180" s="15"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A181" s="15" t="str">
-        <f t="shared" si="13"/>
-        <v>fact.OutstandingCredit</v>
-      </c>
-      <c r="B181" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="C181" s="15"/>
-      <c r="D181" s="15"/>
-      <c r="E181" s="15"/>
-      <c r="F181" s="15" t="str">
-        <f t="shared" si="14"/>
-        <v>BR4.csv</v>
-      </c>
-      <c r="G181" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="H181" s="15"/>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A182" s="15" t="str">
-        <f t="shared" si="13"/>
-        <v>fact.OutstandingCredit</v>
-      </c>
-      <c r="B182" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="C182" s="15"/>
-      <c r="D182" s="15"/>
-      <c r="E182" s="15"/>
-      <c r="F182" s="15" t="str">
-        <f t="shared" si="14"/>
-        <v>BR4.csv</v>
-      </c>
-      <c r="G182" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="H182" s="15"/>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A183" s="15" t="str">
-        <f t="shared" si="13"/>
-        <v>fact.OutstandingCredit</v>
-      </c>
-      <c r="B183" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C183" s="15"/>
-      <c r="D183" s="15"/>
-      <c r="E183" s="15"/>
-      <c r="F183" s="15" t="str">
-        <f t="shared" si="14"/>
-        <v>BR4.csv</v>
-      </c>
-      <c r="G183" s="15" t="s">
-        <v>142</v>
-      </c>
-      <c r="H183" s="15"/>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A184" s="15" t="str">
-        <f t="shared" si="13"/>
-        <v>fact.OutstandingCredit</v>
-      </c>
-      <c r="B184" s="15" t="s">
+    <row r="182" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="183" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A183" s="34" t="s">
         <v>409</v>
       </c>
-      <c r="C184" s="15"/>
-      <c r="D184" s="15"/>
-      <c r="E184" s="15"/>
-      <c r="F184" s="15" t="str">
-        <f t="shared" si="14"/>
-        <v>BR4.csv</v>
-      </c>
-      <c r="G184" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="H184" s="15"/>
+      <c r="B183" s="35"/>
+      <c r="C183" s="35"/>
+      <c r="D183" s="36"/>
+      <c r="E183" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="F183" s="38"/>
+      <c r="G183" s="38"/>
+      <c r="H183" s="39"/>
+    </row>
+    <row r="184" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A184" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B184" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D184" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E184" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F184" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G184" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H184" s="23" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A185" s="15" t="str">
-        <f t="shared" si="13"/>
-        <v>fact.OutstandingCredit</v>
-      </c>
-      <c r="B185" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C185" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="D185" s="15"/>
-      <c r="E185" s="15"/>
-      <c r="F185" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G185" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H185" s="15" t="s">
-        <v>401</v>
-      </c>
+      <c r="A185" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="B185" s="41"/>
+      <c r="C185" s="41"/>
+      <c r="D185" s="41"/>
+      <c r="E185" s="41"/>
+      <c r="F185" s="41"/>
+      <c r="G185" s="41"/>
+      <c r="H185" s="42"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="15" t="str">
-        <f t="shared" si="13"/>
-        <v>fact.OutstandingCredit</v>
+        <f>A$183</f>
+        <v>fact.PartsOutstandingPayment</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>400</v>
+        <v>21</v>
       </c>
       <c r="C186" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D186" s="15"/>
+        <v>22</v>
+      </c>
+      <c r="D186" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="E186" s="15"/>
-      <c r="F186" s="15" t="str">
-        <f t="shared" si="14"/>
-        <v>BR4.csv</v>
-      </c>
-      <c r="G186" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H186" s="15" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="188" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="34" t="s">
-        <v>408</v>
-      </c>
-      <c r="B188" s="35"/>
-      <c r="C188" s="35"/>
-      <c r="D188" s="36"/>
-      <c r="E188" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="F188" s="38"/>
-      <c r="G188" s="38"/>
-      <c r="H188" s="39"/>
-    </row>
-    <row r="189" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A189" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B189" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C189" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D189" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E189" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F189" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G189" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H189" s="23" t="s">
-        <v>14</v>
+      <c r="F186" s="15"/>
+      <c r="G186" s="15"/>
+      <c r="H186" s="15"/>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A187" s="15" t="str">
+        <f t="shared" ref="A187:A202" si="15">A$183</f>
+        <v>fact.PartsOutstandingPayment</v>
+      </c>
+      <c r="B187" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C187" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D187" s="15"/>
+      <c r="E187" s="15"/>
+      <c r="F187" s="15"/>
+      <c r="G187" s="15"/>
+      <c r="H187" s="15"/>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A188" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v>fact.PartsOutstandingPayment</v>
+      </c>
+      <c r="B188" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C188" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D188" s="15"/>
+      <c r="E188" s="15"/>
+      <c r="F188" s="15"/>
+      <c r="G188" s="15"/>
+      <c r="H188" s="15"/>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A189" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v>fact.PartsOutstandingPayment</v>
+      </c>
+      <c r="B189" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D189" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E189" s="15"/>
+      <c r="F189" s="15" t="str">
+        <f>$E$183</f>
+        <v>BB4.csv</v>
+      </c>
+      <c r="G189" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H189" s="15" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A190" s="40" t="s">
-        <v>405</v>
-      </c>
-      <c r="B190" s="41"/>
-      <c r="C190" s="41"/>
-      <c r="D190" s="41"/>
-      <c r="E190" s="41"/>
-      <c r="F190" s="41"/>
-      <c r="G190" s="41"/>
-      <c r="H190" s="42"/>
+      <c r="A190" s="15" t="str">
+        <f t="shared" si="15"/>
+        <v>fact.PartsOutstandingPayment</v>
+      </c>
+      <c r="B190" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C190" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D190" s="15"/>
+      <c r="E190" s="15"/>
+      <c r="F190" s="15" t="str">
+        <f t="shared" ref="F190:F202" si="16">$E$183</f>
+        <v>BB4.csv</v>
+      </c>
+      <c r="G190" s="15"/>
+      <c r="H190" s="15"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="15" t="str">
-        <f>A$188</f>
+        <f t="shared" si="15"/>
         <v>fact.PartsOutstandingPayment</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C191" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D191" s="15" t="s">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="E191" s="15"/>
-      <c r="F191" s="15"/>
-      <c r="G191" s="15"/>
-      <c r="H191" s="15"/>
+      <c r="F191" s="15" t="str">
+        <f t="shared" si="16"/>
+        <v>BB4.csv</v>
+      </c>
+      <c r="G191" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H191" s="15" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="15" t="str">
-        <f t="shared" ref="A192:A209" si="15">A$188</f>
+        <f t="shared" si="15"/>
         <v>fact.PartsOutstandingPayment</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>81</v>
+        <v>130</v>
       </c>
       <c r="C192" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D192" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="D192" s="15" t="s">
+        <v>144</v>
+      </c>
       <c r="E192" s="15"/>
-      <c r="F192" s="15"/>
-      <c r="G192" s="15"/>
+      <c r="F192" s="15" t="str">
+        <f t="shared" si="16"/>
+        <v>BB4.csv</v>
+      </c>
+      <c r="G192" s="15" t="s">
+        <v>130</v>
+      </c>
       <c r="H192" s="15"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
@@ -9422,15 +9317,20 @@
         <v>fact.PartsOutstandingPayment</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="C193" s="15" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="D193" s="15"/>
       <c r="E193" s="15"/>
-      <c r="F193" s="15"/>
-      <c r="G193" s="15"/>
+      <c r="F193" s="15" t="str">
+        <f t="shared" si="16"/>
+        <v>BB4.csv</v>
+      </c>
+      <c r="G193" s="15" t="s">
+        <v>140</v>
+      </c>
       <c r="H193" s="15"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
@@ -9439,25 +9339,21 @@
         <v>fact.PartsOutstandingPayment</v>
       </c>
       <c r="B194" s="15" t="s">
-        <v>5</v>
+        <v>151</v>
       </c>
       <c r="C194" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D194" s="15" t="s">
-        <v>101</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="D194" s="15"/>
       <c r="E194" s="15"/>
       <c r="F194" s="15" t="str">
-        <f>$E$188</f>
+        <f t="shared" si="16"/>
         <v>BB4.csv</v>
       </c>
       <c r="G194" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H194" s="15" t="s">
-        <v>104</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="H194" s="15"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="15" t="str">
@@ -9465,18 +9361,20 @@
         <v>fact.PartsOutstandingPayment</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
       <c r="C195" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D195" s="15"/>
       <c r="E195" s="15"/>
       <c r="F195" s="15" t="str">
-        <f t="shared" ref="F195:F207" si="16">$E$188</f>
+        <f t="shared" si="16"/>
         <v>BB4.csv</v>
       </c>
-      <c r="G195" s="15"/>
+      <c r="G195" s="15" t="s">
+        <v>132</v>
+      </c>
       <c r="H195" s="15"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
@@ -9485,25 +9383,21 @@
         <v>fact.PartsOutstandingPayment</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="C196" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D196" s="15" t="s">
-        <v>109</v>
-      </c>
+      <c r="D196" s="15"/>
       <c r="E196" s="15"/>
       <c r="F196" s="15" t="str">
         <f t="shared" si="16"/>
         <v>BB4.csv</v>
       </c>
       <c r="G196" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="H196" s="15" t="s">
-        <v>111</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="H196" s="15"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="15" t="str">
@@ -9511,21 +9405,19 @@
         <v>fact.PartsOutstandingPayment</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C197" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D197" s="15" t="s">
-        <v>143</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D197" s="15"/>
       <c r="E197" s="15"/>
       <c r="F197" s="15" t="str">
         <f t="shared" si="16"/>
         <v>BB4.csv</v>
       </c>
       <c r="G197" s="15" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H197" s="15"/>
     </row>
@@ -9535,10 +9427,10 @@
         <v>fact.PartsOutstandingPayment</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C198" s="15" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="D198" s="15"/>
       <c r="E198" s="15"/>
@@ -9547,7 +9439,7 @@
         <v>BB4.csv</v>
       </c>
       <c r="G198" s="15" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H198" s="15"/>
     </row>
@@ -9557,10 +9449,10 @@
         <v>fact.PartsOutstandingPayment</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C199" s="15" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="D199" s="15"/>
       <c r="E199" s="15"/>
@@ -9569,7 +9461,7 @@
         <v>BB4.csv</v>
       </c>
       <c r="G199" s="15" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H199" s="15"/>
     </row>
@@ -9579,11 +9471,9 @@
         <v>fact.PartsOutstandingPayment</v>
       </c>
       <c r="B200" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C200" s="15" t="s">
-        <v>149</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C200" s="15"/>
       <c r="D200" s="15"/>
       <c r="E200" s="15"/>
       <c r="F200" s="15" t="str">
@@ -9591,7 +9481,7 @@
         <v>BB4.csv</v>
       </c>
       <c r="G200" s="15" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H200" s="15"/>
     </row>
@@ -9601,11 +9491,9 @@
         <v>fact.PartsOutstandingPayment</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="C201" s="15" t="s">
-        <v>22</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C201" s="15"/>
       <c r="D201" s="15"/>
       <c r="E201" s="15"/>
       <c r="F201" s="15" t="str">
@@ -9613,7 +9501,7 @@
         <v>BB4.csv</v>
       </c>
       <c r="G201" s="15" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H201" s="15"/>
     </row>
@@ -9623,11 +9511,9 @@
         <v>fact.PartsOutstandingPayment</v>
       </c>
       <c r="B202" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="C202" s="15" t="s">
-        <v>86</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="C202" s="15"/>
       <c r="D202" s="15"/>
       <c r="E202" s="15"/>
       <c r="F202" s="15" t="str">
@@ -9635,364 +9521,347 @@
         <v>BB4.csv</v>
       </c>
       <c r="G202" s="15" t="s">
-        <v>131</v>
+        <v>415</v>
       </c>
       <c r="H202" s="15"/>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A203" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v>fact.PartsOutstandingPayment</v>
-      </c>
-      <c r="B203" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C203" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D203" s="15"/>
-      <c r="E203" s="15"/>
-      <c r="F203" s="15" t="str">
-        <f t="shared" si="16"/>
-        <v>BB4.csv</v>
-      </c>
-      <c r="G203" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="H203" s="15"/>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A204" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v>fact.PartsOutstandingPayment</v>
-      </c>
-      <c r="B204" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="C204" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D204" s="15"/>
-      <c r="E204" s="15"/>
-      <c r="F204" s="15" t="str">
-        <f t="shared" si="16"/>
-        <v>BB4.csv</v>
-      </c>
-      <c r="G204" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="H204" s="15"/>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A205" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v>fact.PartsOutstandingPayment</v>
-      </c>
-      <c r="B205" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C205" s="15"/>
-      <c r="D205" s="15"/>
-      <c r="E205" s="15"/>
-      <c r="F205" s="15" t="str">
-        <f t="shared" si="16"/>
-        <v>BB4.csv</v>
-      </c>
-      <c r="G205" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="H205" s="15"/>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A206" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v>fact.PartsOutstandingPayment</v>
-      </c>
-      <c r="B206" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C206" s="15"/>
-      <c r="D206" s="15"/>
-      <c r="E206" s="15"/>
-      <c r="F206" s="15" t="str">
-        <f t="shared" si="16"/>
-        <v>BB4.csv</v>
-      </c>
-      <c r="G206" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="H206" s="15"/>
+    <row r="204" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="205" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="34" t="s">
+        <v>408</v>
+      </c>
+      <c r="B205" s="35"/>
+      <c r="C205" s="35"/>
+      <c r="D205" s="36"/>
+      <c r="E205" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="F205" s="38"/>
+      <c r="G205" s="38"/>
+      <c r="H205" s="39"/>
+    </row>
+    <row r="206" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B206" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C206" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D206" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E206" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F206" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G206" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H206" s="23" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A207" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v>fact.PartsOutstandingPayment</v>
-      </c>
-      <c r="B207" s="15" t="s">
-        <v>413</v>
-      </c>
-      <c r="C207" s="15"/>
-      <c r="D207" s="15"/>
-      <c r="E207" s="15"/>
-      <c r="F207" s="15" t="str">
-        <f t="shared" si="16"/>
-        <v>BB4.csv</v>
-      </c>
-      <c r="G207" s="15" t="s">
-        <v>414</v>
-      </c>
-      <c r="H207" s="15"/>
+      <c r="A207" s="40" t="s">
+        <v>416</v>
+      </c>
+      <c r="B207" s="41"/>
+      <c r="C207" s="41"/>
+      <c r="D207" s="41"/>
+      <c r="E207" s="41"/>
+      <c r="F207" s="41"/>
+      <c r="G207" s="41"/>
+      <c r="H207" s="42"/>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v>fact.PartsOutstandingPayment</v>
+        <f>$A$205</f>
+        <v>fact.SubletOutstandingPayment</v>
       </c>
       <c r="B208" s="15" t="s">
-        <v>398</v>
+        <v>21</v>
       </c>
       <c r="C208" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="D208" s="15"/>
+        <v>22</v>
+      </c>
+      <c r="D208" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="E208" s="15"/>
-      <c r="F208" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G208" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H208" s="15" t="s">
-        <v>401</v>
-      </c>
+      <c r="F208" s="15"/>
+      <c r="G208" s="15"/>
+      <c r="H208" s="15"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="15" t="str">
-        <f t="shared" si="15"/>
-        <v>fact.PartsOutstandingPayment</v>
+        <f t="shared" ref="A209:A221" si="17">$A$205</f>
+        <v>fact.SubletOutstandingPayment</v>
       </c>
       <c r="B209" s="15" t="s">
-        <v>400</v>
+        <v>81</v>
       </c>
       <c r="C209" s="15" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="D209" s="15"/>
       <c r="E209" s="15"/>
-      <c r="F209" s="15" t="str">
-        <f t="shared" ref="F209" si="17">$E$231</f>
-        <v>BBS.csv</v>
-      </c>
-      <c r="G209" s="15" t="s">
+      <c r="F209" s="15"/>
+      <c r="G209" s="15"/>
+      <c r="H209" s="15"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A210" s="15" t="str">
+        <f t="shared" si="17"/>
+        <v>fact.SubletOutstandingPayment</v>
+      </c>
+      <c r="B210" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C210" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D210" s="15"/>
+      <c r="E210" s="15"/>
+      <c r="F210" s="15"/>
+      <c r="G210" s="15"/>
+      <c r="H210" s="15"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A211" s="15" t="str">
+        <f t="shared" si="17"/>
+        <v>fact.SubletOutstandingPayment</v>
+      </c>
+      <c r="B211" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D211" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E211" s="15"/>
+      <c r="F211" s="15" t="str">
+        <f>$E$205</f>
+        <v>BB1.csv</v>
+      </c>
+      <c r="G211" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H211" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A212" s="15" t="str">
+        <f t="shared" si="17"/>
+        <v>fact.SubletOutstandingPayment</v>
+      </c>
+      <c r="B212" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="C212" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D212" s="15"/>
+      <c r="E212" s="15"/>
+      <c r="F212" s="15" t="str">
+        <f>$E$205</f>
+        <v>BB1.csv</v>
+      </c>
+      <c r="G212" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="H212" s="15"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A213" s="15" t="str">
+        <f t="shared" si="17"/>
+        <v>fact.SubletOutstandingPayment</v>
+      </c>
+      <c r="B213" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C213" s="15"/>
+      <c r="D213" s="15"/>
+      <c r="E213" s="15"/>
+      <c r="F213" s="15" t="str">
+        <f t="shared" ref="F213:F221" si="18">$E$205</f>
+        <v>BB1.csv</v>
+      </c>
+      <c r="G213" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="H209" s="15" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="211" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A211" s="34" t="s">
-        <v>407</v>
-      </c>
-      <c r="B211" s="35"/>
-      <c r="C211" s="35"/>
-      <c r="D211" s="36"/>
-      <c r="E211" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="F211" s="38"/>
-      <c r="G211" s="38"/>
-      <c r="H211" s="39"/>
-    </row>
-    <row r="212" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B212" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C212" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D212" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E212" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F212" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G212" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H212" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A213" s="40" t="s">
-        <v>415</v>
-      </c>
-      <c r="B213" s="41"/>
-      <c r="C213" s="41"/>
-      <c r="D213" s="41"/>
-      <c r="E213" s="41"/>
-      <c r="F213" s="41"/>
-      <c r="G213" s="41"/>
-      <c r="H213" s="42"/>
+      <c r="H213" s="15" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A214" s="15" t="s">
-        <v>407</v>
+      <c r="A214" s="15" t="str">
+        <f t="shared" si="17"/>
+        <v>fact.SubletOutstandingPayment</v>
       </c>
       <c r="B214" s="15" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="C214" s="15" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D214" s="15" t="s">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="E214" s="15"/>
-      <c r="F214" s="15"/>
-      <c r="G214" s="15"/>
+      <c r="F214" s="15" t="str">
+        <f t="shared" si="18"/>
+        <v>BB1.csv</v>
+      </c>
+      <c r="G214" s="15" t="s">
+        <v>130</v>
+      </c>
       <c r="H214" s="15"/>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A215" s="15" t="s">
-        <v>407</v>
+      <c r="A215" s="15" t="str">
+        <f t="shared" si="17"/>
+        <v>fact.SubletOutstandingPayment</v>
       </c>
       <c r="B215" s="15" t="s">
-        <v>81</v>
+        <v>149</v>
       </c>
       <c r="C215" s="15" t="s">
-        <v>93</v>
+        <v>4</v>
       </c>
       <c r="D215" s="15"/>
       <c r="E215" s="15"/>
-      <c r="F215" s="15"/>
-      <c r="G215" s="15"/>
+      <c r="F215" s="15" t="str">
+        <f t="shared" si="18"/>
+        <v>BB1.csv</v>
+      </c>
+      <c r="G215" s="15" t="s">
+        <v>149</v>
+      </c>
       <c r="H215" s="15"/>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A216" s="15" t="s">
-        <v>407</v>
+      <c r="A216" s="15" t="str">
+        <f t="shared" si="17"/>
+        <v>fact.SubletOutstandingPayment</v>
       </c>
       <c r="B216" s="15" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="C216" s="15" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="D216" s="15"/>
       <c r="E216" s="15"/>
-      <c r="F216" s="15"/>
-      <c r="G216" s="15"/>
+      <c r="F216" s="15" t="str">
+        <f t="shared" si="18"/>
+        <v>BB1.csv</v>
+      </c>
+      <c r="G216" s="15" t="s">
+        <v>140</v>
+      </c>
       <c r="H216" s="15"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A217" s="15" t="s">
-        <v>407</v>
+      <c r="A217" s="15" t="str">
+        <f t="shared" si="17"/>
+        <v>fact.SubletOutstandingPayment</v>
       </c>
       <c r="B217" s="15" t="s">
-        <v>5</v>
+        <v>152</v>
       </c>
       <c r="C217" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D217" s="15" t="s">
-        <v>101</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D217" s="15"/>
       <c r="E217" s="15"/>
       <c r="F217" s="15" t="str">
-        <f>$E$211</f>
+        <f t="shared" si="18"/>
         <v>BB1.csv</v>
       </c>
       <c r="G217" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H217" s="15" t="s">
-        <v>104</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="H217" s="15"/>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A218" s="15" t="s">
-        <v>407</v>
+      <c r="A218" s="15" t="str">
+        <f t="shared" si="17"/>
+        <v>fact.SubletOutstandingPayment</v>
       </c>
       <c r="B218" s="15" t="s">
-        <v>406</v>
+        <v>84</v>
       </c>
       <c r="C218" s="15" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="D218" s="15"/>
       <c r="E218" s="15"/>
       <c r="F218" s="15" t="str">
-        <f>$E$211</f>
+        <f t="shared" si="18"/>
         <v>BB1.csv</v>
       </c>
       <c r="G218" s="15" t="s">
-        <v>152</v>
+        <v>84</v>
       </c>
       <c r="H218" s="15"/>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A219" s="15" t="s">
-        <v>407</v>
+      <c r="A219" s="15" t="str">
+        <f t="shared" si="17"/>
+        <v>fact.SubletOutstandingPayment</v>
       </c>
       <c r="B219" s="15" t="s">
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="C219" s="15"/>
       <c r="D219" s="15"/>
       <c r="E219" s="15"/>
       <c r="F219" s="15" t="str">
-        <f t="shared" ref="F219:F227" si="18">$E$211</f>
+        <f t="shared" si="18"/>
         <v>BB1.csv</v>
       </c>
       <c r="G219" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H219" s="15" t="s">
-        <v>154</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="H219" s="15"/>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A220" s="15" t="s">
-        <v>407</v>
+      <c r="A220" s="15" t="str">
+        <f t="shared" si="17"/>
+        <v>fact.SubletOutstandingPayment</v>
       </c>
       <c r="B220" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="C220" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D220" s="15" t="s">
-        <v>143</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C220" s="15"/>
+      <c r="D220" s="15"/>
       <c r="E220" s="15"/>
       <c r="F220" s="15" t="str">
         <f t="shared" si="18"/>
         <v>BB1.csv</v>
       </c>
       <c r="G220" s="15" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="H220" s="15"/>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A221" s="15" t="s">
-        <v>407</v>
+      <c r="A221" s="15" t="str">
+        <f t="shared" si="17"/>
+        <v>fact.SubletOutstandingPayment</v>
       </c>
       <c r="B221" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="C221" s="15" t="s">
-        <v>4</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="C221" s="15"/>
       <c r="D221" s="15"/>
       <c r="E221" s="15"/>
       <c r="F221" s="15" t="str">
@@ -10000,387 +9869,412 @@
         <v>BB1.csv</v>
       </c>
       <c r="G221" s="15" t="s">
-        <v>148</v>
+        <v>417</v>
       </c>
       <c r="H221" s="15"/>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A222" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="B222" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C222" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D222" s="15"/>
-      <c r="E222" s="15"/>
-      <c r="F222" s="15" t="str">
-        <f t="shared" si="18"/>
-        <v>BB1.csv</v>
-      </c>
-      <c r="G222" s="15" t="s">
-        <v>139</v>
-      </c>
-      <c r="H222" s="15"/>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A223" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="B223" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="C223" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D223" s="15"/>
-      <c r="E223" s="15"/>
-      <c r="F223" s="15" t="str">
-        <f t="shared" si="18"/>
-        <v>BB1.csv</v>
-      </c>
-      <c r="G223" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="H223" s="15"/>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A224" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="B224" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C224" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D224" s="15"/>
-      <c r="E224" s="15"/>
-      <c r="F224" s="15" t="str">
-        <f t="shared" si="18"/>
-        <v>BB1.csv</v>
-      </c>
-      <c r="G224" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="H224" s="15"/>
+    <row r="222" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="223" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A223" s="34" t="s">
+        <v>405</v>
+      </c>
+      <c r="B223" s="35"/>
+      <c r="C223" s="35"/>
+      <c r="D223" s="36"/>
+      <c r="E223" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="F223" s="38"/>
+      <c r="G223" s="38"/>
+      <c r="H223" s="39"/>
+    </row>
+    <row r="224" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A224" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B224" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C224" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D224" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E224" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F224" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G224" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H224" s="23" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A225" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="B225" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="C225" s="15"/>
-      <c r="D225" s="15"/>
-      <c r="E225" s="15"/>
-      <c r="F225" s="15" t="str">
-        <f t="shared" si="18"/>
-        <v>BB1.csv</v>
-      </c>
-      <c r="G225" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="H225" s="15"/>
+      <c r="A225" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="B225" s="41"/>
+      <c r="C225" s="41"/>
+      <c r="D225" s="41"/>
+      <c r="E225" s="41"/>
+      <c r="F225" s="41"/>
+      <c r="G225" s="41"/>
+      <c r="H225" s="42"/>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A226" s="15" t="s">
-        <v>407</v>
+      <c r="A226" s="15" t="str">
+        <f>$A$223</f>
+        <v>fact.OutstandingQuery</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="C226" s="15"/>
-      <c r="D226" s="15"/>
+        <v>21</v>
+      </c>
+      <c r="C226" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D226" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="E226" s="15"/>
-      <c r="F226" s="15" t="str">
-        <f t="shared" si="18"/>
-        <v>BB1.csv</v>
-      </c>
-      <c r="G226" s="15" t="s">
-        <v>135</v>
-      </c>
+      <c r="F226" s="15"/>
+      <c r="G226" s="15"/>
       <c r="H226" s="15"/>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A227" s="15" t="s">
-        <v>407</v>
+      <c r="A227" s="15" t="str">
+        <f t="shared" ref="A227:A241" si="19">$A$223</f>
+        <v>fact.OutstandingQuery</v>
       </c>
       <c r="B227" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="C227" s="15"/>
+        <v>81</v>
+      </c>
+      <c r="C227" s="15" t="s">
+        <v>93</v>
+      </c>
       <c r="D227" s="15"/>
       <c r="E227" s="15"/>
-      <c r="F227" s="15" t="str">
-        <f t="shared" si="18"/>
-        <v>BB1.csv</v>
-      </c>
-      <c r="G227" s="15" t="s">
-        <v>416</v>
-      </c>
+      <c r="F227" s="15"/>
+      <c r="G227" s="15"/>
       <c r="H227" s="15"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A228" s="15" t="s">
-        <v>407</v>
+      <c r="A228" s="15" t="str">
+        <f t="shared" si="19"/>
+        <v>fact.OutstandingQuery</v>
       </c>
       <c r="B228" s="15" t="s">
-        <v>398</v>
+        <v>82</v>
       </c>
       <c r="C228" s="15" t="s">
-        <v>399</v>
+        <v>93</v>
       </c>
       <c r="D228" s="15"/>
       <c r="E228" s="15"/>
-      <c r="F228" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G228" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H228" s="15" t="s">
-        <v>401</v>
-      </c>
+      <c r="F228" s="15" t="str">
+        <f t="shared" ref="F228:F230" si="20">$E$223</f>
+        <v>BBS.csv</v>
+      </c>
+      <c r="G228" s="15"/>
+      <c r="H228" s="15"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A229" s="15" t="s">
-        <v>407</v>
+      <c r="A229" s="15" t="str">
+        <f t="shared" si="19"/>
+        <v>fact.OutstandingQuery</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>400</v>
+        <v>159</v>
       </c>
       <c r="C229" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D229" s="15"/>
+        <v>29</v>
+      </c>
+      <c r="D229" s="15" t="s">
+        <v>160</v>
+      </c>
       <c r="E229" s="15"/>
       <c r="F229" s="15" t="str">
-        <f t="shared" ref="F229" si="19">$E$231</f>
+        <f t="shared" si="20"/>
         <v>BBS.csv</v>
       </c>
       <c r="G229" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="H229" s="15"/>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A230" s="15" t="str">
+        <f t="shared" si="19"/>
+        <v>fact.OutstandingQuery</v>
+      </c>
+      <c r="B230" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C230" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D230" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E230" s="15"/>
+      <c r="F230" s="15" t="str">
+        <f t="shared" si="20"/>
+        <v>BBS.csv</v>
+      </c>
+      <c r="G230" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="H230" s="15"/>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A231" s="15" t="str">
+        <f t="shared" si="19"/>
+        <v>fact.OutstandingQuery</v>
+      </c>
+      <c r="B231" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C231" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D231" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="E231" s="15"/>
+      <c r="F231" s="15" t="str">
+        <f>$E$223</f>
+        <v>BBS.csv</v>
+      </c>
+      <c r="G231" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="H231" s="15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A232" s="15" t="str">
+        <f t="shared" si="19"/>
+        <v>fact.OutstandingQuery</v>
+      </c>
+      <c r="B232" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="C232" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D232" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E232" s="15"/>
+      <c r="F232" s="15" t="str">
+        <f t="shared" ref="F232:F241" si="21">$E$223</f>
+        <v>BBS.csv</v>
+      </c>
+      <c r="G232" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="H232" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A233" s="15" t="str">
+        <f t="shared" si="19"/>
+        <v>fact.OutstandingQuery</v>
+      </c>
+      <c r="B233" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C233" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D233" s="15"/>
+      <c r="E233" s="15"/>
+      <c r="F233" s="15" t="str">
+        <f t="shared" si="21"/>
+        <v>BBS.csv</v>
+      </c>
+      <c r="G233" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="H229" s="15" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="231" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A231" s="34" t="s">
-        <v>404</v>
-      </c>
-      <c r="B231" s="35"/>
-      <c r="C231" s="35"/>
-      <c r="D231" s="36"/>
-      <c r="E231" s="37" t="s">
-        <v>157</v>
-      </c>
-      <c r="F231" s="38"/>
-      <c r="G231" s="38"/>
-      <c r="H231" s="39"/>
-    </row>
-    <row r="232" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A232" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B232" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C232" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D232" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E232" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F232" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G232" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H232" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A233" s="40" t="s">
-        <v>412</v>
-      </c>
-      <c r="B233" s="41"/>
-      <c r="C233" s="41"/>
-      <c r="D233" s="41"/>
-      <c r="E233" s="41"/>
-      <c r="F233" s="41"/>
-      <c r="G233" s="41"/>
-      <c r="H233" s="42"/>
+      <c r="H233" s="15" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A234" s="15" t="s">
-        <v>404</v>
+      <c r="A234" s="15" t="str">
+        <f t="shared" si="19"/>
+        <v>fact.OutstandingQuery</v>
       </c>
       <c r="B234" s="15" t="s">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="C234" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D234" s="15" t="s">
-        <v>23</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D234" s="15"/>
       <c r="E234" s="15"/>
-      <c r="F234" s="15"/>
-      <c r="G234" s="15"/>
-      <c r="H234" s="15"/>
+      <c r="F234" s="15" t="str">
+        <f t="shared" si="21"/>
+        <v>BBS.csv</v>
+      </c>
+      <c r="G234" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="H234" s="15" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A235" s="15" t="s">
-        <v>404</v>
+      <c r="A235" s="15" t="str">
+        <f t="shared" si="19"/>
+        <v>fact.OutstandingQuery</v>
       </c>
       <c r="B235" s="15" t="s">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="C235" s="15" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D235" s="15"/>
       <c r="E235" s="15"/>
-      <c r="F235" s="15"/>
-      <c r="G235" s="15"/>
+      <c r="F235" s="15" t="str">
+        <f t="shared" si="21"/>
+        <v>BBS.csv</v>
+      </c>
+      <c r="G235" s="15" t="s">
+        <v>168</v>
+      </c>
       <c r="H235" s="15"/>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A236" s="15" t="s">
-        <v>404</v>
+      <c r="A236" s="15" t="str">
+        <f t="shared" si="19"/>
+        <v>fact.OutstandingQuery</v>
       </c>
       <c r="B236" s="15" t="s">
-        <v>82</v>
+        <v>169</v>
       </c>
       <c r="C236" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D236" s="15"/>
+        <v>22</v>
+      </c>
+      <c r="D236" s="15" t="s">
+        <v>176</v>
+      </c>
       <c r="E236" s="15"/>
       <c r="F236" s="15" t="str">
-        <f t="shared" ref="F236:F238" si="20">$E$231</f>
+        <f t="shared" si="21"/>
         <v>BBS.csv</v>
       </c>
-      <c r="G236" s="15"/>
-      <c r="H236" s="15"/>
+      <c r="G236" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="H236" s="15" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A237" s="15" t="s">
+      <c r="A237" s="15" t="str">
+        <f t="shared" si="19"/>
+        <v>fact.OutstandingQuery</v>
+      </c>
+      <c r="B237" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="B237" s="15" t="s">
-        <v>158</v>
-      </c>
       <c r="C237" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D237" s="15" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E237" s="15"/>
       <c r="F237" s="15" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>BBS.csv</v>
       </c>
       <c r="G237" s="15" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="H237" s="15"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A238" s="15" t="s">
-        <v>404</v>
+      <c r="A238" s="15" t="str">
+        <f t="shared" si="19"/>
+        <v>fact.OutstandingQuery</v>
       </c>
       <c r="B238" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="C238" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D238" s="15" t="s">
-        <v>159</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="C238" s="15"/>
+      <c r="D238" s="15"/>
       <c r="E238" s="15"/>
       <c r="F238" s="15" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>BBS.csv</v>
       </c>
       <c r="G238" s="15" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="H238" s="15"/>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A239" s="15" t="s">
-        <v>404</v>
+      <c r="A239" s="15" t="str">
+        <f t="shared" si="19"/>
+        <v>fact.OutstandingQuery</v>
       </c>
       <c r="B239" s="15" t="s">
-        <v>63</v>
+        <v>399</v>
       </c>
       <c r="C239" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D239" s="15" t="s">
-        <v>155</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="D239" s="15"/>
       <c r="E239" s="15"/>
-      <c r="F239" s="15" t="str">
-        <f>$E$231</f>
-        <v>BBS.csv</v>
+      <c r="F239" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="G239" s="15" t="s">
-        <v>182</v>
+        <v>66</v>
       </c>
       <c r="H239" s="15" t="s">
-        <v>156</v>
+        <v>402</v>
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A240" s="15" t="s">
-        <v>404</v>
+      <c r="A240" s="15" t="str">
+        <f t="shared" si="19"/>
+        <v>fact.OutstandingQuery</v>
       </c>
       <c r="B240" s="15" t="s">
-        <v>152</v>
+        <v>401</v>
       </c>
       <c r="C240" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D240" s="15" t="s">
-        <v>161</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="D240" s="15"/>
       <c r="E240" s="15"/>
       <c r="F240" s="15" t="str">
-        <f t="shared" ref="F240:F249" si="21">$E$231</f>
+        <f t="shared" si="21"/>
         <v>BBS.csv</v>
       </c>
       <c r="G240" s="15" t="s">
-        <v>162</v>
+        <v>66</v>
       </c>
       <c r="H240" s="15" t="s">
-        <v>163</v>
+        <v>403</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A241" s="15" t="s">
-        <v>404</v>
+      <c r="A241" s="15" t="str">
+        <f t="shared" si="19"/>
+        <v>fact.OutstandingQuery</v>
       </c>
       <c r="B241" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C241" s="15" t="s">
-        <v>149</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="C241" s="15"/>
       <c r="D241" s="15"/>
       <c r="E241" s="15"/>
       <c r="F241" s="15" t="str">
@@ -10388,253 +10282,264 @@
         <v>BBS.csv</v>
       </c>
       <c r="G241" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H241" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A242" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="B242" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="C242" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D242" s="15"/>
-      <c r="E242" s="15"/>
-      <c r="F242" s="15" t="str">
-        <f t="shared" si="21"/>
-        <v>BBS.csv</v>
-      </c>
-      <c r="G242" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="H242" s="15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A243" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="B243" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C243" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D243" s="15"/>
-      <c r="E243" s="15"/>
-      <c r="F243" s="15" t="str">
-        <f t="shared" si="21"/>
-        <v>BBS.csv</v>
-      </c>
-      <c r="G243" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="H243" s="15"/>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A244" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="B244" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="C244" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="H241" s="15"/>
+    </row>
+    <row r="242" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="243" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A243" s="34" t="s">
+        <v>181</v>
+      </c>
+      <c r="B243" s="35"/>
+      <c r="C243" s="35"/>
+      <c r="D243" s="36"/>
+      <c r="E243" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="F243" s="38"/>
+      <c r="G243" s="38"/>
+      <c r="H243" s="39"/>
+    </row>
+    <row r="244" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A244" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B244" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C244" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D244" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E244" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F244" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G244" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H244" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A245" s="40"/>
+      <c r="B245" s="41"/>
+      <c r="C245" s="41"/>
+      <c r="D245" s="41"/>
+      <c r="E245" s="41"/>
+      <c r="F245" s="41"/>
+      <c r="G245" s="41"/>
+      <c r="H245" s="42"/>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A246" s="15" t="str">
+        <f t="shared" ref="A246:A267" si="22">$A$243</f>
+        <v>fact.WorkInProgress</v>
+      </c>
+      <c r="B246" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C246" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D244" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="E244" s="15"/>
-      <c r="F244" s="15" t="str">
-        <f t="shared" si="21"/>
-        <v>BBS.csv</v>
-      </c>
-      <c r="G244" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="H244" s="15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A245" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="B245" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="C245" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="E245" s="15"/>
-      <c r="F245" s="15" t="str">
-        <f t="shared" si="21"/>
-        <v>BBS.csv</v>
-      </c>
-      <c r="G245" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="H245" s="15"/>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A246" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="B246" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="C246" s="15"/>
-      <c r="D246" s="15"/>
+      <c r="D246" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="E246" s="15"/>
-      <c r="F246" s="15" t="str">
-        <f t="shared" si="21"/>
-        <v>BBS.csv</v>
-      </c>
-      <c r="G246" s="15" t="s">
-        <v>172</v>
-      </c>
+      <c r="F246" s="15"/>
+      <c r="G246" s="15"/>
       <c r="H246" s="15"/>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A247" s="15" t="s">
-        <v>404</v>
+      <c r="A247" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v>fact.WorkInProgress</v>
       </c>
       <c r="B247" s="15" t="s">
-        <v>398</v>
+        <v>81</v>
       </c>
       <c r="C247" s="15" t="s">
-        <v>399</v>
+        <v>93</v>
       </c>
       <c r="D247" s="15"/>
       <c r="E247" s="15"/>
-      <c r="F247" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G247" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H247" s="15" t="s">
-        <v>401</v>
-      </c>
+      <c r="F247" s="15"/>
+      <c r="G247" s="15"/>
+      <c r="H247" s="15"/>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A248" s="15" t="s">
-        <v>404</v>
+      <c r="A248" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v>fact.WorkInProgress</v>
       </c>
       <c r="B248" s="15" t="s">
-        <v>400</v>
+        <v>82</v>
       </c>
       <c r="C248" s="15" t="s">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="D248" s="15"/>
       <c r="E248" s="15"/>
       <c r="F248" s="15" t="str">
-        <f t="shared" si="21"/>
-        <v>BBS.csv</v>
-      </c>
-      <c r="G248" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H248" s="15" t="s">
-        <v>402</v>
-      </c>
+        <f t="shared" ref="F248:F267" si="23">$E$243</f>
+        <v>BWS.csv and BWN.csv</v>
+      </c>
+      <c r="G248" s="15"/>
+      <c r="H248" s="15"/>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A249" s="15" t="s">
-        <v>404</v>
+      <c r="A249" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v>fact.WorkInProgress</v>
       </c>
       <c r="B249" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="C249" s="15"/>
-      <c r="D249" s="15"/>
+        <v>5</v>
+      </c>
+      <c r="C249" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D249" s="15" t="s">
+        <v>185</v>
+      </c>
       <c r="E249" s="15"/>
       <c r="F249" s="15" t="str">
-        <f t="shared" si="21"/>
-        <v>BBS.csv</v>
+        <f t="shared" si="23"/>
+        <v>BWS.csv and BWN.csv</v>
       </c>
       <c r="G249" s="15" t="s">
-        <v>411</v>
-      </c>
-      <c r="H249" s="15"/>
-    </row>
-    <row r="250" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="251" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A251" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="B251" s="35"/>
-      <c r="C251" s="35"/>
-      <c r="D251" s="36"/>
-      <c r="E251" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="F251" s="38"/>
-      <c r="G251" s="38"/>
-      <c r="H251" s="39"/>
-    </row>
-    <row r="252" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A252" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B252" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C252" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D252" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E252" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F252" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G252" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H252" s="23" t="s">
-        <v>14</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="H249" s="15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A250" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v>fact.WorkInProgress</v>
+      </c>
+      <c r="B250" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="C250" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D250" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="E250" s="15"/>
+      <c r="F250" s="15" t="str">
+        <f t="shared" si="23"/>
+        <v>BWS.csv and BWN.csv</v>
+      </c>
+      <c r="G250" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="H250" s="15"/>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A251" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v>fact.WorkInProgress</v>
+      </c>
+      <c r="B251" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="C251" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D251" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="E251" s="15"/>
+      <c r="F251" s="15" t="str">
+        <f t="shared" si="23"/>
+        <v>BWS.csv and BWN.csv</v>
+      </c>
+      <c r="G251" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="H251" s="15" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A252" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v>fact.WorkInProgress</v>
+      </c>
+      <c r="B252" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="C252" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D252" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="E252" s="15"/>
+      <c r="F252" s="15" t="str">
+        <f t="shared" si="23"/>
+        <v>BWS.csv and BWN.csv</v>
+      </c>
+      <c r="G252" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="H252" s="15"/>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A253" s="40"/>
-      <c r="B253" s="41"/>
-      <c r="C253" s="41"/>
-      <c r="D253" s="41"/>
-      <c r="E253" s="41"/>
-      <c r="F253" s="41"/>
-      <c r="G253" s="41"/>
-      <c r="H253" s="42"/>
+      <c r="A253" s="15" t="str">
+        <f t="shared" si="22"/>
+        <v>fact.WorkInProgress</v>
+      </c>
+      <c r="B253" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C253" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="D253" s="15"/>
+      <c r="E253" s="15"/>
+      <c r="F253" s="15" t="str">
+        <f t="shared" si="23"/>
+        <v>BWS.csv and BWN.csv</v>
+      </c>
+      <c r="G253" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H253" s="15" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="15" t="str">
-        <f t="shared" ref="A254:A275" si="22">$A$251</f>
+        <f t="shared" si="22"/>
         <v>fact.WorkInProgress</v>
       </c>
       <c r="B254" s="15" t="s">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="C254" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D254" s="15" t="s">
-        <v>23</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="D254" s="15"/>
       <c r="E254" s="15"/>
-      <c r="F254" s="15"/>
-      <c r="G254" s="15"/>
-      <c r="H254" s="15"/>
+      <c r="F254" s="15" t="str">
+        <f t="shared" si="23"/>
+        <v>BWS.csv and BWN.csv</v>
+      </c>
+      <c r="G254" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="H254" s="15" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="15" t="str">
@@ -10642,15 +10547,20 @@
         <v>fact.WorkInProgress</v>
       </c>
       <c r="B255" s="15" t="s">
-        <v>81</v>
+        <v>191</v>
       </c>
       <c r="C255" s="15" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="D255" s="15"/>
       <c r="E255" s="15"/>
-      <c r="F255" s="15"/>
-      <c r="G255" s="15"/>
+      <c r="F255" s="15" t="str">
+        <f t="shared" si="23"/>
+        <v>BWS.csv and BWN.csv</v>
+      </c>
+      <c r="G255" s="15" t="s">
+        <v>191</v>
+      </c>
       <c r="H255" s="15"/>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
@@ -10659,18 +10569,20 @@
         <v>fact.WorkInProgress</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>82</v>
+        <v>192</v>
       </c>
       <c r="C256" s="15" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="D256" s="15"/>
       <c r="E256" s="15"/>
       <c r="F256" s="15" t="str">
-        <f t="shared" ref="F256:F275" si="23">$E$251</f>
+        <f t="shared" si="23"/>
         <v>BWS.csv and BWN.csv</v>
       </c>
-      <c r="G256" s="15"/>
+      <c r="G256" s="15" t="s">
+        <v>192</v>
+      </c>
       <c r="H256" s="15"/>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
@@ -10679,13 +10591,13 @@
         <v>fact.WorkInProgress</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C257" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D257" s="15" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="E257" s="15"/>
       <c r="F257" s="15" t="str">
@@ -10693,10 +10605,10 @@
         <v>BWS.csv and BWN.csv</v>
       </c>
       <c r="G257" s="15" t="s">
-        <v>69</v>
+        <v>193</v>
       </c>
       <c r="H257" s="15" t="s">
-        <v>104</v>
+        <v>227</v>
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
@@ -10705,21 +10617,19 @@
         <v>fact.WorkInProgress</v>
       </c>
       <c r="B258" s="15" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="C258" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D258" s="15" t="s">
-        <v>159</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D258" s="15"/>
       <c r="E258" s="15"/>
       <c r="F258" s="15" t="str">
         <f t="shared" si="23"/>
         <v>BWS.csv and BWN.csv</v>
       </c>
       <c r="G258" s="15" t="s">
-        <v>183</v>
+        <v>228</v>
       </c>
       <c r="H258" s="15"/>
     </row>
@@ -10729,25 +10639,21 @@
         <v>fact.WorkInProgress</v>
       </c>
       <c r="B259" s="15" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C259" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D259" s="15" t="s">
-        <v>394</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D259" s="15"/>
       <c r="E259" s="15"/>
       <c r="F259" s="15" t="str">
         <f t="shared" si="23"/>
         <v>BWS.csv and BWN.csv</v>
       </c>
       <c r="G259" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="H259" s="15" t="s">
-        <v>395</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="H259" s="15"/>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="15" t="str">
@@ -10755,21 +10661,19 @@
         <v>fact.WorkInProgress</v>
       </c>
       <c r="B260" s="15" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="C260" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D260" s="15" t="s">
-        <v>187</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D260" s="15"/>
       <c r="E260" s="15"/>
       <c r="F260" s="15" t="str">
         <f t="shared" si="23"/>
         <v>BWS.csv and BWN.csv</v>
       </c>
       <c r="G260" s="15" t="s">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="H260" s="15"/>
     </row>
@@ -10779,10 +10683,10 @@
         <v>fact.WorkInProgress</v>
       </c>
       <c r="B261" s="15" t="s">
-        <v>4</v>
+        <v>398</v>
       </c>
       <c r="C261" s="15" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="D261" s="15"/>
       <c r="E261" s="15"/>
@@ -10791,11 +10695,9 @@
         <v>BWS.csv and BWN.csv</v>
       </c>
       <c r="G261" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H261" s="15" t="s">
-        <v>154</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="H261" s="15"/>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="15" t="str">
@@ -10803,10 +10705,10 @@
         <v>fact.WorkInProgress</v>
       </c>
       <c r="B262" s="15" t="s">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c r="C262" s="15" t="s">
-        <v>149</v>
+        <v>86</v>
       </c>
       <c r="D262" s="15"/>
       <c r="E262" s="15"/>
@@ -10815,11 +10717,9 @@
         <v>BWS.csv and BWN.csv</v>
       </c>
       <c r="G262" s="15" t="s">
-        <v>419</v>
-      </c>
-      <c r="H262" s="15" t="s">
-        <v>165</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="H262" s="15"/>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="15" t="str">
@@ -10827,10 +10727,10 @@
         <v>fact.WorkInProgress</v>
       </c>
       <c r="B263" s="15" t="s">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c r="C263" s="15" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="D263" s="15"/>
       <c r="E263" s="15"/>
@@ -10839,7 +10739,7 @@
         <v>BWS.csv and BWN.csv</v>
       </c>
       <c r="G263" s="15" t="s">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c r="H263" s="15"/>
     </row>
@@ -10849,10 +10749,10 @@
         <v>fact.WorkInProgress</v>
       </c>
       <c r="B264" s="15" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="C264" s="15" t="s">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="D264" s="15"/>
       <c r="E264" s="15"/>
@@ -10861,7 +10761,7 @@
         <v>BWS.csv and BWN.csv</v>
       </c>
       <c r="G264" s="15" t="s">
-        <v>191</v>
+        <v>234</v>
       </c>
       <c r="H264" s="15"/>
     </row>
@@ -10871,25 +10771,21 @@
         <v>fact.WorkInProgress</v>
       </c>
       <c r="B265" s="15" t="s">
-        <v>152</v>
+        <v>235</v>
       </c>
       <c r="C265" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D265" s="15" t="s">
-        <v>161</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D265" s="15"/>
       <c r="E265" s="15"/>
       <c r="F265" s="15" t="str">
         <f t="shared" si="23"/>
         <v>BWS.csv and BWN.csv</v>
       </c>
       <c r="G265" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="H265" s="15" t="s">
-        <v>226</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="H265" s="15"/>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="15" t="str">
@@ -10897,21 +10793,22 @@
         <v>fact.WorkInProgress</v>
       </c>
       <c r="B266" s="15" t="s">
-        <v>227</v>
+        <v>399</v>
       </c>
       <c r="C266" s="15" t="s">
-        <v>86</v>
+        <v>400</v>
       </c>
       <c r="D266" s="15"/>
       <c r="E266" s="15"/>
-      <c r="F266" s="15" t="str">
-        <f t="shared" si="23"/>
-        <v>BWS.csv and BWN.csv</v>
+      <c r="F266" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="G266" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="H266" s="15"/>
+        <v>66</v>
+      </c>
+      <c r="H266" s="15" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="15" t="str">
@@ -10919,10 +10816,10 @@
         <v>fact.WorkInProgress</v>
       </c>
       <c r="B267" s="15" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C267" s="15" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="D267" s="15"/>
       <c r="E267" s="15"/>
@@ -10931,497 +10828,31 @@
         <v>BWS.csv and BWN.csv</v>
       </c>
       <c r="G267" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="H267" s="15"/>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A268" s="15" t="str">
-        <f t="shared" si="22"/>
-        <v>fact.WorkInProgress</v>
-      </c>
-      <c r="B268" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="C268" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D268" s="15"/>
-      <c r="E268" s="15"/>
-      <c r="F268" s="15" t="str">
-        <f t="shared" si="23"/>
-        <v>BWS.csv and BWN.csv</v>
-      </c>
-      <c r="G268" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="H268" s="15"/>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A269" s="15" t="str">
-        <f t="shared" si="22"/>
-        <v>fact.WorkInProgress</v>
-      </c>
-      <c r="B269" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="C269" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D269" s="15"/>
-      <c r="E269" s="15"/>
-      <c r="F269" s="15" t="str">
-        <f t="shared" si="23"/>
-        <v>BWS.csv and BWN.csv</v>
-      </c>
-      <c r="G269" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="H269" s="15"/>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A270" s="15" t="str">
-        <f t="shared" si="22"/>
-        <v>fact.WorkInProgress</v>
-      </c>
-      <c r="B270" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="C270" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D270" s="15"/>
-      <c r="E270" s="15"/>
-      <c r="F270" s="15" t="str">
-        <f t="shared" si="23"/>
-        <v>BWS.csv and BWN.csv</v>
-      </c>
-      <c r="G270" s="15" t="s">
-        <v>231</v>
-      </c>
-      <c r="H270" s="15"/>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A271" s="15" t="str">
-        <f t="shared" si="22"/>
-        <v>fact.WorkInProgress</v>
-      </c>
-      <c r="B271" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="C271" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D271" s="15"/>
-      <c r="E271" s="15"/>
-      <c r="F271" s="15" t="str">
-        <f t="shared" si="23"/>
-        <v>BWS.csv and BWN.csv</v>
-      </c>
-      <c r="G271" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="H271" s="15"/>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A272" s="15" t="str">
-        <f t="shared" si="22"/>
-        <v>fact.WorkInProgress</v>
-      </c>
-      <c r="B272" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="C272" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D272" s="15"/>
-      <c r="E272" s="15"/>
-      <c r="F272" s="15" t="str">
-        <f t="shared" si="23"/>
-        <v>BWS.csv and BWN.csv</v>
-      </c>
-      <c r="G272" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="H272" s="15"/>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A273" s="15" t="str">
-        <f t="shared" si="22"/>
-        <v>fact.WorkInProgress</v>
-      </c>
-      <c r="B273" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="C273" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D273" s="15"/>
-      <c r="E273" s="15"/>
-      <c r="F273" s="15" t="str">
-        <f t="shared" si="23"/>
-        <v>BWS.csv and BWN.csv</v>
-      </c>
-      <c r="G273" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="H273" s="15"/>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A274" s="15" t="str">
-        <f t="shared" si="22"/>
-        <v>fact.WorkInProgress</v>
-      </c>
-      <c r="B274" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C274" s="15" t="s">
-        <v>399</v>
-      </c>
-      <c r="D274" s="15"/>
-      <c r="E274" s="15"/>
-      <c r="F274" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G274" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="H274" s="15" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A275" s="15" t="str">
-        <f t="shared" si="22"/>
-        <v>fact.WorkInProgress</v>
-      </c>
-      <c r="B275" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C275" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D275" s="15"/>
-      <c r="E275" s="15"/>
-      <c r="F275" s="15" t="str">
-        <f t="shared" si="23"/>
-        <v>BWS.csv and BWN.csv</v>
-      </c>
-      <c r="G275" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H275" s="15" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="277" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A277" s="34" t="s">
-        <v>420</v>
-      </c>
-      <c r="B277" s="35"/>
-      <c r="C277" s="35"/>
-      <c r="D277" s="36"/>
-      <c r="E277" s="37" t="s">
-        <v>421</v>
-      </c>
-      <c r="F277" s="38"/>
-      <c r="G277" s="38"/>
-      <c r="H277" s="39"/>
-    </row>
-    <row r="278" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A278" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B278" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C278" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D278" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E278" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F278" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G278" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H278" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A279" s="40"/>
-      <c r="B279" s="41"/>
-      <c r="C279" s="41"/>
-      <c r="D279" s="41"/>
-      <c r="E279" s="41"/>
-      <c r="F279" s="41"/>
-      <c r="G279" s="41"/>
-      <c r="H279" s="42"/>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A280" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="B280" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C280" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D280" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E280" s="15"/>
-      <c r="F280" s="15"/>
-      <c r="G280" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="H280" s="15"/>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A281" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="B281" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C281" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D281" s="15"/>
-      <c r="E281" s="15"/>
-      <c r="F281" s="15"/>
-      <c r="G281" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="H281" s="15"/>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A282" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="B282" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C282" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D282" s="15"/>
-      <c r="E282" s="15"/>
-      <c r="F282" s="15"/>
-      <c r="G282" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="H282" s="15"/>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A283" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="B283" s="15" t="s">
-        <v>361</v>
-      </c>
-      <c r="C283" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D283" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="E283" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="F283" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="G283" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="H283" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A284" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="B284" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C284" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D284" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E284" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="F284" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="G284" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="H284" s="15" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A285" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="B285" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C285" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="D285" s="15"/>
-      <c r="E285" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="F285" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="G285" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="H285" s="15"/>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A286" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="B286" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C286" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D286" s="15"/>
-      <c r="E286" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="F286" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="G286" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="H286" s="15"/>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A287" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="B287" s="15" t="s">
-        <v>429</v>
-      </c>
-      <c r="C287" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="D287" s="15"/>
-      <c r="E287" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="F287" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="G287" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="H287" s="15"/>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A288" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="B288" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="C288" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="D288" s="15"/>
-      <c r="E288" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="F288" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="G288" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="H288" s="15"/>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A289" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="B289" s="15" t="s">
-        <v>427</v>
-      </c>
-      <c r="C289" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="D289" s="15"/>
-      <c r="E289" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="F289" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="G289" s="15" t="s">
-        <v>427</v>
-      </c>
-      <c r="H289" s="15"/>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A290" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="B290" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="C290" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="D290" s="15"/>
-      <c r="E290" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="F290" s="15" t="s">
-        <v>431</v>
-      </c>
-      <c r="G290" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="H290" s="15"/>
+      <c r="H267" s="15" t="s">
+        <v>403</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="A253:H253"/>
-    <mergeCell ref="A213:H213"/>
-    <mergeCell ref="A231:D231"/>
-    <mergeCell ref="E231:H231"/>
-    <mergeCell ref="A233:H233"/>
-    <mergeCell ref="A251:D251"/>
-    <mergeCell ref="E251:H251"/>
+  <mergeCells count="41">
+    <mergeCell ref="A205:D205"/>
+    <mergeCell ref="E205:H205"/>
+    <mergeCell ref="A245:H245"/>
+    <mergeCell ref="A207:H207"/>
+    <mergeCell ref="A223:D223"/>
+    <mergeCell ref="E223:H223"/>
+    <mergeCell ref="A225:H225"/>
+    <mergeCell ref="A243:D243"/>
+    <mergeCell ref="E243:H243"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="E17:H17"/>
-    <mergeCell ref="A188:D188"/>
-    <mergeCell ref="E188:H188"/>
-    <mergeCell ref="A190:H190"/>
+    <mergeCell ref="A183:D183"/>
+    <mergeCell ref="E183:H183"/>
+    <mergeCell ref="A185:H185"/>
     <mergeCell ref="A19:H19"/>
     <mergeCell ref="A101:H101"/>
-    <mergeCell ref="A149:H149"/>
+    <mergeCell ref="A146:H146"/>
     <mergeCell ref="A111:D111"/>
     <mergeCell ref="E111:H111"/>
     <mergeCell ref="A66:H66"/>
@@ -11435,22 +10866,17 @@
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="E6:H6"/>
-    <mergeCell ref="A277:D277"/>
-    <mergeCell ref="E277:H277"/>
-    <mergeCell ref="A279:H279"/>
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="E64:H64"/>
-    <mergeCell ref="A166:D166"/>
-    <mergeCell ref="E166:H166"/>
-    <mergeCell ref="A168:H168"/>
+    <mergeCell ref="A161:D161"/>
+    <mergeCell ref="E161:H161"/>
+    <mergeCell ref="A163:H163"/>
     <mergeCell ref="A113:H113"/>
-    <mergeCell ref="A129:D129"/>
-    <mergeCell ref="E129:H129"/>
-    <mergeCell ref="A131:H131"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="E147:H147"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="E211:H211"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="E128:H128"/>
+    <mergeCell ref="A130:H130"/>
+    <mergeCell ref="A144:D144"/>
+    <mergeCell ref="E144:H144"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
